--- a/GradutionProject/App_Data/学生选课系统数据库设计.xlsx
+++ b/GradutionProject/App_Data/学生选课系统数据库设计.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wonge7\source\repos\GradutionProject\GradutionProject\App_Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wonge7\Documents\GitHub\GraduationProject\GradutionProject\App_Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17660" windowHeight="10110" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="17660" windowHeight="10110" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="数据库设计-关键表" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="775" uniqueCount="449">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="776" uniqueCount="450">
   <si>
     <t>学生选课系统数据库设计</t>
   </si>
@@ -2345,6 +2345,9 @@
   </si>
   <si>
     <t>（方案二）使用说明：每当学生选一门课程，则向该表中加入一行数据：包括学生编号、课程编号、操作类型、操作日期。</t>
+  </si>
+  <si>
+    <t>改版被采用</t>
   </si>
 </sst>
 </file>
@@ -2881,7 +2884,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="142">
+  <cellXfs count="144">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -3035,125 +3038,143 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -3161,152 +3182,140 @@
     <xf numFmtId="0" fontId="8" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -3634,54 +3643,54 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:15">
-      <c r="B2" s="79" t="s">
+      <c r="B2" s="59" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="80"/>
-      <c r="D2" s="80"/>
-      <c r="E2" s="80"/>
-      <c r="F2" s="80"/>
-      <c r="G2" s="80"/>
-      <c r="H2" s="80"/>
-      <c r="I2" s="80"/>
-      <c r="J2" s="80"/>
-      <c r="K2" s="80"/>
-      <c r="L2" s="80"/>
-      <c r="M2" s="80"/>
-      <c r="N2" s="80"/>
-      <c r="O2" s="81"/>
+      <c r="C2" s="60"/>
+      <c r="D2" s="60"/>
+      <c r="E2" s="60"/>
+      <c r="F2" s="60"/>
+      <c r="G2" s="60"/>
+      <c r="H2" s="60"/>
+      <c r="I2" s="60"/>
+      <c r="J2" s="60"/>
+      <c r="K2" s="60"/>
+      <c r="L2" s="60"/>
+      <c r="M2" s="60"/>
+      <c r="N2" s="60"/>
+      <c r="O2" s="61"/>
     </row>
     <row r="3" spans="2:15">
-      <c r="B3" s="82"/>
-      <c r="C3" s="83"/>
-      <c r="D3" s="83"/>
-      <c r="E3" s="83"/>
-      <c r="F3" s="83"/>
-      <c r="G3" s="83"/>
-      <c r="H3" s="83"/>
-      <c r="I3" s="83"/>
-      <c r="J3" s="83"/>
-      <c r="K3" s="83"/>
-      <c r="L3" s="83"/>
-      <c r="M3" s="83"/>
-      <c r="N3" s="83"/>
-      <c r="O3" s="84"/>
+      <c r="B3" s="62"/>
+      <c r="C3" s="63"/>
+      <c r="D3" s="63"/>
+      <c r="E3" s="63"/>
+      <c r="F3" s="63"/>
+      <c r="G3" s="63"/>
+      <c r="H3" s="63"/>
+      <c r="I3" s="63"/>
+      <c r="J3" s="63"/>
+      <c r="K3" s="63"/>
+      <c r="L3" s="63"/>
+      <c r="M3" s="63"/>
+      <c r="N3" s="63"/>
+      <c r="O3" s="64"/>
     </row>
     <row r="4" spans="2:15">
-      <c r="B4" s="85"/>
-      <c r="C4" s="86"/>
-      <c r="D4" s="86"/>
-      <c r="E4" s="86"/>
-      <c r="F4" s="86"/>
-      <c r="G4" s="86"/>
-      <c r="H4" s="86"/>
-      <c r="I4" s="86"/>
-      <c r="J4" s="86"/>
-      <c r="K4" s="86"/>
-      <c r="L4" s="86"/>
-      <c r="M4" s="86"/>
-      <c r="N4" s="86"/>
-      <c r="O4" s="87"/>
+      <c r="B4" s="65"/>
+      <c r="C4" s="66"/>
+      <c r="D4" s="66"/>
+      <c r="E4" s="66"/>
+      <c r="F4" s="66"/>
+      <c r="G4" s="66"/>
+      <c r="H4" s="66"/>
+      <c r="I4" s="66"/>
+      <c r="J4" s="66"/>
+      <c r="K4" s="66"/>
+      <c r="L4" s="66"/>
+      <c r="M4" s="66"/>
+      <c r="N4" s="66"/>
+      <c r="O4" s="67"/>
     </row>
     <row r="5" spans="2:15" s="15" customFormat="1">
       <c r="F5" s="1"/>
@@ -3705,19 +3714,19 @@
       <c r="D6" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="E6" s="51" t="s">
+      <c r="E6" s="92" t="s">
         <v>4</v>
       </c>
-      <c r="F6" s="51"/>
-      <c r="G6" s="51"/>
-      <c r="H6" s="51"/>
-      <c r="I6" s="51"/>
-      <c r="J6" s="51"/>
-      <c r="K6" s="51"/>
-      <c r="L6" s="51"/>
-      <c r="M6" s="51"/>
-      <c r="N6" s="51"/>
-      <c r="O6" s="51"/>
+      <c r="F6" s="92"/>
+      <c r="G6" s="92"/>
+      <c r="H6" s="92"/>
+      <c r="I6" s="92"/>
+      <c r="J6" s="92"/>
+      <c r="K6" s="92"/>
+      <c r="L6" s="92"/>
+      <c r="M6" s="92"/>
+      <c r="N6" s="92"/>
+      <c r="O6" s="92"/>
     </row>
     <row r="7" spans="2:15" ht="15.5">
       <c r="B7" s="19"/>
@@ -3736,22 +3745,22 @@
       <c r="O7" s="20"/>
     </row>
     <row r="8" spans="2:15">
-      <c r="B8" s="52" t="s">
+      <c r="B8" s="56" t="s">
         <v>5</v>
       </c>
-      <c r="C8" s="53"/>
-      <c r="D8" s="53"/>
-      <c r="E8" s="53"/>
-      <c r="F8" s="53"/>
-      <c r="G8" s="53"/>
-      <c r="H8" s="53"/>
-      <c r="I8" s="53"/>
-      <c r="J8" s="53"/>
-      <c r="K8" s="53"/>
-      <c r="L8" s="53"/>
-      <c r="M8" s="53"/>
-      <c r="N8" s="53"/>
-      <c r="O8" s="53"/>
+      <c r="C8" s="57"/>
+      <c r="D8" s="57"/>
+      <c r="E8" s="57"/>
+      <c r="F8" s="57"/>
+      <c r="G8" s="57"/>
+      <c r="H8" s="57"/>
+      <c r="I8" s="57"/>
+      <c r="J8" s="57"/>
+      <c r="K8" s="57"/>
+      <c r="L8" s="57"/>
+      <c r="M8" s="57"/>
+      <c r="N8" s="57"/>
+      <c r="O8" s="57"/>
     </row>
     <row r="9" spans="2:15" s="6" customFormat="1">
       <c r="B9" s="26" t="s">
@@ -3763,19 +3772,19 @@
       <c r="D9" s="26" t="s">
         <v>8</v>
       </c>
-      <c r="E9" s="54" t="s">
+      <c r="E9" s="58" t="s">
         <v>9</v>
       </c>
-      <c r="F9" s="54"/>
-      <c r="G9" s="54"/>
-      <c r="H9" s="54"/>
-      <c r="I9" s="54"/>
-      <c r="J9" s="54"/>
-      <c r="K9" s="54"/>
-      <c r="L9" s="54"/>
-      <c r="M9" s="54"/>
-      <c r="N9" s="54"/>
-      <c r="O9" s="54"/>
+      <c r="F9" s="58"/>
+      <c r="G9" s="58"/>
+      <c r="H9" s="58"/>
+      <c r="I9" s="58"/>
+      <c r="J9" s="58"/>
+      <c r="K9" s="58"/>
+      <c r="L9" s="58"/>
+      <c r="M9" s="58"/>
+      <c r="N9" s="58"/>
+      <c r="O9" s="58"/>
     </row>
     <row r="10" spans="2:15" s="6" customFormat="1">
       <c r="B10" s="26" t="s">
@@ -3787,19 +3796,19 @@
       <c r="D10" s="26" t="s">
         <v>12</v>
       </c>
-      <c r="E10" s="54" t="s">
+      <c r="E10" s="58" t="s">
         <v>13</v>
       </c>
-      <c r="F10" s="54"/>
-      <c r="G10" s="54"/>
-      <c r="H10" s="54"/>
-      <c r="I10" s="54"/>
-      <c r="J10" s="54"/>
-      <c r="K10" s="54"/>
-      <c r="L10" s="54"/>
-      <c r="M10" s="54"/>
-      <c r="N10" s="54"/>
-      <c r="O10" s="54"/>
+      <c r="F10" s="58"/>
+      <c r="G10" s="58"/>
+      <c r="H10" s="58"/>
+      <c r="I10" s="58"/>
+      <c r="J10" s="58"/>
+      <c r="K10" s="58"/>
+      <c r="L10" s="58"/>
+      <c r="M10" s="58"/>
+      <c r="N10" s="58"/>
+      <c r="O10" s="58"/>
     </row>
     <row r="11" spans="2:15" s="6" customFormat="1">
       <c r="B11" s="26" t="s">
@@ -3811,19 +3820,19 @@
       <c r="D11" s="26" t="s">
         <v>12</v>
       </c>
-      <c r="E11" s="55" t="s">
+      <c r="E11" s="91" t="s">
         <v>16</v>
       </c>
-      <c r="F11" s="54"/>
-      <c r="G11" s="54"/>
-      <c r="H11" s="54"/>
-      <c r="I11" s="54"/>
-      <c r="J11" s="54"/>
-      <c r="K11" s="54"/>
-      <c r="L11" s="54"/>
-      <c r="M11" s="54"/>
-      <c r="N11" s="54"/>
-      <c r="O11" s="54"/>
+      <c r="F11" s="58"/>
+      <c r="G11" s="58"/>
+      <c r="H11" s="58"/>
+      <c r="I11" s="58"/>
+      <c r="J11" s="58"/>
+      <c r="K11" s="58"/>
+      <c r="L11" s="58"/>
+      <c r="M11" s="58"/>
+      <c r="N11" s="58"/>
+      <c r="O11" s="58"/>
     </row>
     <row r="12" spans="2:15" s="6" customFormat="1">
       <c r="B12" s="26" t="s">
@@ -3835,19 +3844,19 @@
       <c r="D12" s="26" t="s">
         <v>19</v>
       </c>
-      <c r="E12" s="54" t="s">
+      <c r="E12" s="58" t="s">
         <v>20</v>
       </c>
-      <c r="F12" s="54"/>
-      <c r="G12" s="54"/>
-      <c r="H12" s="54"/>
-      <c r="I12" s="54"/>
-      <c r="J12" s="54"/>
-      <c r="K12" s="54"/>
-      <c r="L12" s="54"/>
-      <c r="M12" s="54"/>
-      <c r="N12" s="54"/>
-      <c r="O12" s="54"/>
+      <c r="F12" s="58"/>
+      <c r="G12" s="58"/>
+      <c r="H12" s="58"/>
+      <c r="I12" s="58"/>
+      <c r="J12" s="58"/>
+      <c r="K12" s="58"/>
+      <c r="L12" s="58"/>
+      <c r="M12" s="58"/>
+      <c r="N12" s="58"/>
+      <c r="O12" s="58"/>
     </row>
     <row r="13" spans="2:15" s="6" customFormat="1">
       <c r="B13" s="26" t="s">
@@ -3859,55 +3868,55 @@
       <c r="D13" s="26" t="s">
         <v>23</v>
       </c>
-      <c r="E13" s="55" t="s">
+      <c r="E13" s="91" t="s">
         <v>24</v>
       </c>
-      <c r="F13" s="54"/>
-      <c r="G13" s="54"/>
-      <c r="H13" s="54"/>
-      <c r="I13" s="54"/>
-      <c r="J13" s="54"/>
-      <c r="K13" s="54"/>
-      <c r="L13" s="54"/>
-      <c r="M13" s="54"/>
-      <c r="N13" s="54"/>
-      <c r="O13" s="54"/>
+      <c r="F13" s="58"/>
+      <c r="G13" s="58"/>
+      <c r="H13" s="58"/>
+      <c r="I13" s="58"/>
+      <c r="J13" s="58"/>
+      <c r="K13" s="58"/>
+      <c r="L13" s="58"/>
+      <c r="M13" s="58"/>
+      <c r="N13" s="58"/>
+      <c r="O13" s="58"/>
     </row>
     <row r="14" spans="2:15" s="6" customFormat="1">
       <c r="B14" s="26"/>
       <c r="C14" s="26"/>
       <c r="D14" s="26"/>
-      <c r="E14" s="56"/>
-      <c r="F14" s="57"/>
-      <c r="G14" s="57"/>
-      <c r="H14" s="57"/>
-      <c r="I14" s="57"/>
-      <c r="J14" s="57"/>
-      <c r="K14" s="57"/>
-      <c r="L14" s="57"/>
-      <c r="M14" s="57"/>
-      <c r="N14" s="57"/>
-      <c r="O14" s="58"/>
+      <c r="E14" s="53"/>
+      <c r="F14" s="54"/>
+      <c r="G14" s="54"/>
+      <c r="H14" s="54"/>
+      <c r="I14" s="54"/>
+      <c r="J14" s="54"/>
+      <c r="K14" s="54"/>
+      <c r="L14" s="54"/>
+      <c r="M14" s="54"/>
+      <c r="N14" s="54"/>
+      <c r="O14" s="55"/>
     </row>
     <row r="15" spans="2:15" s="6" customFormat="1"/>
     <row r="16" spans="2:15" s="6" customFormat="1"/>
     <row r="17" spans="2:15" s="6" customFormat="1">
-      <c r="B17" s="52" t="s">
+      <c r="B17" s="56" t="s">
         <v>25</v>
       </c>
-      <c r="C17" s="53"/>
-      <c r="D17" s="53"/>
-      <c r="E17" s="53"/>
-      <c r="F17" s="53"/>
-      <c r="G17" s="53"/>
-      <c r="H17" s="53"/>
-      <c r="I17" s="53"/>
-      <c r="J17" s="53"/>
-      <c r="K17" s="53"/>
-      <c r="L17" s="53"/>
-      <c r="M17" s="53"/>
-      <c r="N17" s="53"/>
-      <c r="O17" s="53"/>
+      <c r="C17" s="57"/>
+      <c r="D17" s="57"/>
+      <c r="E17" s="57"/>
+      <c r="F17" s="57"/>
+      <c r="G17" s="57"/>
+      <c r="H17" s="57"/>
+      <c r="I17" s="57"/>
+      <c r="J17" s="57"/>
+      <c r="K17" s="57"/>
+      <c r="L17" s="57"/>
+      <c r="M17" s="57"/>
+      <c r="N17" s="57"/>
+      <c r="O17" s="57"/>
     </row>
     <row r="18" spans="2:15" s="6" customFormat="1">
       <c r="B18" s="26" t="s">
@@ -3919,19 +3928,19 @@
       <c r="D18" s="26" t="s">
         <v>8</v>
       </c>
-      <c r="E18" s="59" t="s">
+      <c r="E18" s="76" t="s">
         <v>26</v>
       </c>
-      <c r="F18" s="54"/>
-      <c r="G18" s="54"/>
-      <c r="H18" s="54"/>
-      <c r="I18" s="54"/>
-      <c r="J18" s="54"/>
-      <c r="K18" s="54"/>
-      <c r="L18" s="54"/>
-      <c r="M18" s="54"/>
-      <c r="N18" s="54"/>
-      <c r="O18" s="54"/>
+      <c r="F18" s="58"/>
+      <c r="G18" s="58"/>
+      <c r="H18" s="58"/>
+      <c r="I18" s="58"/>
+      <c r="J18" s="58"/>
+      <c r="K18" s="58"/>
+      <c r="L18" s="58"/>
+      <c r="M18" s="58"/>
+      <c r="N18" s="58"/>
+      <c r="O18" s="58"/>
     </row>
     <row r="19" spans="2:15" s="6" customFormat="1">
       <c r="B19" s="26" t="s">
@@ -3943,19 +3952,19 @@
       <c r="D19" s="26" t="s">
         <v>29</v>
       </c>
-      <c r="E19" s="54" t="s">
+      <c r="E19" s="58" t="s">
         <v>30</v>
       </c>
-      <c r="F19" s="54"/>
-      <c r="G19" s="54"/>
-      <c r="H19" s="54"/>
-      <c r="I19" s="54"/>
-      <c r="J19" s="54"/>
-      <c r="K19" s="54"/>
-      <c r="L19" s="54"/>
-      <c r="M19" s="54"/>
-      <c r="N19" s="54"/>
-      <c r="O19" s="54"/>
+      <c r="F19" s="58"/>
+      <c r="G19" s="58"/>
+      <c r="H19" s="58"/>
+      <c r="I19" s="58"/>
+      <c r="J19" s="58"/>
+      <c r="K19" s="58"/>
+      <c r="L19" s="58"/>
+      <c r="M19" s="58"/>
+      <c r="N19" s="58"/>
+      <c r="O19" s="58"/>
     </row>
     <row r="20" spans="2:15">
       <c r="B20" s="25" t="s">
@@ -3967,19 +3976,19 @@
       <c r="D20" s="25" t="s">
         <v>23</v>
       </c>
-      <c r="E20" s="55" t="s">
+      <c r="E20" s="91" t="s">
         <v>33</v>
       </c>
-      <c r="F20" s="54"/>
-      <c r="G20" s="54"/>
-      <c r="H20" s="54"/>
-      <c r="I20" s="54"/>
-      <c r="J20" s="54"/>
-      <c r="K20" s="54"/>
-      <c r="L20" s="54"/>
-      <c r="M20" s="54"/>
-      <c r="N20" s="54"/>
-      <c r="O20" s="54"/>
+      <c r="F20" s="58"/>
+      <c r="G20" s="58"/>
+      <c r="H20" s="58"/>
+      <c r="I20" s="58"/>
+      <c r="J20" s="58"/>
+      <c r="K20" s="58"/>
+      <c r="L20" s="58"/>
+      <c r="M20" s="58"/>
+      <c r="N20" s="58"/>
+      <c r="O20" s="58"/>
     </row>
     <row r="21" spans="2:15">
       <c r="B21" s="25" t="s">
@@ -3991,19 +4000,19 @@
       <c r="D21" s="25" t="s">
         <v>36</v>
       </c>
-      <c r="E21" s="54" t="s">
+      <c r="E21" s="58" t="s">
         <v>37</v>
       </c>
-      <c r="F21" s="54"/>
-      <c r="G21" s="54"/>
-      <c r="H21" s="54"/>
-      <c r="I21" s="54"/>
-      <c r="J21" s="54"/>
-      <c r="K21" s="54"/>
-      <c r="L21" s="54"/>
-      <c r="M21" s="54"/>
-      <c r="N21" s="54"/>
-      <c r="O21" s="54"/>
+      <c r="F21" s="58"/>
+      <c r="G21" s="58"/>
+      <c r="H21" s="58"/>
+      <c r="I21" s="58"/>
+      <c r="J21" s="58"/>
+      <c r="K21" s="58"/>
+      <c r="L21" s="58"/>
+      <c r="M21" s="58"/>
+      <c r="N21" s="58"/>
+      <c r="O21" s="58"/>
     </row>
     <row r="22" spans="2:15">
       <c r="B22" s="25" t="s">
@@ -4015,19 +4024,19 @@
       <c r="D22" s="25" t="s">
         <v>12</v>
       </c>
-      <c r="E22" s="54" t="s">
+      <c r="E22" s="58" t="s">
         <v>40</v>
       </c>
-      <c r="F22" s="54"/>
-      <c r="G22" s="54"/>
-      <c r="H22" s="54"/>
-      <c r="I22" s="54"/>
-      <c r="J22" s="54"/>
-      <c r="K22" s="54"/>
-      <c r="L22" s="54"/>
-      <c r="M22" s="54"/>
-      <c r="N22" s="54"/>
-      <c r="O22" s="54"/>
+      <c r="F22" s="58"/>
+      <c r="G22" s="58"/>
+      <c r="H22" s="58"/>
+      <c r="I22" s="58"/>
+      <c r="J22" s="58"/>
+      <c r="K22" s="58"/>
+      <c r="L22" s="58"/>
+      <c r="M22" s="58"/>
+      <c r="N22" s="58"/>
+      <c r="O22" s="58"/>
     </row>
     <row r="23" spans="2:15">
       <c r="B23" s="25" t="s">
@@ -4039,19 +4048,19 @@
       <c r="D23" s="25" t="s">
         <v>12</v>
       </c>
-      <c r="E23" s="54" t="s">
+      <c r="E23" s="58" t="s">
         <v>43</v>
       </c>
-      <c r="F23" s="54"/>
-      <c r="G23" s="54"/>
-      <c r="H23" s="54"/>
-      <c r="I23" s="54"/>
-      <c r="J23" s="54"/>
-      <c r="K23" s="54"/>
-      <c r="L23" s="54"/>
-      <c r="M23" s="54"/>
-      <c r="N23" s="54"/>
-      <c r="O23" s="54"/>
+      <c r="F23" s="58"/>
+      <c r="G23" s="58"/>
+      <c r="H23" s="58"/>
+      <c r="I23" s="58"/>
+      <c r="J23" s="58"/>
+      <c r="K23" s="58"/>
+      <c r="L23" s="58"/>
+      <c r="M23" s="58"/>
+      <c r="N23" s="58"/>
+      <c r="O23" s="58"/>
     </row>
     <row r="24" spans="2:15">
       <c r="B24" s="25" t="s">
@@ -4063,19 +4072,19 @@
       <c r="D24" s="25" t="s">
         <v>46</v>
       </c>
-      <c r="E24" s="54" t="s">
+      <c r="E24" s="58" t="s">
         <v>47</v>
       </c>
-      <c r="F24" s="54"/>
-      <c r="G24" s="54"/>
-      <c r="H24" s="54"/>
-      <c r="I24" s="54"/>
-      <c r="J24" s="54"/>
-      <c r="K24" s="54"/>
-      <c r="L24" s="54"/>
-      <c r="M24" s="54"/>
-      <c r="N24" s="54"/>
-      <c r="O24" s="54"/>
+      <c r="F24" s="58"/>
+      <c r="G24" s="58"/>
+      <c r="H24" s="58"/>
+      <c r="I24" s="58"/>
+      <c r="J24" s="58"/>
+      <c r="K24" s="58"/>
+      <c r="L24" s="58"/>
+      <c r="M24" s="58"/>
+      <c r="N24" s="58"/>
+      <c r="O24" s="58"/>
     </row>
     <row r="25" spans="2:15">
       <c r="B25" s="25" t="s">
@@ -4087,19 +4096,19 @@
       <c r="D25" s="25" t="s">
         <v>29</v>
       </c>
-      <c r="E25" s="54" t="s">
+      <c r="E25" s="58" t="s">
         <v>50</v>
       </c>
-      <c r="F25" s="54"/>
-      <c r="G25" s="54"/>
-      <c r="H25" s="54"/>
-      <c r="I25" s="54"/>
-      <c r="J25" s="54"/>
-      <c r="K25" s="54"/>
-      <c r="L25" s="54"/>
-      <c r="M25" s="54"/>
-      <c r="N25" s="54"/>
-      <c r="O25" s="54"/>
+      <c r="F25" s="58"/>
+      <c r="G25" s="58"/>
+      <c r="H25" s="58"/>
+      <c r="I25" s="58"/>
+      <c r="J25" s="58"/>
+      <c r="K25" s="58"/>
+      <c r="L25" s="58"/>
+      <c r="M25" s="58"/>
+      <c r="N25" s="58"/>
+      <c r="O25" s="58"/>
     </row>
     <row r="26" spans="2:15">
       <c r="B26" s="25" t="s">
@@ -4111,19 +4120,19 @@
       <c r="D26" s="25" t="s">
         <v>53</v>
       </c>
-      <c r="E26" s="54" t="s">
+      <c r="E26" s="58" t="s">
         <v>54</v>
       </c>
-      <c r="F26" s="54"/>
-      <c r="G26" s="54"/>
-      <c r="H26" s="54"/>
-      <c r="I26" s="54"/>
-      <c r="J26" s="54"/>
-      <c r="K26" s="54"/>
-      <c r="L26" s="54"/>
-      <c r="M26" s="54"/>
-      <c r="N26" s="54"/>
-      <c r="O26" s="54"/>
+      <c r="F26" s="58"/>
+      <c r="G26" s="58"/>
+      <c r="H26" s="58"/>
+      <c r="I26" s="58"/>
+      <c r="J26" s="58"/>
+      <c r="K26" s="58"/>
+      <c r="L26" s="58"/>
+      <c r="M26" s="58"/>
+      <c r="N26" s="58"/>
+      <c r="O26" s="58"/>
     </row>
     <row r="27" spans="2:15">
       <c r="B27" s="25" t="s">
@@ -4135,19 +4144,19 @@
       <c r="D27" s="25" t="s">
         <v>53</v>
       </c>
-      <c r="E27" s="60" t="s">
+      <c r="E27" s="71" t="s">
         <v>57</v>
       </c>
-      <c r="F27" s="60"/>
-      <c r="G27" s="60"/>
-      <c r="H27" s="60"/>
-      <c r="I27" s="60"/>
-      <c r="J27" s="60"/>
-      <c r="K27" s="60"/>
-      <c r="L27" s="60"/>
-      <c r="M27" s="60"/>
-      <c r="N27" s="60"/>
-      <c r="O27" s="60"/>
+      <c r="F27" s="71"/>
+      <c r="G27" s="71"/>
+      <c r="H27" s="71"/>
+      <c r="I27" s="71"/>
+      <c r="J27" s="71"/>
+      <c r="K27" s="71"/>
+      <c r="L27" s="71"/>
+      <c r="M27" s="71"/>
+      <c r="N27" s="71"/>
+      <c r="O27" s="71"/>
     </row>
     <row r="28" spans="2:15">
       <c r="B28" s="25" t="s">
@@ -4159,19 +4168,19 @@
       <c r="D28" s="25" t="s">
         <v>53</v>
       </c>
-      <c r="E28" s="60" t="s">
+      <c r="E28" s="71" t="s">
         <v>60</v>
       </c>
-      <c r="F28" s="60"/>
-      <c r="G28" s="60"/>
-      <c r="H28" s="60"/>
-      <c r="I28" s="60"/>
-      <c r="J28" s="60"/>
-      <c r="K28" s="60"/>
-      <c r="L28" s="60"/>
-      <c r="M28" s="60"/>
-      <c r="N28" s="60"/>
-      <c r="O28" s="60"/>
+      <c r="F28" s="71"/>
+      <c r="G28" s="71"/>
+      <c r="H28" s="71"/>
+      <c r="I28" s="71"/>
+      <c r="J28" s="71"/>
+      <c r="K28" s="71"/>
+      <c r="L28" s="71"/>
+      <c r="M28" s="71"/>
+      <c r="N28" s="71"/>
+      <c r="O28" s="71"/>
     </row>
     <row r="29" spans="2:15">
       <c r="B29" s="25" t="s">
@@ -4183,19 +4192,19 @@
       <c r="D29" s="25" t="s">
         <v>63</v>
       </c>
-      <c r="E29" s="60" t="s">
+      <c r="E29" s="71" t="s">
         <v>64</v>
       </c>
-      <c r="F29" s="60"/>
-      <c r="G29" s="60"/>
-      <c r="H29" s="60"/>
-      <c r="I29" s="60"/>
-      <c r="J29" s="60"/>
-      <c r="K29" s="60"/>
-      <c r="L29" s="60"/>
-      <c r="M29" s="60"/>
-      <c r="N29" s="60"/>
-      <c r="O29" s="60"/>
+      <c r="F29" s="71"/>
+      <c r="G29" s="71"/>
+      <c r="H29" s="71"/>
+      <c r="I29" s="71"/>
+      <c r="J29" s="71"/>
+      <c r="K29" s="71"/>
+      <c r="L29" s="71"/>
+      <c r="M29" s="71"/>
+      <c r="N29" s="71"/>
+      <c r="O29" s="71"/>
     </row>
     <row r="30" spans="2:15">
       <c r="B30" s="25" t="s">
@@ -4207,19 +4216,19 @@
       <c r="D30" s="25" t="s">
         <v>67</v>
       </c>
-      <c r="E30" s="61" t="s">
+      <c r="E30" s="72" t="s">
         <v>68</v>
       </c>
-      <c r="F30" s="62"/>
-      <c r="G30" s="62"/>
-      <c r="H30" s="62"/>
-      <c r="I30" s="62"/>
-      <c r="J30" s="62"/>
-      <c r="K30" s="62"/>
-      <c r="L30" s="62"/>
-      <c r="M30" s="62"/>
-      <c r="N30" s="62"/>
-      <c r="O30" s="63"/>
+      <c r="F30" s="73"/>
+      <c r="G30" s="73"/>
+      <c r="H30" s="73"/>
+      <c r="I30" s="73"/>
+      <c r="J30" s="73"/>
+      <c r="K30" s="73"/>
+      <c r="L30" s="73"/>
+      <c r="M30" s="73"/>
+      <c r="N30" s="73"/>
+      <c r="O30" s="74"/>
     </row>
     <row r="31" spans="2:15">
       <c r="B31" s="25" t="s">
@@ -4231,35 +4240,35 @@
       <c r="D31" s="25" t="s">
         <v>67</v>
       </c>
-      <c r="E31" s="55" t="s">
+      <c r="E31" s="91" t="s">
         <v>71</v>
       </c>
-      <c r="F31" s="54"/>
-      <c r="G31" s="54"/>
-      <c r="H31" s="54"/>
-      <c r="I31" s="54"/>
-      <c r="J31" s="54"/>
-      <c r="K31" s="54"/>
-      <c r="L31" s="54"/>
-      <c r="M31" s="54"/>
-      <c r="N31" s="54"/>
-      <c r="O31" s="54"/>
+      <c r="F31" s="58"/>
+      <c r="G31" s="58"/>
+      <c r="H31" s="58"/>
+      <c r="I31" s="58"/>
+      <c r="J31" s="58"/>
+      <c r="K31" s="58"/>
+      <c r="L31" s="58"/>
+      <c r="M31" s="58"/>
+      <c r="N31" s="58"/>
+      <c r="O31" s="58"/>
     </row>
     <row r="32" spans="2:15">
       <c r="B32" s="25"/>
       <c r="C32" s="25"/>
       <c r="D32" s="25"/>
-      <c r="E32" s="54"/>
-      <c r="F32" s="54"/>
-      <c r="G32" s="54"/>
-      <c r="H32" s="54"/>
-      <c r="I32" s="54"/>
-      <c r="J32" s="54"/>
-      <c r="K32" s="54"/>
-      <c r="L32" s="54"/>
-      <c r="M32" s="54"/>
-      <c r="N32" s="54"/>
-      <c r="O32" s="54"/>
+      <c r="E32" s="58"/>
+      <c r="F32" s="58"/>
+      <c r="G32" s="58"/>
+      <c r="H32" s="58"/>
+      <c r="I32" s="58"/>
+      <c r="J32" s="58"/>
+      <c r="K32" s="58"/>
+      <c r="L32" s="58"/>
+      <c r="M32" s="58"/>
+      <c r="N32" s="58"/>
+      <c r="O32" s="58"/>
     </row>
     <row r="33" spans="2:15">
       <c r="E33" s="6"/>
@@ -4288,22 +4297,22 @@
       <c r="O34" s="6"/>
     </row>
     <row r="35" spans="2:15">
-      <c r="B35" s="52" t="s">
+      <c r="B35" s="56" t="s">
         <v>72</v>
       </c>
-      <c r="C35" s="53"/>
-      <c r="D35" s="53"/>
-      <c r="E35" s="53"/>
-      <c r="F35" s="53"/>
-      <c r="G35" s="53"/>
-      <c r="H35" s="53"/>
-      <c r="I35" s="53"/>
-      <c r="J35" s="53"/>
-      <c r="K35" s="53"/>
-      <c r="L35" s="53"/>
-      <c r="M35" s="53"/>
-      <c r="N35" s="53"/>
-      <c r="O35" s="53"/>
+      <c r="C35" s="57"/>
+      <c r="D35" s="57"/>
+      <c r="E35" s="57"/>
+      <c r="F35" s="57"/>
+      <c r="G35" s="57"/>
+      <c r="H35" s="57"/>
+      <c r="I35" s="57"/>
+      <c r="J35" s="57"/>
+      <c r="K35" s="57"/>
+      <c r="L35" s="57"/>
+      <c r="M35" s="57"/>
+      <c r="N35" s="57"/>
+      <c r="O35" s="57"/>
     </row>
     <row r="36" spans="2:15">
       <c r="B36" s="26" t="s">
@@ -4315,19 +4324,19 @@
       <c r="D36" s="26" t="s">
         <v>8</v>
       </c>
-      <c r="E36" s="54" t="s">
+      <c r="E36" s="58" t="s">
         <v>73</v>
       </c>
-      <c r="F36" s="54"/>
-      <c r="G36" s="54"/>
-      <c r="H36" s="54"/>
-      <c r="I36" s="54"/>
-      <c r="J36" s="54"/>
-      <c r="K36" s="54"/>
-      <c r="L36" s="54"/>
-      <c r="M36" s="54"/>
-      <c r="N36" s="54"/>
-      <c r="O36" s="54"/>
+      <c r="F36" s="58"/>
+      <c r="G36" s="58"/>
+      <c r="H36" s="58"/>
+      <c r="I36" s="58"/>
+      <c r="J36" s="58"/>
+      <c r="K36" s="58"/>
+      <c r="L36" s="58"/>
+      <c r="M36" s="58"/>
+      <c r="N36" s="58"/>
+      <c r="O36" s="58"/>
     </row>
     <row r="37" spans="2:15">
       <c r="E37" s="6"/>
@@ -4434,22 +4443,22 @@
       <c r="O44" s="6"/>
     </row>
     <row r="45" spans="2:15" s="6" customFormat="1">
-      <c r="B45" s="52" t="s">
+      <c r="B45" s="56" t="s">
         <v>74</v>
       </c>
-      <c r="C45" s="53"/>
-      <c r="D45" s="53"/>
-      <c r="E45" s="53"/>
-      <c r="F45" s="53"/>
-      <c r="G45" s="53"/>
-      <c r="H45" s="53"/>
-      <c r="I45" s="53"/>
-      <c r="J45" s="53"/>
-      <c r="K45" s="53"/>
-      <c r="L45" s="53"/>
-      <c r="M45" s="53"/>
-      <c r="N45" s="53"/>
-      <c r="O45" s="53"/>
+      <c r="C45" s="57"/>
+      <c r="D45" s="57"/>
+      <c r="E45" s="57"/>
+      <c r="F45" s="57"/>
+      <c r="G45" s="57"/>
+      <c r="H45" s="57"/>
+      <c r="I45" s="57"/>
+      <c r="J45" s="57"/>
+      <c r="K45" s="57"/>
+      <c r="L45" s="57"/>
+      <c r="M45" s="57"/>
+      <c r="N45" s="57"/>
+      <c r="O45" s="57"/>
     </row>
     <row r="46" spans="2:15">
       <c r="B46" s="25" t="s">
@@ -4461,19 +4470,19 @@
       <c r="D46" s="25" t="s">
         <v>8</v>
       </c>
-      <c r="E46" s="54" t="s">
+      <c r="E46" s="58" t="s">
         <v>77</v>
       </c>
-      <c r="F46" s="54"/>
-      <c r="G46" s="54"/>
-      <c r="H46" s="54"/>
-      <c r="I46" s="54"/>
-      <c r="J46" s="54"/>
-      <c r="K46" s="54"/>
-      <c r="L46" s="54"/>
-      <c r="M46" s="54"/>
-      <c r="N46" s="54"/>
-      <c r="O46" s="54"/>
+      <c r="F46" s="58"/>
+      <c r="G46" s="58"/>
+      <c r="H46" s="58"/>
+      <c r="I46" s="58"/>
+      <c r="J46" s="58"/>
+      <c r="K46" s="58"/>
+      <c r="L46" s="58"/>
+      <c r="M46" s="58"/>
+      <c r="N46" s="58"/>
+      <c r="O46" s="58"/>
     </row>
     <row r="47" spans="2:15">
       <c r="B47" s="25" t="s">
@@ -4485,17 +4494,17 @@
       <c r="D47" s="25" t="s">
         <v>53</v>
       </c>
-      <c r="E47" s="60"/>
-      <c r="F47" s="60"/>
-      <c r="G47" s="60"/>
-      <c r="H47" s="60"/>
-      <c r="I47" s="60"/>
-      <c r="J47" s="60"/>
-      <c r="K47" s="60"/>
-      <c r="L47" s="60"/>
-      <c r="M47" s="60"/>
-      <c r="N47" s="60"/>
-      <c r="O47" s="60"/>
+      <c r="E47" s="71"/>
+      <c r="F47" s="71"/>
+      <c r="G47" s="71"/>
+      <c r="H47" s="71"/>
+      <c r="I47" s="71"/>
+      <c r="J47" s="71"/>
+      <c r="K47" s="71"/>
+      <c r="L47" s="71"/>
+      <c r="M47" s="71"/>
+      <c r="N47" s="71"/>
+      <c r="O47" s="71"/>
     </row>
     <row r="48" spans="2:15">
       <c r="B48" s="25" t="s">
@@ -4507,19 +4516,19 @@
       <c r="D48" s="25" t="s">
         <v>8</v>
       </c>
-      <c r="E48" s="64" t="s">
+      <c r="E48" s="85" t="s">
         <v>82</v>
       </c>
-      <c r="F48" s="60"/>
-      <c r="G48" s="60"/>
-      <c r="H48" s="60"/>
-      <c r="I48" s="60"/>
-      <c r="J48" s="60"/>
-      <c r="K48" s="60"/>
-      <c r="L48" s="60"/>
-      <c r="M48" s="60"/>
-      <c r="N48" s="60"/>
-      <c r="O48" s="60"/>
+      <c r="F48" s="71"/>
+      <c r="G48" s="71"/>
+      <c r="H48" s="71"/>
+      <c r="I48" s="71"/>
+      <c r="J48" s="71"/>
+      <c r="K48" s="71"/>
+      <c r="L48" s="71"/>
+      <c r="M48" s="71"/>
+      <c r="N48" s="71"/>
+      <c r="O48" s="71"/>
     </row>
     <row r="49" spans="2:20">
       <c r="B49" s="25" t="s">
@@ -4531,19 +4540,19 @@
       <c r="D49" s="25" t="s">
         <v>85</v>
       </c>
-      <c r="E49" s="60" t="s">
+      <c r="E49" s="71" t="s">
         <v>86</v>
       </c>
-      <c r="F49" s="60"/>
-      <c r="G49" s="60"/>
-      <c r="H49" s="60"/>
-      <c r="I49" s="60"/>
-      <c r="J49" s="60"/>
-      <c r="K49" s="60"/>
-      <c r="L49" s="60"/>
-      <c r="M49" s="60"/>
-      <c r="N49" s="60"/>
-      <c r="O49" s="60"/>
+      <c r="F49" s="71"/>
+      <c r="G49" s="71"/>
+      <c r="H49" s="71"/>
+      <c r="I49" s="71"/>
+      <c r="J49" s="71"/>
+      <c r="K49" s="71"/>
+      <c r="L49" s="71"/>
+      <c r="M49" s="71"/>
+      <c r="N49" s="71"/>
+      <c r="O49" s="71"/>
     </row>
     <row r="50" spans="2:20">
       <c r="B50" s="25" t="s">
@@ -4555,19 +4564,19 @@
       <c r="D50" s="25" t="s">
         <v>85</v>
       </c>
-      <c r="E50" s="60" t="s">
+      <c r="E50" s="71" t="s">
         <v>86</v>
       </c>
-      <c r="F50" s="60"/>
-      <c r="G50" s="60"/>
-      <c r="H50" s="60"/>
-      <c r="I50" s="60"/>
-      <c r="J50" s="60"/>
-      <c r="K50" s="60"/>
-      <c r="L50" s="60"/>
-      <c r="M50" s="60"/>
-      <c r="N50" s="60"/>
-      <c r="O50" s="60"/>
+      <c r="F50" s="71"/>
+      <c r="G50" s="71"/>
+      <c r="H50" s="71"/>
+      <c r="I50" s="71"/>
+      <c r="J50" s="71"/>
+      <c r="K50" s="71"/>
+      <c r="L50" s="71"/>
+      <c r="M50" s="71"/>
+      <c r="N50" s="71"/>
+      <c r="O50" s="71"/>
     </row>
     <row r="51" spans="2:20">
       <c r="B51" s="25" t="s">
@@ -4579,19 +4588,19 @@
       <c r="D51" s="25" t="s">
         <v>85</v>
       </c>
-      <c r="E51" s="60" t="s">
+      <c r="E51" s="71" t="s">
         <v>86</v>
       </c>
-      <c r="F51" s="60"/>
-      <c r="G51" s="60"/>
-      <c r="H51" s="60"/>
-      <c r="I51" s="60"/>
-      <c r="J51" s="60"/>
-      <c r="K51" s="60"/>
-      <c r="L51" s="60"/>
-      <c r="M51" s="60"/>
-      <c r="N51" s="60"/>
-      <c r="O51" s="60"/>
+      <c r="F51" s="71"/>
+      <c r="G51" s="71"/>
+      <c r="H51" s="71"/>
+      <c r="I51" s="71"/>
+      <c r="J51" s="71"/>
+      <c r="K51" s="71"/>
+      <c r="L51" s="71"/>
+      <c r="M51" s="71"/>
+      <c r="N51" s="71"/>
+      <c r="O51" s="71"/>
     </row>
     <row r="52" spans="2:20">
       <c r="B52" s="25" t="s">
@@ -4603,26 +4612,26 @@
       <c r="D52" s="25" t="s">
         <v>93</v>
       </c>
-      <c r="E52" s="65" t="s">
+      <c r="E52" s="86" t="s">
         <v>94</v>
       </c>
-      <c r="F52" s="62"/>
-      <c r="G52" s="62"/>
-      <c r="H52" s="62"/>
-      <c r="I52" s="62"/>
-      <c r="J52" s="62"/>
-      <c r="K52" s="62"/>
-      <c r="L52" s="62"/>
-      <c r="M52" s="62"/>
-      <c r="N52" s="62"/>
-      <c r="O52" s="63"/>
-      <c r="P52" s="89" t="s">
+      <c r="F52" s="73"/>
+      <c r="G52" s="73"/>
+      <c r="H52" s="73"/>
+      <c r="I52" s="73"/>
+      <c r="J52" s="73"/>
+      <c r="K52" s="73"/>
+      <c r="L52" s="73"/>
+      <c r="M52" s="73"/>
+      <c r="N52" s="73"/>
+      <c r="O52" s="74"/>
+      <c r="P52" s="69" t="s">
         <v>95</v>
       </c>
-      <c r="Q52" s="89"/>
-      <c r="R52" s="89"/>
-      <c r="S52" s="89"/>
-      <c r="T52" s="89"/>
+      <c r="Q52" s="69"/>
+      <c r="R52" s="69"/>
+      <c r="S52" s="69"/>
+      <c r="T52" s="69"/>
     </row>
     <row r="53" spans="2:20">
       <c r="B53" s="25" t="s">
@@ -4634,24 +4643,24 @@
       <c r="D53" s="25" t="s">
         <v>12</v>
       </c>
-      <c r="E53" s="65" t="s">
+      <c r="E53" s="86" t="s">
         <v>98</v>
       </c>
-      <c r="F53" s="62"/>
-      <c r="G53" s="62"/>
-      <c r="H53" s="62"/>
-      <c r="I53" s="62"/>
-      <c r="J53" s="62"/>
-      <c r="K53" s="62"/>
-      <c r="L53" s="62"/>
-      <c r="M53" s="62"/>
-      <c r="N53" s="62"/>
-      <c r="O53" s="63"/>
-      <c r="P53" s="89"/>
-      <c r="Q53" s="89"/>
-      <c r="R53" s="89"/>
-      <c r="S53" s="89"/>
-      <c r="T53" s="89"/>
+      <c r="F53" s="73"/>
+      <c r="G53" s="73"/>
+      <c r="H53" s="73"/>
+      <c r="I53" s="73"/>
+      <c r="J53" s="73"/>
+      <c r="K53" s="73"/>
+      <c r="L53" s="73"/>
+      <c r="M53" s="73"/>
+      <c r="N53" s="73"/>
+      <c r="O53" s="74"/>
+      <c r="P53" s="69"/>
+      <c r="Q53" s="69"/>
+      <c r="R53" s="69"/>
+      <c r="S53" s="69"/>
+      <c r="T53" s="69"/>
     </row>
     <row r="54" spans="2:20">
       <c r="B54" s="47" t="s">
@@ -4663,25 +4672,25 @@
       <c r="D54" s="47" t="s">
         <v>19</v>
       </c>
-      <c r="E54" s="66" t="s">
+      <c r="E54" s="87" t="s">
         <v>426</v>
       </c>
-      <c r="F54" s="67"/>
-      <c r="G54" s="67"/>
-      <c r="H54" s="67"/>
-      <c r="I54" s="67"/>
-      <c r="J54" s="67"/>
-      <c r="K54" s="67"/>
-      <c r="L54" s="67"/>
-      <c r="M54" s="67"/>
-      <c r="N54" s="67"/>
-      <c r="O54" s="67"/>
-      <c r="P54" s="88" t="s">
+      <c r="F54" s="88"/>
+      <c r="G54" s="88"/>
+      <c r="H54" s="88"/>
+      <c r="I54" s="88"/>
+      <c r="J54" s="88"/>
+      <c r="K54" s="88"/>
+      <c r="L54" s="88"/>
+      <c r="M54" s="88"/>
+      <c r="N54" s="88"/>
+      <c r="O54" s="88"/>
+      <c r="P54" s="68" t="s">
         <v>102</v>
       </c>
-      <c r="Q54" s="88"/>
-      <c r="R54" s="88"/>
-      <c r="S54" s="88"/>
+      <c r="Q54" s="68"/>
+      <c r="R54" s="68"/>
+      <c r="S54" s="68"/>
     </row>
     <row r="55" spans="2:20">
       <c r="B55" s="47" t="s">
@@ -4693,23 +4702,23 @@
       <c r="D55" s="47" t="s">
         <v>105</v>
       </c>
-      <c r="E55" s="68" t="s">
+      <c r="E55" s="89" t="s">
         <v>106</v>
       </c>
-      <c r="F55" s="67"/>
-      <c r="G55" s="67"/>
-      <c r="H55" s="67"/>
-      <c r="I55" s="67"/>
-      <c r="J55" s="67"/>
-      <c r="K55" s="67"/>
-      <c r="L55" s="67"/>
-      <c r="M55" s="67"/>
-      <c r="N55" s="67"/>
-      <c r="O55" s="67"/>
-      <c r="P55" s="88"/>
-      <c r="Q55" s="88"/>
-      <c r="R55" s="88"/>
-      <c r="S55" s="88"/>
+      <c r="F55" s="88"/>
+      <c r="G55" s="88"/>
+      <c r="H55" s="88"/>
+      <c r="I55" s="88"/>
+      <c r="J55" s="88"/>
+      <c r="K55" s="88"/>
+      <c r="L55" s="88"/>
+      <c r="M55" s="88"/>
+      <c r="N55" s="88"/>
+      <c r="O55" s="88"/>
+      <c r="P55" s="68"/>
+      <c r="Q55" s="68"/>
+      <c r="R55" s="68"/>
+      <c r="S55" s="68"/>
     </row>
     <row r="56" spans="2:20">
       <c r="B56" s="47" t="s">
@@ -4721,23 +4730,23 @@
       <c r="D56" s="47" t="s">
         <v>109</v>
       </c>
-      <c r="E56" s="68" t="s">
+      <c r="E56" s="89" t="s">
         <v>110</v>
       </c>
-      <c r="F56" s="67"/>
-      <c r="G56" s="67"/>
-      <c r="H56" s="67"/>
-      <c r="I56" s="67"/>
-      <c r="J56" s="67"/>
-      <c r="K56" s="67"/>
-      <c r="L56" s="67"/>
-      <c r="M56" s="67"/>
-      <c r="N56" s="67"/>
-      <c r="O56" s="67"/>
-      <c r="P56" s="88"/>
-      <c r="Q56" s="88"/>
-      <c r="R56" s="88"/>
-      <c r="S56" s="88"/>
+      <c r="F56" s="88"/>
+      <c r="G56" s="88"/>
+      <c r="H56" s="88"/>
+      <c r="I56" s="88"/>
+      <c r="J56" s="88"/>
+      <c r="K56" s="88"/>
+      <c r="L56" s="88"/>
+      <c r="M56" s="88"/>
+      <c r="N56" s="88"/>
+      <c r="O56" s="88"/>
+      <c r="P56" s="68"/>
+      <c r="Q56" s="68"/>
+      <c r="R56" s="68"/>
+      <c r="S56" s="68"/>
     </row>
     <row r="57" spans="2:20">
       <c r="B57" s="48" t="s">
@@ -4749,19 +4758,19 @@
       <c r="D57" s="48" t="s">
         <v>8</v>
       </c>
-      <c r="E57" s="69" t="s">
+      <c r="E57" s="90" t="s">
         <v>113</v>
       </c>
-      <c r="F57" s="62"/>
-      <c r="G57" s="62"/>
-      <c r="H57" s="62"/>
-      <c r="I57" s="62"/>
-      <c r="J57" s="62"/>
-      <c r="K57" s="62"/>
-      <c r="L57" s="62"/>
-      <c r="M57" s="62"/>
-      <c r="N57" s="62"/>
-      <c r="O57" s="63"/>
+      <c r="F57" s="73"/>
+      <c r="G57" s="73"/>
+      <c r="H57" s="73"/>
+      <c r="I57" s="73"/>
+      <c r="J57" s="73"/>
+      <c r="K57" s="73"/>
+      <c r="L57" s="73"/>
+      <c r="M57" s="73"/>
+      <c r="N57" s="73"/>
+      <c r="O57" s="74"/>
       <c r="P57" s="40"/>
       <c r="Q57" s="40"/>
       <c r="R57" s="40"/>
@@ -4777,19 +4786,19 @@
       <c r="D58" s="25" t="s">
         <v>116</v>
       </c>
-      <c r="E58" s="60" t="s">
+      <c r="E58" s="71" t="s">
         <v>117</v>
       </c>
-      <c r="F58" s="60"/>
-      <c r="G58" s="60"/>
-      <c r="H58" s="60"/>
-      <c r="I58" s="60"/>
-      <c r="J58" s="60"/>
-      <c r="K58" s="60"/>
-      <c r="L58" s="60"/>
-      <c r="M58" s="60"/>
-      <c r="N58" s="60"/>
-      <c r="O58" s="60"/>
+      <c r="F58" s="71"/>
+      <c r="G58" s="71"/>
+      <c r="H58" s="71"/>
+      <c r="I58" s="71"/>
+      <c r="J58" s="71"/>
+      <c r="K58" s="71"/>
+      <c r="L58" s="71"/>
+      <c r="M58" s="71"/>
+      <c r="N58" s="71"/>
+      <c r="O58" s="71"/>
     </row>
     <row r="59" spans="2:20">
       <c r="B59" s="25" t="s">
@@ -4801,19 +4810,19 @@
       <c r="D59" s="25" t="s">
         <v>116</v>
       </c>
-      <c r="E59" s="61" t="s">
+      <c r="E59" s="72" t="s">
         <v>117</v>
       </c>
-      <c r="F59" s="62"/>
-      <c r="G59" s="62"/>
-      <c r="H59" s="62"/>
-      <c r="I59" s="62"/>
-      <c r="J59" s="62"/>
-      <c r="K59" s="62"/>
-      <c r="L59" s="62"/>
-      <c r="M59" s="62"/>
-      <c r="N59" s="62"/>
-      <c r="O59" s="63"/>
+      <c r="F59" s="73"/>
+      <c r="G59" s="73"/>
+      <c r="H59" s="73"/>
+      <c r="I59" s="73"/>
+      <c r="J59" s="73"/>
+      <c r="K59" s="73"/>
+      <c r="L59" s="73"/>
+      <c r="M59" s="73"/>
+      <c r="N59" s="73"/>
+      <c r="O59" s="74"/>
     </row>
     <row r="60" spans="2:20">
       <c r="B60" s="25" t="s">
@@ -4825,19 +4834,19 @@
       <c r="D60" s="25" t="s">
         <v>122</v>
       </c>
-      <c r="E60" s="60" t="s">
+      <c r="E60" s="71" t="s">
         <v>123</v>
       </c>
-      <c r="F60" s="60"/>
-      <c r="G60" s="60"/>
-      <c r="H60" s="60"/>
-      <c r="I60" s="60"/>
-      <c r="J60" s="60"/>
-      <c r="K60" s="60"/>
-      <c r="L60" s="60"/>
-      <c r="M60" s="60"/>
-      <c r="N60" s="60"/>
-      <c r="O60" s="60"/>
+      <c r="F60" s="71"/>
+      <c r="G60" s="71"/>
+      <c r="H60" s="71"/>
+      <c r="I60" s="71"/>
+      <c r="J60" s="71"/>
+      <c r="K60" s="71"/>
+      <c r="L60" s="71"/>
+      <c r="M60" s="71"/>
+      <c r="N60" s="71"/>
+      <c r="O60" s="71"/>
     </row>
     <row r="61" spans="2:20">
       <c r="B61" s="25" t="s">
@@ -4849,19 +4858,19 @@
       <c r="D61" s="25" t="s">
         <v>126</v>
       </c>
-      <c r="E61" s="64" t="s">
+      <c r="E61" s="85" t="s">
         <v>127</v>
       </c>
-      <c r="F61" s="60"/>
-      <c r="G61" s="60"/>
-      <c r="H61" s="60"/>
-      <c r="I61" s="60"/>
-      <c r="J61" s="60"/>
-      <c r="K61" s="60"/>
-      <c r="L61" s="60"/>
-      <c r="M61" s="60"/>
-      <c r="N61" s="60"/>
-      <c r="O61" s="60"/>
+      <c r="F61" s="71"/>
+      <c r="G61" s="71"/>
+      <c r="H61" s="71"/>
+      <c r="I61" s="71"/>
+      <c r="J61" s="71"/>
+      <c r="K61" s="71"/>
+      <c r="L61" s="71"/>
+      <c r="M61" s="71"/>
+      <c r="N61" s="71"/>
+      <c r="O61" s="71"/>
     </row>
     <row r="62" spans="2:20">
       <c r="B62" s="25" t="s">
@@ -4873,35 +4882,35 @@
       <c r="D62" s="25" t="s">
         <v>12</v>
       </c>
-      <c r="E62" s="61" t="s">
+      <c r="E62" s="72" t="s">
         <v>130</v>
       </c>
-      <c r="F62" s="62"/>
-      <c r="G62" s="62"/>
-      <c r="H62" s="62"/>
-      <c r="I62" s="62"/>
-      <c r="J62" s="62"/>
-      <c r="K62" s="62"/>
-      <c r="L62" s="62"/>
-      <c r="M62" s="62"/>
-      <c r="N62" s="62"/>
-      <c r="O62" s="63"/>
+      <c r="F62" s="73"/>
+      <c r="G62" s="73"/>
+      <c r="H62" s="73"/>
+      <c r="I62" s="73"/>
+      <c r="J62" s="73"/>
+      <c r="K62" s="73"/>
+      <c r="L62" s="73"/>
+      <c r="M62" s="73"/>
+      <c r="N62" s="73"/>
+      <c r="O62" s="74"/>
     </row>
     <row r="63" spans="2:20">
       <c r="B63" s="25"/>
       <c r="C63" s="25"/>
       <c r="D63" s="25"/>
-      <c r="E63" s="61"/>
-      <c r="F63" s="62"/>
-      <c r="G63" s="62"/>
-      <c r="H63" s="62"/>
-      <c r="I63" s="62"/>
-      <c r="J63" s="62"/>
-      <c r="K63" s="62"/>
-      <c r="L63" s="62"/>
-      <c r="M63" s="62"/>
-      <c r="N63" s="62"/>
-      <c r="O63" s="63"/>
+      <c r="E63" s="72"/>
+      <c r="F63" s="73"/>
+      <c r="G63" s="73"/>
+      <c r="H63" s="73"/>
+      <c r="I63" s="73"/>
+      <c r="J63" s="73"/>
+      <c r="K63" s="73"/>
+      <c r="L63" s="73"/>
+      <c r="M63" s="73"/>
+      <c r="N63" s="73"/>
+      <c r="O63" s="74"/>
     </row>
     <row r="64" spans="2:20">
       <c r="E64" s="21"/>
@@ -4930,22 +4939,22 @@
       <c r="O65" s="21"/>
     </row>
     <row r="66" spans="2:15">
-      <c r="B66" s="52" t="s">
+      <c r="B66" s="56" t="s">
         <v>131</v>
       </c>
-      <c r="C66" s="53"/>
-      <c r="D66" s="53"/>
-      <c r="E66" s="53"/>
-      <c r="F66" s="53"/>
-      <c r="G66" s="53"/>
-      <c r="H66" s="53"/>
-      <c r="I66" s="53"/>
-      <c r="J66" s="53"/>
-      <c r="K66" s="53"/>
-      <c r="L66" s="53"/>
-      <c r="M66" s="53"/>
-      <c r="N66" s="53"/>
-      <c r="O66" s="53"/>
+      <c r="C66" s="57"/>
+      <c r="D66" s="57"/>
+      <c r="E66" s="57"/>
+      <c r="F66" s="57"/>
+      <c r="G66" s="57"/>
+      <c r="H66" s="57"/>
+      <c r="I66" s="57"/>
+      <c r="J66" s="57"/>
+      <c r="K66" s="57"/>
+      <c r="L66" s="57"/>
+      <c r="M66" s="57"/>
+      <c r="N66" s="57"/>
+      <c r="O66" s="57"/>
     </row>
     <row r="67" spans="2:15">
       <c r="B67" s="25" t="s">
@@ -4957,19 +4966,19 @@
       <c r="D67" s="25" t="s">
         <v>8</v>
       </c>
-      <c r="E67" s="54" t="s">
+      <c r="E67" s="58" t="s">
         <v>133</v>
       </c>
-      <c r="F67" s="54"/>
-      <c r="G67" s="54"/>
-      <c r="H67" s="54"/>
-      <c r="I67" s="54"/>
-      <c r="J67" s="54"/>
-      <c r="K67" s="54"/>
-      <c r="L67" s="54"/>
-      <c r="M67" s="54"/>
-      <c r="N67" s="54"/>
-      <c r="O67" s="54"/>
+      <c r="F67" s="58"/>
+      <c r="G67" s="58"/>
+      <c r="H67" s="58"/>
+      <c r="I67" s="58"/>
+      <c r="J67" s="58"/>
+      <c r="K67" s="58"/>
+      <c r="L67" s="58"/>
+      <c r="M67" s="58"/>
+      <c r="N67" s="58"/>
+      <c r="O67" s="58"/>
     </row>
     <row r="68" spans="2:15">
       <c r="B68" s="25" t="s">
@@ -4981,19 +4990,19 @@
       <c r="D68" s="25" t="s">
         <v>8</v>
       </c>
-      <c r="E68" s="64" t="s">
+      <c r="E68" s="85" t="s">
         <v>134</v>
       </c>
-      <c r="F68" s="60"/>
-      <c r="G68" s="60"/>
-      <c r="H68" s="60"/>
-      <c r="I68" s="60"/>
-      <c r="J68" s="60"/>
-      <c r="K68" s="60"/>
-      <c r="L68" s="60"/>
-      <c r="M68" s="60"/>
-      <c r="N68" s="60"/>
-      <c r="O68" s="60"/>
+      <c r="F68" s="71"/>
+      <c r="G68" s="71"/>
+      <c r="H68" s="71"/>
+      <c r="I68" s="71"/>
+      <c r="J68" s="71"/>
+      <c r="K68" s="71"/>
+      <c r="L68" s="71"/>
+      <c r="M68" s="71"/>
+      <c r="N68" s="71"/>
+      <c r="O68" s="71"/>
     </row>
     <row r="69" spans="2:15">
       <c r="B69" s="25" t="s">
@@ -5005,19 +5014,19 @@
       <c r="D69" s="25" t="s">
         <v>19</v>
       </c>
-      <c r="E69" s="65" t="s">
+      <c r="E69" s="86" t="s">
         <v>101</v>
       </c>
-      <c r="F69" s="62"/>
-      <c r="G69" s="62"/>
-      <c r="H69" s="62"/>
-      <c r="I69" s="62"/>
-      <c r="J69" s="62"/>
-      <c r="K69" s="62"/>
-      <c r="L69" s="62"/>
-      <c r="M69" s="62"/>
-      <c r="N69" s="62"/>
-      <c r="O69" s="63"/>
+      <c r="F69" s="73"/>
+      <c r="G69" s="73"/>
+      <c r="H69" s="73"/>
+      <c r="I69" s="73"/>
+      <c r="J69" s="73"/>
+      <c r="K69" s="73"/>
+      <c r="L69" s="73"/>
+      <c r="M69" s="73"/>
+      <c r="N69" s="73"/>
+      <c r="O69" s="74"/>
     </row>
     <row r="70" spans="2:15">
       <c r="B70" s="25" t="s">
@@ -5029,19 +5038,19 @@
       <c r="D70" s="25" t="s">
         <v>105</v>
       </c>
-      <c r="E70" s="65" t="s">
+      <c r="E70" s="86" t="s">
         <v>106</v>
       </c>
-      <c r="F70" s="62"/>
-      <c r="G70" s="62"/>
-      <c r="H70" s="62"/>
-      <c r="I70" s="62"/>
-      <c r="J70" s="62"/>
-      <c r="K70" s="62"/>
-      <c r="L70" s="62"/>
-      <c r="M70" s="62"/>
-      <c r="N70" s="62"/>
-      <c r="O70" s="63"/>
+      <c r="F70" s="73"/>
+      <c r="G70" s="73"/>
+      <c r="H70" s="73"/>
+      <c r="I70" s="73"/>
+      <c r="J70" s="73"/>
+      <c r="K70" s="73"/>
+      <c r="L70" s="73"/>
+      <c r="M70" s="73"/>
+      <c r="N70" s="73"/>
+      <c r="O70" s="74"/>
     </row>
     <row r="71" spans="2:15">
       <c r="B71" s="25" t="s">
@@ -5053,19 +5062,19 @@
       <c r="D71" s="25" t="s">
         <v>93</v>
       </c>
-      <c r="E71" s="61" t="s">
+      <c r="E71" s="72" t="s">
         <v>110</v>
       </c>
-      <c r="F71" s="62"/>
-      <c r="G71" s="62"/>
-      <c r="H71" s="62"/>
-      <c r="I71" s="62"/>
-      <c r="J71" s="62"/>
-      <c r="K71" s="62"/>
-      <c r="L71" s="62"/>
-      <c r="M71" s="62"/>
-      <c r="N71" s="62"/>
-      <c r="O71" s="63"/>
+      <c r="F71" s="73"/>
+      <c r="G71" s="73"/>
+      <c r="H71" s="73"/>
+      <c r="I71" s="73"/>
+      <c r="J71" s="73"/>
+      <c r="K71" s="73"/>
+      <c r="L71" s="73"/>
+      <c r="M71" s="73"/>
+      <c r="N71" s="73"/>
+      <c r="O71" s="74"/>
     </row>
     <row r="72" spans="2:15">
       <c r="B72" s="25" t="s">
@@ -5077,51 +5086,51 @@
       <c r="D72" s="25" t="s">
         <v>63</v>
       </c>
-      <c r="E72" s="60" t="s">
+      <c r="E72" s="71" t="s">
         <v>137</v>
       </c>
-      <c r="F72" s="60"/>
-      <c r="G72" s="60"/>
-      <c r="H72" s="60"/>
-      <c r="I72" s="60"/>
-      <c r="J72" s="60"/>
-      <c r="K72" s="60"/>
-      <c r="L72" s="60"/>
-      <c r="M72" s="60"/>
-      <c r="N72" s="60"/>
-      <c r="O72" s="60"/>
+      <c r="F72" s="71"/>
+      <c r="G72" s="71"/>
+      <c r="H72" s="71"/>
+      <c r="I72" s="71"/>
+      <c r="J72" s="71"/>
+      <c r="K72" s="71"/>
+      <c r="L72" s="71"/>
+      <c r="M72" s="71"/>
+      <c r="N72" s="71"/>
+      <c r="O72" s="71"/>
     </row>
     <row r="73" spans="2:15">
       <c r="B73" s="25"/>
       <c r="C73" s="25"/>
       <c r="D73" s="25"/>
-      <c r="E73" s="60"/>
-      <c r="F73" s="60"/>
-      <c r="G73" s="60"/>
-      <c r="H73" s="60"/>
-      <c r="I73" s="60"/>
-      <c r="J73" s="60"/>
-      <c r="K73" s="60"/>
-      <c r="L73" s="60"/>
-      <c r="M73" s="60"/>
-      <c r="N73" s="60"/>
-      <c r="O73" s="60"/>
+      <c r="E73" s="71"/>
+      <c r="F73" s="71"/>
+      <c r="G73" s="71"/>
+      <c r="H73" s="71"/>
+      <c r="I73" s="71"/>
+      <c r="J73" s="71"/>
+      <c r="K73" s="71"/>
+      <c r="L73" s="71"/>
+      <c r="M73" s="71"/>
+      <c r="N73" s="71"/>
+      <c r="O73" s="71"/>
     </row>
     <row r="74" spans="2:15">
       <c r="B74" s="25"/>
       <c r="C74" s="25"/>
       <c r="D74" s="25"/>
-      <c r="E74" s="60"/>
-      <c r="F74" s="60"/>
-      <c r="G74" s="60"/>
-      <c r="H74" s="60"/>
-      <c r="I74" s="60"/>
-      <c r="J74" s="60"/>
-      <c r="K74" s="60"/>
-      <c r="L74" s="60"/>
-      <c r="M74" s="60"/>
-      <c r="N74" s="60"/>
-      <c r="O74" s="60"/>
+      <c r="E74" s="71"/>
+      <c r="F74" s="71"/>
+      <c r="G74" s="71"/>
+      <c r="H74" s="71"/>
+      <c r="I74" s="71"/>
+      <c r="J74" s="71"/>
+      <c r="K74" s="71"/>
+      <c r="L74" s="71"/>
+      <c r="M74" s="71"/>
+      <c r="N74" s="71"/>
+      <c r="O74" s="71"/>
     </row>
     <row r="75" spans="2:15">
       <c r="E75" s="21"/>
@@ -5150,22 +5159,22 @@
       <c r="O76" s="21"/>
     </row>
     <row r="77" spans="2:15">
-      <c r="B77" s="52" t="s">
+      <c r="B77" s="56" t="s">
         <v>138</v>
       </c>
-      <c r="C77" s="53"/>
-      <c r="D77" s="53"/>
-      <c r="E77" s="53"/>
-      <c r="F77" s="53"/>
-      <c r="G77" s="53"/>
-      <c r="H77" s="53"/>
-      <c r="I77" s="53"/>
-      <c r="J77" s="53"/>
-      <c r="K77" s="53"/>
-      <c r="L77" s="53"/>
-      <c r="M77" s="53"/>
-      <c r="N77" s="53"/>
-      <c r="O77" s="53"/>
+      <c r="C77" s="57"/>
+      <c r="D77" s="57"/>
+      <c r="E77" s="57"/>
+      <c r="F77" s="57"/>
+      <c r="G77" s="57"/>
+      <c r="H77" s="57"/>
+      <c r="I77" s="57"/>
+      <c r="J77" s="57"/>
+      <c r="K77" s="57"/>
+      <c r="L77" s="57"/>
+      <c r="M77" s="57"/>
+      <c r="N77" s="57"/>
+      <c r="O77" s="57"/>
     </row>
     <row r="78" spans="2:15">
       <c r="B78" s="25" t="s">
@@ -5177,17 +5186,17 @@
       <c r="D78" s="25" t="s">
         <v>8</v>
       </c>
-      <c r="E78" s="54"/>
-      <c r="F78" s="54"/>
-      <c r="G78" s="54"/>
-      <c r="H78" s="54"/>
-      <c r="I78" s="54"/>
-      <c r="J78" s="54"/>
-      <c r="K78" s="54"/>
-      <c r="L78" s="54"/>
-      <c r="M78" s="54"/>
-      <c r="N78" s="54"/>
-      <c r="O78" s="54"/>
+      <c r="E78" s="58"/>
+      <c r="F78" s="58"/>
+      <c r="G78" s="58"/>
+      <c r="H78" s="58"/>
+      <c r="I78" s="58"/>
+      <c r="J78" s="58"/>
+      <c r="K78" s="58"/>
+      <c r="L78" s="58"/>
+      <c r="M78" s="58"/>
+      <c r="N78" s="58"/>
+      <c r="O78" s="58"/>
     </row>
     <row r="79" spans="2:15">
       <c r="B79" s="25" t="s">
@@ -5199,19 +5208,19 @@
       <c r="D79" s="25" t="s">
         <v>93</v>
       </c>
-      <c r="E79" s="60" t="s">
+      <c r="E79" s="71" t="s">
         <v>143</v>
       </c>
-      <c r="F79" s="60"/>
-      <c r="G79" s="60"/>
-      <c r="H79" s="60"/>
-      <c r="I79" s="60"/>
-      <c r="J79" s="60"/>
-      <c r="K79" s="60"/>
-      <c r="L79" s="60"/>
-      <c r="M79" s="60"/>
-      <c r="N79" s="60"/>
-      <c r="O79" s="60"/>
+      <c r="F79" s="71"/>
+      <c r="G79" s="71"/>
+      <c r="H79" s="71"/>
+      <c r="I79" s="71"/>
+      <c r="J79" s="71"/>
+      <c r="K79" s="71"/>
+      <c r="L79" s="71"/>
+      <c r="M79" s="71"/>
+      <c r="N79" s="71"/>
+      <c r="O79" s="71"/>
     </row>
     <row r="80" spans="2:15">
       <c r="B80" s="25" t="s">
@@ -5223,19 +5232,19 @@
       <c r="D80" s="25" t="s">
         <v>109</v>
       </c>
-      <c r="E80" s="60" t="s">
+      <c r="E80" s="71" t="s">
         <v>146</v>
       </c>
-      <c r="F80" s="60"/>
-      <c r="G80" s="60"/>
-      <c r="H80" s="60"/>
-      <c r="I80" s="60"/>
-      <c r="J80" s="60"/>
-      <c r="K80" s="60"/>
-      <c r="L80" s="60"/>
-      <c r="M80" s="60"/>
-      <c r="N80" s="60"/>
-      <c r="O80" s="60"/>
+      <c r="F80" s="71"/>
+      <c r="G80" s="71"/>
+      <c r="H80" s="71"/>
+      <c r="I80" s="71"/>
+      <c r="J80" s="71"/>
+      <c r="K80" s="71"/>
+      <c r="L80" s="71"/>
+      <c r="M80" s="71"/>
+      <c r="N80" s="71"/>
+      <c r="O80" s="71"/>
     </row>
     <row r="81" spans="2:20">
       <c r="B81" s="25" t="s">
@@ -5247,19 +5256,19 @@
       <c r="D81" s="25" t="s">
         <v>109</v>
       </c>
-      <c r="E81" s="60" t="s">
+      <c r="E81" s="71" t="s">
         <v>149</v>
       </c>
-      <c r="F81" s="60"/>
-      <c r="G81" s="60"/>
-      <c r="H81" s="60"/>
-      <c r="I81" s="60"/>
-      <c r="J81" s="60"/>
-      <c r="K81" s="60"/>
-      <c r="L81" s="60"/>
-      <c r="M81" s="60"/>
-      <c r="N81" s="60"/>
-      <c r="O81" s="60"/>
+      <c r="F81" s="71"/>
+      <c r="G81" s="71"/>
+      <c r="H81" s="71"/>
+      <c r="I81" s="71"/>
+      <c r="J81" s="71"/>
+      <c r="K81" s="71"/>
+      <c r="L81" s="71"/>
+      <c r="M81" s="71"/>
+      <c r="N81" s="71"/>
+      <c r="O81" s="71"/>
     </row>
     <row r="82" spans="2:20">
       <c r="B82" s="25" t="s">
@@ -5271,35 +5280,35 @@
       <c r="D82" s="25" t="s">
         <v>116</v>
       </c>
-      <c r="E82" s="61" t="s">
+      <c r="E82" s="72" t="s">
         <v>152</v>
       </c>
-      <c r="F82" s="62"/>
-      <c r="G82" s="62"/>
-      <c r="H82" s="62"/>
-      <c r="I82" s="62"/>
-      <c r="J82" s="62"/>
-      <c r="K82" s="62"/>
-      <c r="L82" s="62"/>
-      <c r="M82" s="62"/>
-      <c r="N82" s="62"/>
-      <c r="O82" s="63"/>
+      <c r="F82" s="73"/>
+      <c r="G82" s="73"/>
+      <c r="H82" s="73"/>
+      <c r="I82" s="73"/>
+      <c r="J82" s="73"/>
+      <c r="K82" s="73"/>
+      <c r="L82" s="73"/>
+      <c r="M82" s="73"/>
+      <c r="N82" s="73"/>
+      <c r="O82" s="74"/>
     </row>
     <row r="83" spans="2:20">
       <c r="B83" s="25"/>
       <c r="C83" s="25"/>
       <c r="D83" s="25"/>
-      <c r="E83" s="60"/>
-      <c r="F83" s="60"/>
-      <c r="G83" s="60"/>
-      <c r="H83" s="60"/>
-      <c r="I83" s="60"/>
-      <c r="J83" s="60"/>
-      <c r="K83" s="60"/>
-      <c r="L83" s="60"/>
-      <c r="M83" s="60"/>
-      <c r="N83" s="60"/>
-      <c r="O83" s="60"/>
+      <c r="E83" s="71"/>
+      <c r="F83" s="71"/>
+      <c r="G83" s="71"/>
+      <c r="H83" s="71"/>
+      <c r="I83" s="71"/>
+      <c r="J83" s="71"/>
+      <c r="K83" s="71"/>
+      <c r="L83" s="71"/>
+      <c r="M83" s="71"/>
+      <c r="N83" s="71"/>
+      <c r="O83" s="71"/>
     </row>
     <row r="84" spans="2:20">
       <c r="E84" s="21"/>
@@ -5328,22 +5337,22 @@
       <c r="O85" s="21"/>
     </row>
     <row r="86" spans="2:20">
-      <c r="B86" s="52" t="s">
+      <c r="B86" s="56" t="s">
         <v>153</v>
       </c>
-      <c r="C86" s="53"/>
-      <c r="D86" s="53"/>
-      <c r="E86" s="53"/>
-      <c r="F86" s="53"/>
-      <c r="G86" s="53"/>
-      <c r="H86" s="53"/>
-      <c r="I86" s="53"/>
-      <c r="J86" s="53"/>
-      <c r="K86" s="53"/>
-      <c r="L86" s="53"/>
-      <c r="M86" s="53"/>
-      <c r="N86" s="53"/>
-      <c r="O86" s="53"/>
+      <c r="C86" s="57"/>
+      <c r="D86" s="57"/>
+      <c r="E86" s="57"/>
+      <c r="F86" s="57"/>
+      <c r="G86" s="57"/>
+      <c r="H86" s="57"/>
+      <c r="I86" s="57"/>
+      <c r="J86" s="57"/>
+      <c r="K86" s="57"/>
+      <c r="L86" s="57"/>
+      <c r="M86" s="57"/>
+      <c r="N86" s="57"/>
+      <c r="O86" s="57"/>
     </row>
     <row r="87" spans="2:20">
       <c r="B87" s="25" t="s">
@@ -5355,19 +5364,19 @@
       <c r="D87" s="25" t="s">
         <v>8</v>
       </c>
-      <c r="E87" s="70" t="s">
+      <c r="E87" s="82" t="s">
         <v>154</v>
       </c>
-      <c r="F87" s="54"/>
-      <c r="G87" s="54"/>
-      <c r="H87" s="54"/>
-      <c r="I87" s="54"/>
-      <c r="J87" s="54"/>
-      <c r="K87" s="54"/>
-      <c r="L87" s="54"/>
-      <c r="M87" s="54"/>
-      <c r="N87" s="54"/>
-      <c r="O87" s="54"/>
+      <c r="F87" s="58"/>
+      <c r="G87" s="58"/>
+      <c r="H87" s="58"/>
+      <c r="I87" s="58"/>
+      <c r="J87" s="58"/>
+      <c r="K87" s="58"/>
+      <c r="L87" s="58"/>
+      <c r="M87" s="58"/>
+      <c r="N87" s="58"/>
+      <c r="O87" s="58"/>
     </row>
     <row r="88" spans="2:20">
       <c r="B88" s="49" t="s">
@@ -5377,25 +5386,25 @@
         <v>156</v>
       </c>
       <c r="D88" s="49"/>
-      <c r="E88" s="71" t="s">
+      <c r="E88" s="83" t="s">
         <v>157</v>
       </c>
-      <c r="F88" s="72"/>
-      <c r="G88" s="72"/>
-      <c r="H88" s="72"/>
-      <c r="I88" s="72"/>
-      <c r="J88" s="72"/>
-      <c r="K88" s="72"/>
-      <c r="L88" s="72"/>
-      <c r="M88" s="72"/>
-      <c r="N88" s="72"/>
-      <c r="O88" s="72"/>
-      <c r="P88" s="90" t="s">
+      <c r="F88" s="84"/>
+      <c r="G88" s="84"/>
+      <c r="H88" s="84"/>
+      <c r="I88" s="84"/>
+      <c r="J88" s="84"/>
+      <c r="K88" s="84"/>
+      <c r="L88" s="84"/>
+      <c r="M88" s="84"/>
+      <c r="N88" s="84"/>
+      <c r="O88" s="84"/>
+      <c r="P88" s="70" t="s">
         <v>158</v>
       </c>
-      <c r="Q88" s="90"/>
-      <c r="R88" s="90"/>
-      <c r="S88" s="90"/>
+      <c r="Q88" s="70"/>
+      <c r="R88" s="70"/>
+      <c r="S88" s="70"/>
     </row>
     <row r="89" spans="2:20">
       <c r="B89" s="49" t="s">
@@ -5405,23 +5414,23 @@
         <v>159</v>
       </c>
       <c r="D89" s="49"/>
-      <c r="E89" s="72" t="s">
+      <c r="E89" s="84" t="s">
         <v>160</v>
       </c>
-      <c r="F89" s="72"/>
-      <c r="G89" s="72"/>
-      <c r="H89" s="72"/>
-      <c r="I89" s="72"/>
-      <c r="J89" s="72"/>
-      <c r="K89" s="72"/>
-      <c r="L89" s="72"/>
-      <c r="M89" s="72"/>
-      <c r="N89" s="72"/>
-      <c r="O89" s="72"/>
-      <c r="P89" s="90"/>
-      <c r="Q89" s="90"/>
-      <c r="R89" s="90"/>
-      <c r="S89" s="90"/>
+      <c r="F89" s="84"/>
+      <c r="G89" s="84"/>
+      <c r="H89" s="84"/>
+      <c r="I89" s="84"/>
+      <c r="J89" s="84"/>
+      <c r="K89" s="84"/>
+      <c r="L89" s="84"/>
+      <c r="M89" s="84"/>
+      <c r="N89" s="84"/>
+      <c r="O89" s="84"/>
+      <c r="P89" s="70"/>
+      <c r="Q89" s="70"/>
+      <c r="R89" s="70"/>
+      <c r="S89" s="70"/>
     </row>
     <row r="90" spans="2:20">
       <c r="B90" s="25" t="s">
@@ -5433,19 +5442,19 @@
       <c r="D90" s="25" t="s">
         <v>163</v>
       </c>
-      <c r="E90" s="61" t="s">
+      <c r="E90" s="72" t="s">
         <v>164</v>
       </c>
-      <c r="F90" s="62"/>
-      <c r="G90" s="62"/>
-      <c r="H90" s="62"/>
-      <c r="I90" s="62"/>
-      <c r="J90" s="62"/>
-      <c r="K90" s="62"/>
-      <c r="L90" s="62"/>
-      <c r="M90" s="62"/>
-      <c r="N90" s="62"/>
-      <c r="O90" s="63"/>
+      <c r="F90" s="73"/>
+      <c r="G90" s="73"/>
+      <c r="H90" s="73"/>
+      <c r="I90" s="73"/>
+      <c r="J90" s="73"/>
+      <c r="K90" s="73"/>
+      <c r="L90" s="73"/>
+      <c r="M90" s="73"/>
+      <c r="N90" s="73"/>
+      <c r="O90" s="74"/>
     </row>
     <row r="91" spans="2:20">
       <c r="B91" s="25" t="s">
@@ -5457,19 +5466,19 @@
       <c r="D91" s="25" t="s">
         <v>8</v>
       </c>
-      <c r="E91" s="54" t="s">
+      <c r="E91" s="58" t="s">
         <v>167</v>
       </c>
-      <c r="F91" s="54"/>
-      <c r="G91" s="54"/>
-      <c r="H91" s="54"/>
-      <c r="I91" s="54"/>
-      <c r="J91" s="54"/>
-      <c r="K91" s="54"/>
-      <c r="L91" s="54"/>
-      <c r="M91" s="54"/>
-      <c r="N91" s="54"/>
-      <c r="O91" s="54"/>
+      <c r="F91" s="58"/>
+      <c r="G91" s="58"/>
+      <c r="H91" s="58"/>
+      <c r="I91" s="58"/>
+      <c r="J91" s="58"/>
+      <c r="K91" s="58"/>
+      <c r="L91" s="58"/>
+      <c r="M91" s="58"/>
+      <c r="N91" s="58"/>
+      <c r="O91" s="58"/>
     </row>
     <row r="92" spans="2:20" ht="15">
       <c r="B92" s="50" t="s">
@@ -5481,42 +5490,42 @@
       <c r="D92" s="50" t="s">
         <v>170</v>
       </c>
-      <c r="E92" s="73" t="s">
+      <c r="E92" s="77" t="s">
         <v>171</v>
       </c>
-      <c r="F92" s="74"/>
-      <c r="G92" s="74"/>
-      <c r="H92" s="74"/>
-      <c r="I92" s="74"/>
-      <c r="J92" s="74"/>
-      <c r="K92" s="74"/>
-      <c r="L92" s="74"/>
-      <c r="M92" s="74"/>
-      <c r="N92" s="74"/>
-      <c r="O92" s="74"/>
-      <c r="P92" s="75" t="s">
+      <c r="F92" s="78"/>
+      <c r="G92" s="78"/>
+      <c r="H92" s="78"/>
+      <c r="I92" s="78"/>
+      <c r="J92" s="78"/>
+      <c r="K92" s="78"/>
+      <c r="L92" s="78"/>
+      <c r="M92" s="78"/>
+      <c r="N92" s="78"/>
+      <c r="O92" s="78"/>
+      <c r="P92" s="79" t="s">
         <v>172</v>
       </c>
-      <c r="Q92" s="76"/>
-      <c r="R92" s="76"/>
-      <c r="S92" s="76"/>
-      <c r="T92" s="77"/>
+      <c r="Q92" s="80"/>
+      <c r="R92" s="80"/>
+      <c r="S92" s="80"/>
+      <c r="T92" s="81"/>
     </row>
     <row r="93" spans="2:20">
       <c r="B93" s="25"/>
       <c r="C93" s="25"/>
       <c r="D93" s="25"/>
-      <c r="E93" s="60"/>
-      <c r="F93" s="60"/>
-      <c r="G93" s="60"/>
-      <c r="H93" s="60"/>
-      <c r="I93" s="60"/>
-      <c r="J93" s="60"/>
-      <c r="K93" s="60"/>
-      <c r="L93" s="60"/>
-      <c r="M93" s="60"/>
-      <c r="N93" s="60"/>
-      <c r="O93" s="60"/>
+      <c r="E93" s="71"/>
+      <c r="F93" s="71"/>
+      <c r="G93" s="71"/>
+      <c r="H93" s="71"/>
+      <c r="I93" s="71"/>
+      <c r="J93" s="71"/>
+      <c r="K93" s="71"/>
+      <c r="L93" s="71"/>
+      <c r="M93" s="71"/>
+      <c r="N93" s="71"/>
+      <c r="O93" s="71"/>
     </row>
     <row r="94" spans="2:20">
       <c r="E94" s="21"/>
@@ -5532,22 +5541,22 @@
       <c r="O94" s="21"/>
     </row>
     <row r="96" spans="2:20" s="6" customFormat="1">
-      <c r="B96" s="52" t="s">
+      <c r="B96" s="56" t="s">
         <v>173</v>
       </c>
-      <c r="C96" s="53"/>
-      <c r="D96" s="53"/>
-      <c r="E96" s="53"/>
-      <c r="F96" s="53"/>
-      <c r="G96" s="53"/>
-      <c r="H96" s="53"/>
-      <c r="I96" s="53"/>
-      <c r="J96" s="53"/>
-      <c r="K96" s="53"/>
-      <c r="L96" s="53"/>
-      <c r="M96" s="53"/>
-      <c r="N96" s="53"/>
-      <c r="O96" s="53"/>
+      <c r="C96" s="57"/>
+      <c r="D96" s="57"/>
+      <c r="E96" s="57"/>
+      <c r="F96" s="57"/>
+      <c r="G96" s="57"/>
+      <c r="H96" s="57"/>
+      <c r="I96" s="57"/>
+      <c r="J96" s="57"/>
+      <c r="K96" s="57"/>
+      <c r="L96" s="57"/>
+      <c r="M96" s="57"/>
+      <c r="N96" s="57"/>
+      <c r="O96" s="57"/>
     </row>
     <row r="97" spans="2:15" s="6" customFormat="1">
       <c r="B97" s="26" t="s">
@@ -5559,19 +5568,19 @@
       <c r="D97" s="26" t="s">
         <v>8</v>
       </c>
-      <c r="E97" s="59" t="s">
+      <c r="E97" s="76" t="s">
         <v>26</v>
       </c>
-      <c r="F97" s="54"/>
-      <c r="G97" s="54"/>
-      <c r="H97" s="54"/>
-      <c r="I97" s="54"/>
-      <c r="J97" s="54"/>
-      <c r="K97" s="54"/>
-      <c r="L97" s="54"/>
-      <c r="M97" s="54"/>
-      <c r="N97" s="54"/>
-      <c r="O97" s="54"/>
+      <c r="F97" s="58"/>
+      <c r="G97" s="58"/>
+      <c r="H97" s="58"/>
+      <c r="I97" s="58"/>
+      <c r="J97" s="58"/>
+      <c r="K97" s="58"/>
+      <c r="L97" s="58"/>
+      <c r="M97" s="58"/>
+      <c r="N97" s="58"/>
+      <c r="O97" s="58"/>
     </row>
     <row r="98" spans="2:15" s="6" customFormat="1">
       <c r="B98" s="26" t="s">
@@ -5583,19 +5592,19 @@
       <c r="D98" s="26" t="s">
         <v>174</v>
       </c>
-      <c r="E98" s="54" t="s">
+      <c r="E98" s="58" t="s">
         <v>30</v>
       </c>
-      <c r="F98" s="54"/>
-      <c r="G98" s="54"/>
-      <c r="H98" s="54"/>
-      <c r="I98" s="54"/>
-      <c r="J98" s="54"/>
-      <c r="K98" s="54"/>
-      <c r="L98" s="54"/>
-      <c r="M98" s="54"/>
-      <c r="N98" s="54"/>
-      <c r="O98" s="54"/>
+      <c r="F98" s="58"/>
+      <c r="G98" s="58"/>
+      <c r="H98" s="58"/>
+      <c r="I98" s="58"/>
+      <c r="J98" s="58"/>
+      <c r="K98" s="58"/>
+      <c r="L98" s="58"/>
+      <c r="M98" s="58"/>
+      <c r="N98" s="58"/>
+      <c r="O98" s="58"/>
     </row>
     <row r="99" spans="2:15">
       <c r="B99" s="25" t="s">
@@ -5607,19 +5616,19 @@
       <c r="D99" s="25" t="s">
         <v>23</v>
       </c>
-      <c r="E99" s="78" t="s">
+      <c r="E99" s="75" t="s">
         <v>33</v>
       </c>
-      <c r="F99" s="54"/>
-      <c r="G99" s="54"/>
-      <c r="H99" s="54"/>
-      <c r="I99" s="54"/>
-      <c r="J99" s="54"/>
-      <c r="K99" s="54"/>
-      <c r="L99" s="54"/>
-      <c r="M99" s="54"/>
-      <c r="N99" s="54"/>
-      <c r="O99" s="54"/>
+      <c r="F99" s="58"/>
+      <c r="G99" s="58"/>
+      <c r="H99" s="58"/>
+      <c r="I99" s="58"/>
+      <c r="J99" s="58"/>
+      <c r="K99" s="58"/>
+      <c r="L99" s="58"/>
+      <c r="M99" s="58"/>
+      <c r="N99" s="58"/>
+      <c r="O99" s="58"/>
     </row>
     <row r="100" spans="2:15">
       <c r="B100" s="25" t="s">
@@ -5631,19 +5640,19 @@
       <c r="D100" s="25" t="s">
         <v>36</v>
       </c>
-      <c r="E100" s="54" t="s">
+      <c r="E100" s="58" t="s">
         <v>37</v>
       </c>
-      <c r="F100" s="54"/>
-      <c r="G100" s="54"/>
-      <c r="H100" s="54"/>
-      <c r="I100" s="54"/>
-      <c r="J100" s="54"/>
-      <c r="K100" s="54"/>
-      <c r="L100" s="54"/>
-      <c r="M100" s="54"/>
-      <c r="N100" s="54"/>
-      <c r="O100" s="54"/>
+      <c r="F100" s="58"/>
+      <c r="G100" s="58"/>
+      <c r="H100" s="58"/>
+      <c r="I100" s="58"/>
+      <c r="J100" s="58"/>
+      <c r="K100" s="58"/>
+      <c r="L100" s="58"/>
+      <c r="M100" s="58"/>
+      <c r="N100" s="58"/>
+      <c r="O100" s="58"/>
     </row>
     <row r="101" spans="2:15">
       <c r="B101" s="25" t="s">
@@ -5655,19 +5664,19 @@
       <c r="D101" s="25" t="s">
         <v>12</v>
       </c>
-      <c r="E101" s="54" t="s">
+      <c r="E101" s="58" t="s">
         <v>40</v>
       </c>
-      <c r="F101" s="54"/>
-      <c r="G101" s="54"/>
-      <c r="H101" s="54"/>
-      <c r="I101" s="54"/>
-      <c r="J101" s="54"/>
-      <c r="K101" s="54"/>
-      <c r="L101" s="54"/>
-      <c r="M101" s="54"/>
-      <c r="N101" s="54"/>
-      <c r="O101" s="54"/>
+      <c r="F101" s="58"/>
+      <c r="G101" s="58"/>
+      <c r="H101" s="58"/>
+      <c r="I101" s="58"/>
+      <c r="J101" s="58"/>
+      <c r="K101" s="58"/>
+      <c r="L101" s="58"/>
+      <c r="M101" s="58"/>
+      <c r="N101" s="58"/>
+      <c r="O101" s="58"/>
     </row>
     <row r="102" spans="2:15">
       <c r="B102" s="25" t="s">
@@ -5679,19 +5688,19 @@
       <c r="D102" s="25" t="s">
         <v>174</v>
       </c>
-      <c r="E102" s="54" t="s">
+      <c r="E102" s="58" t="s">
         <v>175</v>
       </c>
-      <c r="F102" s="54"/>
-      <c r="G102" s="54"/>
-      <c r="H102" s="54"/>
-      <c r="I102" s="54"/>
-      <c r="J102" s="54"/>
-      <c r="K102" s="54"/>
-      <c r="L102" s="54"/>
-      <c r="M102" s="54"/>
-      <c r="N102" s="54"/>
-      <c r="O102" s="54"/>
+      <c r="F102" s="58"/>
+      <c r="G102" s="58"/>
+      <c r="H102" s="58"/>
+      <c r="I102" s="58"/>
+      <c r="J102" s="58"/>
+      <c r="K102" s="58"/>
+      <c r="L102" s="58"/>
+      <c r="M102" s="58"/>
+      <c r="N102" s="58"/>
+      <c r="O102" s="58"/>
     </row>
     <row r="103" spans="2:15">
       <c r="B103" s="25" t="s">
@@ -5703,19 +5712,19 @@
       <c r="D103" s="25" t="s">
         <v>174</v>
       </c>
-      <c r="E103" s="54" t="s">
+      <c r="E103" s="58" t="s">
         <v>176</v>
       </c>
-      <c r="F103" s="54"/>
-      <c r="G103" s="54"/>
-      <c r="H103" s="54"/>
-      <c r="I103" s="54"/>
-      <c r="J103" s="54"/>
-      <c r="K103" s="54"/>
-      <c r="L103" s="54"/>
-      <c r="M103" s="54"/>
-      <c r="N103" s="54"/>
-      <c r="O103" s="54"/>
+      <c r="F103" s="58"/>
+      <c r="G103" s="58"/>
+      <c r="H103" s="58"/>
+      <c r="I103" s="58"/>
+      <c r="J103" s="58"/>
+      <c r="K103" s="58"/>
+      <c r="L103" s="58"/>
+      <c r="M103" s="58"/>
+      <c r="N103" s="58"/>
+      <c r="O103" s="58"/>
     </row>
     <row r="104" spans="2:15">
       <c r="B104" s="25" t="s">
@@ -5727,19 +5736,19 @@
       <c r="D104" s="25" t="s">
         <v>174</v>
       </c>
-      <c r="E104" s="54" t="s">
+      <c r="E104" s="58" t="s">
         <v>177</v>
       </c>
-      <c r="F104" s="54"/>
-      <c r="G104" s="54"/>
-      <c r="H104" s="54"/>
-      <c r="I104" s="54"/>
-      <c r="J104" s="54"/>
-      <c r="K104" s="54"/>
-      <c r="L104" s="54"/>
-      <c r="M104" s="54"/>
-      <c r="N104" s="54"/>
-      <c r="O104" s="54"/>
+      <c r="F104" s="58"/>
+      <c r="G104" s="58"/>
+      <c r="H104" s="58"/>
+      <c r="I104" s="58"/>
+      <c r="J104" s="58"/>
+      <c r="K104" s="58"/>
+      <c r="L104" s="58"/>
+      <c r="M104" s="58"/>
+      <c r="N104" s="58"/>
+      <c r="O104" s="58"/>
     </row>
     <row r="105" spans="2:15">
       <c r="B105" s="25" t="s">
@@ -5751,19 +5760,19 @@
       <c r="D105" s="25" t="s">
         <v>53</v>
       </c>
-      <c r="E105" s="54" t="s">
+      <c r="E105" s="58" t="s">
         <v>54</v>
       </c>
-      <c r="F105" s="54"/>
-      <c r="G105" s="54"/>
-      <c r="H105" s="54"/>
-      <c r="I105" s="54"/>
-      <c r="J105" s="54"/>
-      <c r="K105" s="54"/>
-      <c r="L105" s="54"/>
-      <c r="M105" s="54"/>
-      <c r="N105" s="54"/>
-      <c r="O105" s="54"/>
+      <c r="F105" s="58"/>
+      <c r="G105" s="58"/>
+      <c r="H105" s="58"/>
+      <c r="I105" s="58"/>
+      <c r="J105" s="58"/>
+      <c r="K105" s="58"/>
+      <c r="L105" s="58"/>
+      <c r="M105" s="58"/>
+      <c r="N105" s="58"/>
+      <c r="O105" s="58"/>
     </row>
     <row r="106" spans="2:15">
       <c r="B106" s="25" t="s">
@@ -5775,19 +5784,19 @@
       <c r="D106" s="25" t="s">
         <v>53</v>
       </c>
-      <c r="E106" s="60" t="s">
+      <c r="E106" s="71" t="s">
         <v>57</v>
       </c>
-      <c r="F106" s="60"/>
-      <c r="G106" s="60"/>
-      <c r="H106" s="60"/>
-      <c r="I106" s="60"/>
-      <c r="J106" s="60"/>
-      <c r="K106" s="60"/>
-      <c r="L106" s="60"/>
-      <c r="M106" s="60"/>
-      <c r="N106" s="60"/>
-      <c r="O106" s="60"/>
+      <c r="F106" s="71"/>
+      <c r="G106" s="71"/>
+      <c r="H106" s="71"/>
+      <c r="I106" s="71"/>
+      <c r="J106" s="71"/>
+      <c r="K106" s="71"/>
+      <c r="L106" s="71"/>
+      <c r="M106" s="71"/>
+      <c r="N106" s="71"/>
+      <c r="O106" s="71"/>
     </row>
     <row r="107" spans="2:15">
       <c r="B107" s="25" t="s">
@@ -5799,19 +5808,19 @@
       <c r="D107" s="25" t="s">
         <v>53</v>
       </c>
-      <c r="E107" s="60" t="s">
+      <c r="E107" s="71" t="s">
         <v>60</v>
       </c>
-      <c r="F107" s="60"/>
-      <c r="G107" s="60"/>
-      <c r="H107" s="60"/>
-      <c r="I107" s="60"/>
-      <c r="J107" s="60"/>
-      <c r="K107" s="60"/>
-      <c r="L107" s="60"/>
-      <c r="M107" s="60"/>
-      <c r="N107" s="60"/>
-      <c r="O107" s="60"/>
+      <c r="F107" s="71"/>
+      <c r="G107" s="71"/>
+      <c r="H107" s="71"/>
+      <c r="I107" s="71"/>
+      <c r="J107" s="71"/>
+      <c r="K107" s="71"/>
+      <c r="L107" s="71"/>
+      <c r="M107" s="71"/>
+      <c r="N107" s="71"/>
+      <c r="O107" s="71"/>
     </row>
     <row r="108" spans="2:15">
       <c r="B108" s="25" t="s">
@@ -5823,19 +5832,19 @@
       <c r="D108" s="25" t="s">
         <v>180</v>
       </c>
-      <c r="E108" s="56" t="s">
+      <c r="E108" s="53" t="s">
         <v>181</v>
       </c>
-      <c r="F108" s="57"/>
-      <c r="G108" s="57"/>
-      <c r="H108" s="57"/>
-      <c r="I108" s="57"/>
-      <c r="J108" s="57"/>
-      <c r="K108" s="57"/>
-      <c r="L108" s="57"/>
-      <c r="M108" s="57"/>
-      <c r="N108" s="57"/>
-      <c r="O108" s="58"/>
+      <c r="F108" s="54"/>
+      <c r="G108" s="54"/>
+      <c r="H108" s="54"/>
+      <c r="I108" s="54"/>
+      <c r="J108" s="54"/>
+      <c r="K108" s="54"/>
+      <c r="L108" s="54"/>
+      <c r="M108" s="54"/>
+      <c r="N108" s="54"/>
+      <c r="O108" s="55"/>
     </row>
     <row r="109" spans="2:15">
       <c r="B109" s="25" t="s">
@@ -5847,19 +5856,19 @@
       <c r="D109" s="25" t="s">
         <v>67</v>
       </c>
-      <c r="E109" s="61" t="s">
+      <c r="E109" s="72" t="s">
         <v>183</v>
       </c>
-      <c r="F109" s="62"/>
-      <c r="G109" s="62"/>
-      <c r="H109" s="62"/>
-      <c r="I109" s="62"/>
-      <c r="J109" s="62"/>
-      <c r="K109" s="62"/>
-      <c r="L109" s="62"/>
-      <c r="M109" s="62"/>
-      <c r="N109" s="62"/>
-      <c r="O109" s="63"/>
+      <c r="F109" s="73"/>
+      <c r="G109" s="73"/>
+      <c r="H109" s="73"/>
+      <c r="I109" s="73"/>
+      <c r="J109" s="73"/>
+      <c r="K109" s="73"/>
+      <c r="L109" s="73"/>
+      <c r="M109" s="73"/>
+      <c r="N109" s="73"/>
+      <c r="O109" s="74"/>
     </row>
     <row r="110" spans="2:15">
       <c r="B110" s="25" t="s">
@@ -5871,53 +5880,53 @@
       <c r="D110" s="25" t="s">
         <v>67</v>
       </c>
-      <c r="E110" s="78" t="s">
+      <c r="E110" s="75" t="s">
         <v>71</v>
       </c>
-      <c r="F110" s="54"/>
-      <c r="G110" s="54"/>
-      <c r="H110" s="54"/>
-      <c r="I110" s="54"/>
-      <c r="J110" s="54"/>
-      <c r="K110" s="54"/>
-      <c r="L110" s="54"/>
-      <c r="M110" s="54"/>
-      <c r="N110" s="54"/>
-      <c r="O110" s="54"/>
+      <c r="F110" s="58"/>
+      <c r="G110" s="58"/>
+      <c r="H110" s="58"/>
+      <c r="I110" s="58"/>
+      <c r="J110" s="58"/>
+      <c r="K110" s="58"/>
+      <c r="L110" s="58"/>
+      <c r="M110" s="58"/>
+      <c r="N110" s="58"/>
+      <c r="O110" s="58"/>
     </row>
     <row r="111" spans="2:15">
       <c r="B111" s="25"/>
       <c r="C111" s="25"/>
       <c r="D111" s="25"/>
-      <c r="E111" s="56"/>
-      <c r="F111" s="57"/>
-      <c r="G111" s="57"/>
-      <c r="H111" s="57"/>
-      <c r="I111" s="57"/>
-      <c r="J111" s="57"/>
-      <c r="K111" s="57"/>
-      <c r="L111" s="57"/>
-      <c r="M111" s="57"/>
-      <c r="N111" s="57"/>
-      <c r="O111" s="58"/>
+      <c r="E111" s="53"/>
+      <c r="F111" s="54"/>
+      <c r="G111" s="54"/>
+      <c r="H111" s="54"/>
+      <c r="I111" s="54"/>
+      <c r="J111" s="54"/>
+      <c r="K111" s="54"/>
+      <c r="L111" s="54"/>
+      <c r="M111" s="54"/>
+      <c r="N111" s="54"/>
+      <c r="O111" s="55"/>
     </row>
     <row r="114" spans="2:15">
-      <c r="B114" s="52" t="s">
+      <c r="B114" s="56" t="s">
         <v>186</v>
       </c>
-      <c r="C114" s="53"/>
-      <c r="D114" s="53"/>
-      <c r="E114" s="53"/>
-      <c r="F114" s="53"/>
-      <c r="G114" s="53"/>
-      <c r="H114" s="53"/>
-      <c r="I114" s="53"/>
-      <c r="J114" s="53"/>
-      <c r="K114" s="53"/>
-      <c r="L114" s="53"/>
-      <c r="M114" s="53"/>
-      <c r="N114" s="53"/>
-      <c r="O114" s="53"/>
+      <c r="C114" s="57"/>
+      <c r="D114" s="57"/>
+      <c r="E114" s="57"/>
+      <c r="F114" s="57"/>
+      <c r="G114" s="57"/>
+      <c r="H114" s="57"/>
+      <c r="I114" s="57"/>
+      <c r="J114" s="57"/>
+      <c r="K114" s="57"/>
+      <c r="L114" s="57"/>
+      <c r="M114" s="57"/>
+      <c r="N114" s="57"/>
+      <c r="O114" s="57"/>
     </row>
     <row r="115" spans="2:15">
       <c r="B115" s="26" t="s">
@@ -5929,22 +5938,98 @@
       <c r="D115" s="26" t="s">
         <v>8</v>
       </c>
-      <c r="E115" s="54" t="s">
+      <c r="E115" s="58" t="s">
         <v>73</v>
       </c>
-      <c r="F115" s="54"/>
-      <c r="G115" s="54"/>
-      <c r="H115" s="54"/>
-      <c r="I115" s="54"/>
-      <c r="J115" s="54"/>
-      <c r="K115" s="54"/>
-      <c r="L115" s="54"/>
-      <c r="M115" s="54"/>
-      <c r="N115" s="54"/>
-      <c r="O115" s="54"/>
+      <c r="F115" s="58"/>
+      <c r="G115" s="58"/>
+      <c r="H115" s="58"/>
+      <c r="I115" s="58"/>
+      <c r="J115" s="58"/>
+      <c r="K115" s="58"/>
+      <c r="L115" s="58"/>
+      <c r="M115" s="58"/>
+      <c r="N115" s="58"/>
+      <c r="O115" s="58"/>
     </row>
   </sheetData>
   <mergeCells count="92">
+    <mergeCell ref="E6:O6"/>
+    <mergeCell ref="B8:O8"/>
+    <mergeCell ref="E9:O9"/>
+    <mergeCell ref="E10:O10"/>
+    <mergeCell ref="E11:O11"/>
+    <mergeCell ref="E12:O12"/>
+    <mergeCell ref="E13:O13"/>
+    <mergeCell ref="E14:O14"/>
+    <mergeCell ref="B17:O17"/>
+    <mergeCell ref="E18:O18"/>
+    <mergeCell ref="E19:O19"/>
+    <mergeCell ref="E20:O20"/>
+    <mergeCell ref="E21:O21"/>
+    <mergeCell ref="E22:O22"/>
+    <mergeCell ref="E23:O23"/>
+    <mergeCell ref="E24:O24"/>
+    <mergeCell ref="E25:O25"/>
+    <mergeCell ref="E26:O26"/>
+    <mergeCell ref="E27:O27"/>
+    <mergeCell ref="E28:O28"/>
+    <mergeCell ref="E29:O29"/>
+    <mergeCell ref="E30:O30"/>
+    <mergeCell ref="E31:O31"/>
+    <mergeCell ref="E32:O32"/>
+    <mergeCell ref="B35:O35"/>
+    <mergeCell ref="E36:O36"/>
+    <mergeCell ref="B45:O45"/>
+    <mergeCell ref="E46:O46"/>
+    <mergeCell ref="E47:O47"/>
+    <mergeCell ref="E48:O48"/>
+    <mergeCell ref="E49:O49"/>
+    <mergeCell ref="E50:O50"/>
+    <mergeCell ref="E51:O51"/>
+    <mergeCell ref="E52:O52"/>
+    <mergeCell ref="E53:O53"/>
+    <mergeCell ref="E54:O54"/>
+    <mergeCell ref="E55:O55"/>
+    <mergeCell ref="E56:O56"/>
+    <mergeCell ref="E57:O57"/>
+    <mergeCell ref="E58:O58"/>
+    <mergeCell ref="E59:O59"/>
+    <mergeCell ref="E60:O60"/>
+    <mergeCell ref="E61:O61"/>
+    <mergeCell ref="E62:O62"/>
+    <mergeCell ref="E63:O63"/>
+    <mergeCell ref="B66:O66"/>
+    <mergeCell ref="E67:O67"/>
+    <mergeCell ref="E68:O68"/>
+    <mergeCell ref="E69:O69"/>
+    <mergeCell ref="E70:O70"/>
+    <mergeCell ref="E71:O71"/>
+    <mergeCell ref="E72:O72"/>
+    <mergeCell ref="E73:O73"/>
+    <mergeCell ref="E74:O74"/>
+    <mergeCell ref="B77:O77"/>
+    <mergeCell ref="E78:O78"/>
+    <mergeCell ref="E79:O79"/>
+    <mergeCell ref="E80:O80"/>
+    <mergeCell ref="E81:O81"/>
+    <mergeCell ref="E82:O82"/>
+    <mergeCell ref="E83:O83"/>
+    <mergeCell ref="B86:O86"/>
+    <mergeCell ref="E87:O87"/>
+    <mergeCell ref="E88:O88"/>
+    <mergeCell ref="E89:O89"/>
+    <mergeCell ref="E90:O90"/>
+    <mergeCell ref="E91:O91"/>
+    <mergeCell ref="E92:O92"/>
+    <mergeCell ref="P92:T92"/>
+    <mergeCell ref="E93:O93"/>
+    <mergeCell ref="E105:O105"/>
+    <mergeCell ref="B96:O96"/>
+    <mergeCell ref="E97:O97"/>
+    <mergeCell ref="E98:O98"/>
+    <mergeCell ref="E99:O99"/>
+    <mergeCell ref="E100:O100"/>
     <mergeCell ref="E111:O111"/>
     <mergeCell ref="B114:O114"/>
     <mergeCell ref="E115:O115"/>
@@ -5961,82 +6046,6 @@
     <mergeCell ref="E102:O102"/>
     <mergeCell ref="E103:O103"/>
     <mergeCell ref="E104:O104"/>
-    <mergeCell ref="E105:O105"/>
-    <mergeCell ref="B96:O96"/>
-    <mergeCell ref="E97:O97"/>
-    <mergeCell ref="E98:O98"/>
-    <mergeCell ref="E99:O99"/>
-    <mergeCell ref="E100:O100"/>
-    <mergeCell ref="E90:O90"/>
-    <mergeCell ref="E91:O91"/>
-    <mergeCell ref="E92:O92"/>
-    <mergeCell ref="P92:T92"/>
-    <mergeCell ref="E93:O93"/>
-    <mergeCell ref="E83:O83"/>
-    <mergeCell ref="B86:O86"/>
-    <mergeCell ref="E87:O87"/>
-    <mergeCell ref="E88:O88"/>
-    <mergeCell ref="E89:O89"/>
-    <mergeCell ref="E78:O78"/>
-    <mergeCell ref="E79:O79"/>
-    <mergeCell ref="E80:O80"/>
-    <mergeCell ref="E81:O81"/>
-    <mergeCell ref="E82:O82"/>
-    <mergeCell ref="E71:O71"/>
-    <mergeCell ref="E72:O72"/>
-    <mergeCell ref="E73:O73"/>
-    <mergeCell ref="E74:O74"/>
-    <mergeCell ref="B77:O77"/>
-    <mergeCell ref="B66:O66"/>
-    <mergeCell ref="E67:O67"/>
-    <mergeCell ref="E68:O68"/>
-    <mergeCell ref="E69:O69"/>
-    <mergeCell ref="E70:O70"/>
-    <mergeCell ref="E59:O59"/>
-    <mergeCell ref="E60:O60"/>
-    <mergeCell ref="E61:O61"/>
-    <mergeCell ref="E62:O62"/>
-    <mergeCell ref="E63:O63"/>
-    <mergeCell ref="E54:O54"/>
-    <mergeCell ref="E55:O55"/>
-    <mergeCell ref="E56:O56"/>
-    <mergeCell ref="E57:O57"/>
-    <mergeCell ref="E58:O58"/>
-    <mergeCell ref="E49:O49"/>
-    <mergeCell ref="E50:O50"/>
-    <mergeCell ref="E51:O51"/>
-    <mergeCell ref="E52:O52"/>
-    <mergeCell ref="E53:O53"/>
-    <mergeCell ref="E36:O36"/>
-    <mergeCell ref="B45:O45"/>
-    <mergeCell ref="E46:O46"/>
-    <mergeCell ref="E47:O47"/>
-    <mergeCell ref="E48:O48"/>
-    <mergeCell ref="E29:O29"/>
-    <mergeCell ref="E30:O30"/>
-    <mergeCell ref="E31:O31"/>
-    <mergeCell ref="E32:O32"/>
-    <mergeCell ref="B35:O35"/>
-    <mergeCell ref="E24:O24"/>
-    <mergeCell ref="E25:O25"/>
-    <mergeCell ref="E26:O26"/>
-    <mergeCell ref="E27:O27"/>
-    <mergeCell ref="E28:O28"/>
-    <mergeCell ref="E19:O19"/>
-    <mergeCell ref="E20:O20"/>
-    <mergeCell ref="E21:O21"/>
-    <mergeCell ref="E22:O22"/>
-    <mergeCell ref="E23:O23"/>
-    <mergeCell ref="E12:O12"/>
-    <mergeCell ref="E13:O13"/>
-    <mergeCell ref="E14:O14"/>
-    <mergeCell ref="B17:O17"/>
-    <mergeCell ref="E18:O18"/>
-    <mergeCell ref="E6:O6"/>
-    <mergeCell ref="B8:O8"/>
-    <mergeCell ref="E9:O9"/>
-    <mergeCell ref="E10:O10"/>
-    <mergeCell ref="E11:O11"/>
   </mergeCells>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -6072,54 +6081,54 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:16">
-      <c r="B1" s="105" t="s">
+      <c r="B1" s="95" t="s">
         <v>187</v>
       </c>
-      <c r="C1" s="105"/>
-      <c r="D1" s="105"/>
-      <c r="E1" s="105"/>
-      <c r="F1" s="105"/>
-      <c r="G1" s="105"/>
-      <c r="H1" s="105"/>
-      <c r="I1" s="105"/>
-      <c r="J1" s="105"/>
-      <c r="K1" s="105"/>
-      <c r="L1" s="105"/>
-      <c r="M1" s="105"/>
-      <c r="N1" s="105"/>
-      <c r="O1" s="105"/>
+      <c r="C1" s="95"/>
+      <c r="D1" s="95"/>
+      <c r="E1" s="95"/>
+      <c r="F1" s="95"/>
+      <c r="G1" s="95"/>
+      <c r="H1" s="95"/>
+      <c r="I1" s="95"/>
+      <c r="J1" s="95"/>
+      <c r="K1" s="95"/>
+      <c r="L1" s="95"/>
+      <c r="M1" s="95"/>
+      <c r="N1" s="95"/>
+      <c r="O1" s="95"/>
     </row>
     <row r="2" spans="2:16">
-      <c r="B2" s="105"/>
-      <c r="C2" s="105"/>
-      <c r="D2" s="105"/>
-      <c r="E2" s="105"/>
-      <c r="F2" s="105"/>
-      <c r="G2" s="105"/>
-      <c r="H2" s="105"/>
-      <c r="I2" s="105"/>
-      <c r="J2" s="105"/>
-      <c r="K2" s="105"/>
-      <c r="L2" s="105"/>
-      <c r="M2" s="105"/>
-      <c r="N2" s="105"/>
-      <c r="O2" s="105"/>
+      <c r="B2" s="95"/>
+      <c r="C2" s="95"/>
+      <c r="D2" s="95"/>
+      <c r="E2" s="95"/>
+      <c r="F2" s="95"/>
+      <c r="G2" s="95"/>
+      <c r="H2" s="95"/>
+      <c r="I2" s="95"/>
+      <c r="J2" s="95"/>
+      <c r="K2" s="95"/>
+      <c r="L2" s="95"/>
+      <c r="M2" s="95"/>
+      <c r="N2" s="95"/>
+      <c r="O2" s="95"/>
     </row>
     <row r="3" spans="2:16">
-      <c r="B3" s="105"/>
-      <c r="C3" s="105"/>
-      <c r="D3" s="105"/>
-      <c r="E3" s="105"/>
-      <c r="F3" s="105"/>
-      <c r="G3" s="105"/>
-      <c r="H3" s="105"/>
-      <c r="I3" s="105"/>
-      <c r="J3" s="105"/>
-      <c r="K3" s="105"/>
-      <c r="L3" s="105"/>
-      <c r="M3" s="105"/>
-      <c r="N3" s="105"/>
-      <c r="O3" s="105"/>
+      <c r="B3" s="95"/>
+      <c r="C3" s="95"/>
+      <c r="D3" s="95"/>
+      <c r="E3" s="95"/>
+      <c r="F3" s="95"/>
+      <c r="G3" s="95"/>
+      <c r="H3" s="95"/>
+      <c r="I3" s="95"/>
+      <c r="J3" s="95"/>
+      <c r="K3" s="95"/>
+      <c r="L3" s="95"/>
+      <c r="M3" s="95"/>
+      <c r="N3" s="95"/>
+      <c r="O3" s="95"/>
     </row>
     <row r="6" spans="2:16" ht="15.5">
       <c r="B6" s="18" t="s">
@@ -6131,19 +6140,19 @@
       <c r="D6" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="E6" s="51" t="s">
+      <c r="E6" s="92" t="s">
         <v>4</v>
       </c>
-      <c r="F6" s="51"/>
-      <c r="G6" s="51"/>
-      <c r="H6" s="51"/>
-      <c r="I6" s="51"/>
-      <c r="J6" s="51"/>
-      <c r="K6" s="51"/>
-      <c r="L6" s="51"/>
-      <c r="M6" s="51"/>
-      <c r="N6" s="51"/>
-      <c r="O6" s="51"/>
+      <c r="F6" s="92"/>
+      <c r="G6" s="92"/>
+      <c r="H6" s="92"/>
+      <c r="I6" s="92"/>
+      <c r="J6" s="92"/>
+      <c r="K6" s="92"/>
+      <c r="L6" s="92"/>
+      <c r="M6" s="92"/>
+      <c r="N6" s="92"/>
+      <c r="O6" s="92"/>
     </row>
     <row r="7" spans="2:16" s="11" customFormat="1" ht="15.5">
       <c r="B7" s="19"/>
@@ -6162,28 +6171,28 @@
       <c r="O7" s="20"/>
     </row>
     <row r="8" spans="2:16" s="11" customFormat="1" ht="15">
-      <c r="B8" s="91" t="s">
+      <c r="B8" s="97" t="s">
         <v>188</v>
       </c>
-      <c r="C8" s="92"/>
-      <c r="D8" s="92"/>
-      <c r="E8" s="92"/>
-      <c r="F8" s="92"/>
-      <c r="G8" s="92"/>
-      <c r="H8" s="92"/>
-      <c r="I8" s="92"/>
-      <c r="J8" s="92"/>
-      <c r="K8" s="92"/>
-      <c r="L8" s="92"/>
-      <c r="M8" s="92"/>
-      <c r="N8" s="92"/>
-      <c r="O8" s="92"/>
+      <c r="C8" s="98"/>
+      <c r="D8" s="98"/>
+      <c r="E8" s="98"/>
+      <c r="F8" s="98"/>
+      <c r="G8" s="98"/>
+      <c r="H8" s="98"/>
+      <c r="I8" s="98"/>
+      <c r="J8" s="98"/>
+      <c r="K8" s="98"/>
+      <c r="L8" s="98"/>
+      <c r="M8" s="98"/>
+      <c r="N8" s="98"/>
+      <c r="O8" s="98"/>
     </row>
     <row r="9" spans="2:16" s="11" customFormat="1" ht="15.5">
-      <c r="B9" s="93" t="s">
+      <c r="B9" s="104" t="s">
         <v>189</v>
       </c>
-      <c r="C9" s="93"/>
+      <c r="C9" s="104"/>
       <c r="D9" s="22"/>
       <c r="E9" s="23"/>
       <c r="F9" s="23"/>
@@ -6201,94 +6210,94 @@
       <c r="B10" s="24" t="s">
         <v>6</v>
       </c>
-      <c r="C10" s="94" t="s">
+      <c r="C10" s="107" t="s">
         <v>190</v>
       </c>
-      <c r="D10" s="94"/>
-      <c r="E10" s="94" t="s">
+      <c r="D10" s="107"/>
+      <c r="E10" s="107" t="s">
         <v>191</v>
       </c>
-      <c r="F10" s="94"/>
-      <c r="G10" s="94" t="s">
+      <c r="F10" s="107"/>
+      <c r="G10" s="107" t="s">
         <v>192</v>
       </c>
-      <c r="H10" s="94"/>
-      <c r="I10" s="94" t="s">
+      <c r="H10" s="107"/>
+      <c r="I10" s="107" t="s">
         <v>193</v>
       </c>
-      <c r="J10" s="94"/>
-      <c r="K10" s="94" t="s">
+      <c r="J10" s="107"/>
+      <c r="K10" s="107" t="s">
         <v>194</v>
       </c>
-      <c r="L10" s="94"/>
-      <c r="M10" s="94" t="s">
+      <c r="L10" s="107"/>
+      <c r="M10" s="107" t="s">
         <v>195</v>
       </c>
-      <c r="N10" s="94"/>
-      <c r="O10" s="95"/>
-      <c r="P10" s="95"/>
+      <c r="N10" s="107"/>
+      <c r="O10" s="106"/>
+      <c r="P10" s="106"/>
     </row>
     <row r="11" spans="2:16" s="12" customFormat="1" ht="15.5">
       <c r="B11" s="24" t="s">
         <v>10</v>
       </c>
-      <c r="C11" s="96" t="s">
+      <c r="C11" s="100" t="s">
         <v>196</v>
       </c>
-      <c r="D11" s="97"/>
-      <c r="E11" s="96" t="s">
+      <c r="D11" s="101"/>
+      <c r="E11" s="100" t="s">
         <v>197</v>
       </c>
-      <c r="F11" s="97"/>
-      <c r="G11" s="96" t="s">
+      <c r="F11" s="101"/>
+      <c r="G11" s="100" t="s">
         <v>198</v>
       </c>
-      <c r="H11" s="97"/>
-      <c r="I11" s="96" t="s">
+      <c r="H11" s="101"/>
+      <c r="I11" s="100" t="s">
         <v>199</v>
       </c>
-      <c r="J11" s="97"/>
-      <c r="K11" s="98" t="s">
+      <c r="J11" s="101"/>
+      <c r="K11" s="108" t="s">
         <v>200</v>
       </c>
-      <c r="L11" s="97"/>
-      <c r="M11" s="96" t="s">
+      <c r="L11" s="101"/>
+      <c r="M11" s="100" t="s">
         <v>200</v>
       </c>
-      <c r="N11" s="97"/>
-      <c r="O11" s="95"/>
-      <c r="P11" s="95"/>
+      <c r="N11" s="101"/>
+      <c r="O11" s="106"/>
+      <c r="P11" s="106"/>
     </row>
     <row r="12" spans="2:16" s="11" customFormat="1" ht="15.5">
       <c r="B12" s="24" t="s">
         <v>21</v>
       </c>
-      <c r="C12" s="97" t="s">
+      <c r="C12" s="101" t="s">
         <v>201</v>
       </c>
-      <c r="D12" s="97"/>
-      <c r="E12" s="97" t="s">
+      <c r="D12" s="101"/>
+      <c r="E12" s="101" t="s">
         <v>201</v>
       </c>
-      <c r="F12" s="97"/>
-      <c r="G12" s="97" t="s">
+      <c r="F12" s="101"/>
+      <c r="G12" s="101" t="s">
         <v>202</v>
       </c>
-      <c r="H12" s="97"/>
-      <c r="I12" s="97" t="s">
+      <c r="H12" s="101"/>
+      <c r="I12" s="101" t="s">
         <v>202</v>
       </c>
-      <c r="J12" s="97"/>
-      <c r="K12" s="97" t="s">
+      <c r="J12" s="101"/>
+      <c r="K12" s="101" t="s">
         <v>203</v>
       </c>
-      <c r="L12" s="97"/>
-      <c r="M12" s="97" t="s">
+      <c r="L12" s="101"/>
+      <c r="M12" s="101" t="s">
         <v>203</v>
       </c>
-      <c r="N12" s="97"/>
-      <c r="O12" s="95"/>
-      <c r="P12" s="95"/>
+      <c r="N12" s="101"/>
+      <c r="O12" s="106"/>
+      <c r="P12" s="106"/>
     </row>
     <row r="13" spans="2:16" s="11" customFormat="1" ht="15.5">
       <c r="B13" s="22"/>
@@ -6324,28 +6333,28 @@
       <c r="O14" s="23"/>
     </row>
     <row r="15" spans="2:16" s="11" customFormat="1" ht="15">
-      <c r="B15" s="91" t="s">
+      <c r="B15" s="97" t="s">
         <v>204</v>
       </c>
-      <c r="C15" s="92"/>
-      <c r="D15" s="92"/>
-      <c r="E15" s="92"/>
-      <c r="F15" s="92"/>
-      <c r="G15" s="92"/>
-      <c r="H15" s="92"/>
-      <c r="I15" s="92"/>
-      <c r="J15" s="92"/>
-      <c r="K15" s="92"/>
-      <c r="L15" s="92"/>
-      <c r="M15" s="92"/>
-      <c r="N15" s="92"/>
-      <c r="O15" s="92"/>
+      <c r="C15" s="98"/>
+      <c r="D15" s="98"/>
+      <c r="E15" s="98"/>
+      <c r="F15" s="98"/>
+      <c r="G15" s="98"/>
+      <c r="H15" s="98"/>
+      <c r="I15" s="98"/>
+      <c r="J15" s="98"/>
+      <c r="K15" s="98"/>
+      <c r="L15" s="98"/>
+      <c r="M15" s="98"/>
+      <c r="N15" s="98"/>
+      <c r="O15" s="98"/>
     </row>
     <row r="16" spans="2:16" s="11" customFormat="1" ht="15.5">
-      <c r="B16" s="93" t="s">
+      <c r="B16" s="104" t="s">
         <v>189</v>
       </c>
-      <c r="C16" s="93"/>
+      <c r="C16" s="104"/>
       <c r="D16" s="22"/>
       <c r="E16" s="23"/>
       <c r="F16" s="23"/>
@@ -6363,88 +6372,88 @@
       <c r="B17" s="25" t="s">
         <v>111</v>
       </c>
-      <c r="C17" s="94" t="s">
+      <c r="C17" s="107" t="s">
         <v>205</v>
       </c>
-      <c r="D17" s="94"/>
-      <c r="E17" s="94" t="s">
+      <c r="D17" s="107"/>
+      <c r="E17" s="107" t="s">
         <v>206</v>
       </c>
-      <c r="F17" s="94"/>
-      <c r="G17" s="94" t="s">
+      <c r="F17" s="107"/>
+      <c r="G17" s="107" t="s">
         <v>207</v>
       </c>
-      <c r="H17" s="94"/>
-      <c r="I17" s="94" t="s">
+      <c r="H17" s="107"/>
+      <c r="I17" s="107" t="s">
         <v>208</v>
       </c>
-      <c r="J17" s="94"/>
-      <c r="K17" s="94" t="s">
+      <c r="J17" s="107"/>
+      <c r="K17" s="107" t="s">
         <v>209</v>
       </c>
-      <c r="L17" s="94"/>
-      <c r="M17" s="97"/>
-      <c r="N17" s="97"/>
-      <c r="O17" s="95"/>
-      <c r="P17" s="95"/>
+      <c r="L17" s="107"/>
+      <c r="M17" s="101"/>
+      <c r="N17" s="101"/>
+      <c r="O17" s="106"/>
+      <c r="P17" s="106"/>
     </row>
     <row r="18" spans="2:17" s="11" customFormat="1" ht="15.5">
       <c r="B18" s="25" t="s">
         <v>75</v>
       </c>
-      <c r="C18" s="97" t="s">
+      <c r="C18" s="101" t="s">
         <v>210</v>
       </c>
-      <c r="D18" s="97"/>
-      <c r="E18" s="97" t="s">
+      <c r="D18" s="101"/>
+      <c r="E18" s="101" t="s">
         <v>211</v>
       </c>
-      <c r="F18" s="97"/>
-      <c r="G18" s="97" t="s">
+      <c r="F18" s="101"/>
+      <c r="G18" s="101" t="s">
         <v>212</v>
       </c>
-      <c r="H18" s="97"/>
-      <c r="I18" s="97" t="s">
+      <c r="H18" s="101"/>
+      <c r="I18" s="101" t="s">
         <v>213</v>
       </c>
-      <c r="J18" s="97"/>
-      <c r="K18" s="97" t="s">
+      <c r="J18" s="101"/>
+      <c r="K18" s="101" t="s">
         <v>214</v>
       </c>
-      <c r="L18" s="97"/>
-      <c r="M18" s="96"/>
-      <c r="N18" s="97"/>
-      <c r="O18" s="95"/>
-      <c r="P18" s="95"/>
+      <c r="L18" s="101"/>
+      <c r="M18" s="100"/>
+      <c r="N18" s="101"/>
+      <c r="O18" s="106"/>
+      <c r="P18" s="106"/>
     </row>
     <row r="19" spans="2:17" s="11" customFormat="1" ht="15.5">
       <c r="B19" s="25" t="s">
         <v>215</v>
       </c>
-      <c r="C19" s="96" t="s">
+      <c r="C19" s="100" t="s">
         <v>216</v>
       </c>
-      <c r="D19" s="97"/>
-      <c r="E19" s="96" t="s">
+      <c r="D19" s="101"/>
+      <c r="E19" s="100" t="s">
         <v>217</v>
       </c>
-      <c r="F19" s="97"/>
-      <c r="G19" s="96" t="s">
+      <c r="F19" s="101"/>
+      <c r="G19" s="100" t="s">
         <v>218</v>
       </c>
-      <c r="H19" s="97"/>
-      <c r="I19" s="96" t="s">
+      <c r="H19" s="101"/>
+      <c r="I19" s="100" t="s">
         <v>219</v>
       </c>
-      <c r="J19" s="97"/>
-      <c r="K19" s="96" t="s">
+      <c r="J19" s="101"/>
+      <c r="K19" s="100" t="s">
         <v>220</v>
       </c>
-      <c r="L19" s="97"/>
-      <c r="M19" s="97"/>
-      <c r="N19" s="97"/>
-      <c r="O19" s="95"/>
-      <c r="P19" s="95"/>
+      <c r="L19" s="101"/>
+      <c r="M19" s="101"/>
+      <c r="N19" s="101"/>
+      <c r="O19" s="106"/>
+      <c r="P19" s="106"/>
     </row>
     <row r="20" spans="2:17" s="11" customFormat="1" ht="15.5">
       <c r="B20" s="22"/>
@@ -6479,28 +6488,28 @@
       <c r="O21" s="23"/>
     </row>
     <row r="22" spans="2:17" s="11" customFormat="1" ht="15">
-      <c r="B22" s="91" t="s">
+      <c r="B22" s="97" t="s">
         <v>221</v>
       </c>
-      <c r="C22" s="92"/>
-      <c r="D22" s="92"/>
-      <c r="E22" s="92"/>
-      <c r="F22" s="92"/>
-      <c r="G22" s="92"/>
-      <c r="H22" s="92"/>
-      <c r="I22" s="92"/>
-      <c r="J22" s="92"/>
-      <c r="K22" s="92"/>
-      <c r="L22" s="92"/>
-      <c r="M22" s="92"/>
-      <c r="N22" s="92"/>
-      <c r="O22" s="92"/>
+      <c r="C22" s="98"/>
+      <c r="D22" s="98"/>
+      <c r="E22" s="98"/>
+      <c r="F22" s="98"/>
+      <c r="G22" s="98"/>
+      <c r="H22" s="98"/>
+      <c r="I22" s="98"/>
+      <c r="J22" s="98"/>
+      <c r="K22" s="98"/>
+      <c r="L22" s="98"/>
+      <c r="M22" s="98"/>
+      <c r="N22" s="98"/>
+      <c r="O22" s="98"/>
     </row>
     <row r="23" spans="2:17" s="11" customFormat="1" ht="15.5">
-      <c r="B23" s="93" t="s">
+      <c r="B23" s="104" t="s">
         <v>189</v>
       </c>
-      <c r="C23" s="93"/>
+      <c r="C23" s="104"/>
       <c r="D23" s="22"/>
       <c r="E23" s="23"/>
       <c r="F23" s="23"/>
@@ -6518,88 +6527,88 @@
       <c r="B24" s="24" t="s">
         <v>75</v>
       </c>
-      <c r="C24" s="94" t="s">
+      <c r="C24" s="107" t="s">
         <v>210</v>
       </c>
-      <c r="D24" s="94"/>
-      <c r="E24" s="94" t="s">
+      <c r="D24" s="107"/>
+      <c r="E24" s="107" t="s">
         <v>211</v>
       </c>
-      <c r="F24" s="94"/>
-      <c r="G24" s="94" t="s">
+      <c r="F24" s="107"/>
+      <c r="G24" s="107" t="s">
         <v>212</v>
       </c>
-      <c r="H24" s="94"/>
-      <c r="I24" s="94" t="s">
+      <c r="H24" s="107"/>
+      <c r="I24" s="107" t="s">
         <v>213</v>
       </c>
-      <c r="J24" s="94"/>
-      <c r="K24" s="94" t="s">
+      <c r="J24" s="107"/>
+      <c r="K24" s="107" t="s">
         <v>214</v>
       </c>
-      <c r="L24" s="94"/>
-      <c r="M24" s="97"/>
-      <c r="N24" s="97"/>
-      <c r="O24" s="95"/>
-      <c r="P24" s="95"/>
+      <c r="L24" s="107"/>
+      <c r="M24" s="101"/>
+      <c r="N24" s="101"/>
+      <c r="O24" s="106"/>
+      <c r="P24" s="106"/>
     </row>
     <row r="25" spans="2:17" s="11" customFormat="1" ht="15.5">
       <c r="B25" s="24" t="s">
         <v>78</v>
       </c>
-      <c r="C25" s="96" t="s">
+      <c r="C25" s="100" t="s">
         <v>216</v>
       </c>
-      <c r="D25" s="97"/>
-      <c r="E25" s="96" t="s">
+      <c r="D25" s="101"/>
+      <c r="E25" s="100" t="s">
         <v>217</v>
       </c>
-      <c r="F25" s="97"/>
-      <c r="G25" s="96" t="s">
+      <c r="F25" s="101"/>
+      <c r="G25" s="100" t="s">
         <v>218</v>
       </c>
-      <c r="H25" s="97"/>
-      <c r="I25" s="96" t="s">
+      <c r="H25" s="101"/>
+      <c r="I25" s="100" t="s">
         <v>219</v>
       </c>
-      <c r="J25" s="97"/>
-      <c r="K25" s="96" t="s">
+      <c r="J25" s="101"/>
+      <c r="K25" s="100" t="s">
         <v>220</v>
       </c>
-      <c r="L25" s="97"/>
-      <c r="M25" s="96"/>
-      <c r="N25" s="97"/>
-      <c r="O25" s="95"/>
-      <c r="P25" s="95"/>
+      <c r="L25" s="101"/>
+      <c r="M25" s="100"/>
+      <c r="N25" s="101"/>
+      <c r="O25" s="106"/>
+      <c r="P25" s="106"/>
     </row>
     <row r="26" spans="2:17" s="11" customFormat="1" ht="15.5">
       <c r="B26" s="24" t="s">
         <v>80</v>
       </c>
-      <c r="C26" s="97" t="s">
+      <c r="C26" s="101" t="s">
         <v>192</v>
       </c>
-      <c r="D26" s="97"/>
-      <c r="E26" s="97" t="s">
+      <c r="D26" s="101"/>
+      <c r="E26" s="101" t="s">
         <v>193</v>
       </c>
-      <c r="F26" s="97"/>
-      <c r="G26" s="97" t="s">
+      <c r="F26" s="101"/>
+      <c r="G26" s="101" t="s">
         <v>192</v>
       </c>
-      <c r="H26" s="97"/>
-      <c r="I26" s="97" t="s">
+      <c r="H26" s="101"/>
+      <c r="I26" s="101" t="s">
         <v>192</v>
       </c>
-      <c r="J26" s="97"/>
-      <c r="K26" s="97" t="s">
+      <c r="J26" s="101"/>
+      <c r="K26" s="101" t="s">
         <v>193</v>
       </c>
-      <c r="L26" s="97"/>
-      <c r="M26" s="97"/>
-      <c r="N26" s="97"/>
-      <c r="O26" s="95"/>
-      <c r="P26" s="95"/>
+      <c r="L26" s="101"/>
+      <c r="M26" s="101"/>
+      <c r="N26" s="101"/>
+      <c r="O26" s="106"/>
+      <c r="P26" s="106"/>
     </row>
     <row r="27" spans="2:17" s="11" customFormat="1" ht="15.5">
       <c r="B27" s="22"/>
@@ -6634,22 +6643,22 @@
       <c r="O28" s="23"/>
     </row>
     <row r="29" spans="2:17" s="11" customFormat="1">
-      <c r="B29" s="91" t="s">
+      <c r="B29" s="97" t="s">
         <v>222</v>
       </c>
-      <c r="C29" s="92"/>
-      <c r="D29" s="92"/>
-      <c r="E29" s="92"/>
-      <c r="F29" s="92"/>
-      <c r="G29" s="92"/>
-      <c r="H29" s="92"/>
-      <c r="I29" s="92"/>
-      <c r="J29" s="92"/>
-      <c r="K29" s="92"/>
-      <c r="L29" s="92"/>
-      <c r="M29" s="92"/>
-      <c r="N29" s="92"/>
-      <c r="O29" s="92"/>
+      <c r="C29" s="98"/>
+      <c r="D29" s="98"/>
+      <c r="E29" s="98"/>
+      <c r="F29" s="98"/>
+      <c r="G29" s="98"/>
+      <c r="H29" s="98"/>
+      <c r="I29" s="98"/>
+      <c r="J29" s="98"/>
+      <c r="K29" s="98"/>
+      <c r="L29" s="98"/>
+      <c r="M29" s="98"/>
+      <c r="N29" s="98"/>
+      <c r="O29" s="98"/>
       <c r="P29"/>
       <c r="Q29"/>
     </row>
@@ -6663,19 +6672,19 @@
       <c r="D30" s="26" t="s">
         <v>67</v>
       </c>
-      <c r="E30" s="54" t="s">
+      <c r="E30" s="58" t="s">
         <v>224</v>
       </c>
-      <c r="F30" s="54"/>
-      <c r="G30" s="54"/>
-      <c r="H30" s="54"/>
-      <c r="I30" s="54"/>
-      <c r="J30" s="54"/>
-      <c r="K30" s="54"/>
-      <c r="L30" s="54"/>
-      <c r="M30" s="54"/>
-      <c r="N30" s="54"/>
-      <c r="O30" s="54"/>
+      <c r="F30" s="58"/>
+      <c r="G30" s="58"/>
+      <c r="H30" s="58"/>
+      <c r="I30" s="58"/>
+      <c r="J30" s="58"/>
+      <c r="K30" s="58"/>
+      <c r="L30" s="58"/>
+      <c r="M30" s="58"/>
+      <c r="N30" s="58"/>
+      <c r="O30" s="58"/>
       <c r="P30"/>
       <c r="Q30"/>
     </row>
@@ -6689,19 +6698,19 @@
       <c r="D31" s="26" t="s">
         <v>170</v>
       </c>
-      <c r="E31" s="54" t="s">
+      <c r="E31" s="58" t="s">
         <v>227</v>
       </c>
-      <c r="F31" s="54"/>
-      <c r="G31" s="54"/>
-      <c r="H31" s="54"/>
-      <c r="I31" s="54"/>
-      <c r="J31" s="54"/>
-      <c r="K31" s="54"/>
-      <c r="L31" s="54"/>
-      <c r="M31" s="54"/>
-      <c r="N31" s="54"/>
-      <c r="O31" s="54"/>
+      <c r="F31" s="58"/>
+      <c r="G31" s="58"/>
+      <c r="H31" s="58"/>
+      <c r="I31" s="58"/>
+      <c r="J31" s="58"/>
+      <c r="K31" s="58"/>
+      <c r="L31" s="58"/>
+      <c r="M31" s="58"/>
+      <c r="N31" s="58"/>
+      <c r="O31" s="58"/>
       <c r="P31"/>
       <c r="Q31"/>
     </row>
@@ -6709,17 +6718,17 @@
       <c r="B32" s="26"/>
       <c r="C32" s="26"/>
       <c r="D32" s="26"/>
-      <c r="E32" s="78"/>
-      <c r="F32" s="54"/>
-      <c r="G32" s="54"/>
-      <c r="H32" s="54"/>
-      <c r="I32" s="54"/>
-      <c r="J32" s="54"/>
-      <c r="K32" s="54"/>
-      <c r="L32" s="54"/>
-      <c r="M32" s="54"/>
-      <c r="N32" s="54"/>
-      <c r="O32" s="54"/>
+      <c r="E32" s="75"/>
+      <c r="F32" s="58"/>
+      <c r="G32" s="58"/>
+      <c r="H32" s="58"/>
+      <c r="I32" s="58"/>
+      <c r="J32" s="58"/>
+      <c r="K32" s="58"/>
+      <c r="L32" s="58"/>
+      <c r="M32" s="58"/>
+      <c r="N32" s="58"/>
+      <c r="O32" s="58"/>
       <c r="P32"/>
       <c r="Q32"/>
     </row>
@@ -6727,199 +6736,199 @@
       <c r="B33" s="28"/>
       <c r="C33" s="28"/>
       <c r="D33" s="28"/>
-      <c r="E33" s="101"/>
-      <c r="F33" s="101"/>
-      <c r="G33" s="101"/>
-      <c r="H33" s="101"/>
-      <c r="I33" s="101"/>
-      <c r="J33" s="101"/>
-      <c r="K33" s="101"/>
-      <c r="L33" s="101"/>
-      <c r="M33" s="101"/>
-      <c r="N33" s="101"/>
-      <c r="O33" s="101"/>
+      <c r="E33" s="99"/>
+      <c r="F33" s="99"/>
+      <c r="G33" s="99"/>
+      <c r="H33" s="99"/>
+      <c r="I33" s="99"/>
+      <c r="J33" s="99"/>
+      <c r="K33" s="99"/>
+      <c r="L33" s="99"/>
+      <c r="M33" s="99"/>
+      <c r="N33" s="99"/>
+      <c r="O33" s="99"/>
       <c r="P33"/>
       <c r="Q33"/>
     </row>
     <row r="34" spans="2:17" s="11" customFormat="1">
-      <c r="B34" s="106" t="s">
+      <c r="B34" s="96" t="s">
         <v>27</v>
       </c>
-      <c r="C34" s="106"/>
-      <c r="D34" s="106"/>
-      <c r="E34" s="103" t="s">
+      <c r="C34" s="96"/>
+      <c r="D34" s="96"/>
+      <c r="E34" s="93" t="s">
         <v>228</v>
       </c>
-      <c r="F34" s="103" t="s">
+      <c r="F34" s="93" t="s">
         <v>229</v>
       </c>
-      <c r="G34" s="103" t="s">
+      <c r="G34" s="93" t="s">
         <v>230</v>
       </c>
-      <c r="H34" s="103" t="s">
+      <c r="H34" s="93" t="s">
         <v>231</v>
       </c>
-      <c r="I34" s="103" t="s">
+      <c r="I34" s="93" t="s">
         <v>232</v>
       </c>
-      <c r="J34" s="103" t="s">
+      <c r="J34" s="93" t="s">
         <v>233</v>
       </c>
-      <c r="K34" s="103" t="s">
+      <c r="K34" s="93" t="s">
         <v>234</v>
       </c>
-      <c r="L34" s="103" t="s">
+      <c r="L34" s="93" t="s">
         <v>235</v>
       </c>
-      <c r="M34" s="103" t="s">
+      <c r="M34" s="93" t="s">
         <v>236</v>
       </c>
-      <c r="N34" s="103" t="s">
+      <c r="N34" s="93" t="s">
         <v>237</v>
       </c>
-      <c r="O34" s="103" t="s">
+      <c r="O34" s="93" t="s">
         <v>238</v>
       </c>
-      <c r="P34" s="103" t="s">
+      <c r="P34" s="93" t="s">
         <v>239</v>
       </c>
-      <c r="Q34" s="103" t="s">
+      <c r="Q34" s="93" t="s">
         <v>240</v>
       </c>
     </row>
     <row r="35" spans="2:17" s="11" customFormat="1">
-      <c r="B35" s="106"/>
-      <c r="C35" s="106"/>
-      <c r="D35" s="106"/>
-      <c r="E35" s="103"/>
-      <c r="F35" s="103"/>
-      <c r="G35" s="103"/>
-      <c r="H35" s="103"/>
-      <c r="I35" s="103"/>
-      <c r="J35" s="103"/>
-      <c r="K35" s="103"/>
-      <c r="L35" s="103"/>
-      <c r="M35" s="103"/>
-      <c r="N35" s="103"/>
-      <c r="O35" s="103"/>
-      <c r="P35" s="103"/>
-      <c r="Q35" s="103"/>
+      <c r="B35" s="96"/>
+      <c r="C35" s="96"/>
+      <c r="D35" s="96"/>
+      <c r="E35" s="93"/>
+      <c r="F35" s="93"/>
+      <c r="G35" s="93"/>
+      <c r="H35" s="93"/>
+      <c r="I35" s="93"/>
+      <c r="J35" s="93"/>
+      <c r="K35" s="93"/>
+      <c r="L35" s="93"/>
+      <c r="M35" s="93"/>
+      <c r="N35" s="93"/>
+      <c r="O35" s="93"/>
+      <c r="P35" s="93"/>
+      <c r="Q35" s="93"/>
     </row>
     <row r="36" spans="2:17" s="11" customFormat="1">
-      <c r="B36" s="106" t="s">
+      <c r="B36" s="96" t="s">
         <v>241</v>
       </c>
-      <c r="C36" s="106"/>
-      <c r="D36" s="106"/>
-      <c r="E36" s="104" t="s">
+      <c r="C36" s="96"/>
+      <c r="D36" s="96"/>
+      <c r="E36" s="94" t="s">
         <v>242</v>
       </c>
-      <c r="F36" s="104" t="s">
+      <c r="F36" s="94" t="s">
         <v>243</v>
       </c>
-      <c r="G36" s="104" t="s">
+      <c r="G36" s="94" t="s">
         <v>244</v>
       </c>
-      <c r="H36" s="104" t="s">
+      <c r="H36" s="94" t="s">
         <v>245</v>
       </c>
-      <c r="I36" s="104" t="s">
+      <c r="I36" s="94" t="s">
         <v>246</v>
       </c>
-      <c r="J36" s="104" t="s">
+      <c r="J36" s="94" t="s">
         <v>247</v>
       </c>
-      <c r="K36" s="104" t="s">
+      <c r="K36" s="94" t="s">
         <v>248</v>
       </c>
-      <c r="L36" s="104" t="s">
+      <c r="L36" s="94" t="s">
         <v>249</v>
       </c>
-      <c r="M36" s="104" t="s">
+      <c r="M36" s="94" t="s">
         <v>250</v>
       </c>
-      <c r="N36" s="104" t="s">
+      <c r="N36" s="94" t="s">
         <v>251</v>
       </c>
-      <c r="O36" s="104" t="s">
+      <c r="O36" s="94" t="s">
         <v>252</v>
       </c>
-      <c r="P36" s="104" t="s">
+      <c r="P36" s="94" t="s">
         <v>253</v>
       </c>
-      <c r="Q36" s="104" t="s">
+      <c r="Q36" s="94" t="s">
         <v>254</v>
       </c>
     </row>
     <row r="37" spans="2:17">
-      <c r="B37" s="106"/>
-      <c r="C37" s="106"/>
-      <c r="D37" s="106"/>
-      <c r="E37" s="104"/>
-      <c r="F37" s="104"/>
-      <c r="G37" s="104"/>
-      <c r="H37" s="104"/>
-      <c r="I37" s="104"/>
-      <c r="J37" s="104"/>
-      <c r="K37" s="104"/>
-      <c r="L37" s="104"/>
-      <c r="M37" s="104"/>
-      <c r="N37" s="104"/>
-      <c r="O37" s="104"/>
-      <c r="P37" s="104"/>
-      <c r="Q37" s="104"/>
+      <c r="B37" s="96"/>
+      <c r="C37" s="96"/>
+      <c r="D37" s="96"/>
+      <c r="E37" s="94"/>
+      <c r="F37" s="94"/>
+      <c r="G37" s="94"/>
+      <c r="H37" s="94"/>
+      <c r="I37" s="94"/>
+      <c r="J37" s="94"/>
+      <c r="K37" s="94"/>
+      <c r="L37" s="94"/>
+      <c r="M37" s="94"/>
+      <c r="N37" s="94"/>
+      <c r="O37" s="94"/>
+      <c r="P37" s="94"/>
+      <c r="Q37" s="94"/>
     </row>
     <row r="40" spans="2:17" ht="15">
-      <c r="B40" s="99" t="s">
+      <c r="B40" s="102" t="s">
         <v>255</v>
       </c>
-      <c r="C40" s="100"/>
-      <c r="D40" s="100"/>
-      <c r="E40" s="100"/>
-      <c r="F40" s="100"/>
-      <c r="G40" s="100"/>
-      <c r="H40" s="100"/>
-      <c r="I40" s="100"/>
-      <c r="J40" s="100"/>
-      <c r="K40" s="100"/>
-      <c r="L40" s="100"/>
-      <c r="M40" s="100"/>
-      <c r="N40" s="100"/>
-      <c r="O40" s="100"/>
+      <c r="C40" s="103"/>
+      <c r="D40" s="103"/>
+      <c r="E40" s="103"/>
+      <c r="F40" s="103"/>
+      <c r="G40" s="103"/>
+      <c r="H40" s="103"/>
+      <c r="I40" s="103"/>
+      <c r="J40" s="103"/>
+      <c r="K40" s="103"/>
+      <c r="L40" s="103"/>
+      <c r="M40" s="103"/>
+      <c r="N40" s="103"/>
+      <c r="O40" s="103"/>
     </row>
     <row r="41" spans="2:17">
-      <c r="B41" s="93" t="s">
+      <c r="B41" s="104" t="s">
         <v>189</v>
       </c>
-      <c r="C41" s="93"/>
+      <c r="C41" s="104"/>
       <c r="D41" s="14"/>
-      <c r="E41" s="101"/>
-      <c r="F41" s="101"/>
-      <c r="G41" s="101"/>
-      <c r="H41" s="101"/>
-      <c r="I41" s="101"/>
-      <c r="J41" s="101"/>
-      <c r="K41" s="101"/>
-      <c r="L41" s="101"/>
-      <c r="M41" s="101"/>
-      <c r="N41" s="101"/>
-      <c r="O41" s="101"/>
+      <c r="E41" s="99"/>
+      <c r="F41" s="99"/>
+      <c r="G41" s="99"/>
+      <c r="H41" s="99"/>
+      <c r="I41" s="99"/>
+      <c r="J41" s="99"/>
+      <c r="K41" s="99"/>
+      <c r="L41" s="99"/>
+      <c r="M41" s="99"/>
+      <c r="N41" s="99"/>
+      <c r="O41" s="99"/>
     </row>
     <row r="42" spans="2:17">
       <c r="B42" s="14"/>
       <c r="C42" s="14"/>
       <c r="D42" s="14"/>
-      <c r="E42" s="102"/>
-      <c r="F42" s="102"/>
-      <c r="G42" s="102"/>
-      <c r="H42" s="102"/>
-      <c r="I42" s="102"/>
-      <c r="J42" s="102"/>
-      <c r="K42" s="102"/>
-      <c r="L42" s="102"/>
-      <c r="M42" s="102"/>
-      <c r="N42" s="102"/>
-      <c r="O42" s="102"/>
+      <c r="E42" s="105"/>
+      <c r="F42" s="105"/>
+      <c r="G42" s="105"/>
+      <c r="H42" s="105"/>
+      <c r="I42" s="105"/>
+      <c r="J42" s="105"/>
+      <c r="K42" s="105"/>
+      <c r="L42" s="105"/>
+      <c r="M42" s="105"/>
+      <c r="N42" s="105"/>
+      <c r="O42" s="105"/>
     </row>
     <row r="43" spans="2:17">
       <c r="B43" s="26" t="s">
@@ -6994,71 +7003,71 @@
       <c r="O44" s="15"/>
     </row>
     <row r="45" spans="2:17" ht="27" customHeight="1">
-      <c r="B45" s="54" t="s">
+      <c r="B45" s="58" t="s">
         <v>275</v>
       </c>
-      <c r="C45" s="54"/>
-      <c r="D45" s="54"/>
-      <c r="E45" s="54"/>
-      <c r="F45" s="54"/>
-      <c r="G45" s="54"/>
-      <c r="H45" s="54"/>
-      <c r="I45" s="54"/>
+      <c r="C45" s="58"/>
+      <c r="D45" s="58"/>
+      <c r="E45" s="58"/>
+      <c r="F45" s="58"/>
+      <c r="G45" s="58"/>
+      <c r="H45" s="58"/>
+      <c r="I45" s="58"/>
       <c r="M45" s="15"/>
       <c r="N45" s="15"/>
       <c r="O45" s="15"/>
     </row>
     <row r="49" spans="2:17" ht="15">
-      <c r="B49" s="99" t="s">
+      <c r="B49" s="102" t="s">
         <v>276</v>
       </c>
-      <c r="C49" s="100"/>
-      <c r="D49" s="100"/>
-      <c r="E49" s="100"/>
-      <c r="F49" s="100"/>
-      <c r="G49" s="100"/>
-      <c r="H49" s="100"/>
-      <c r="I49" s="100"/>
-      <c r="J49" s="100"/>
-      <c r="K49" s="100"/>
-      <c r="L49" s="100"/>
-      <c r="M49" s="100"/>
-      <c r="N49" s="100"/>
-      <c r="O49" s="100"/>
+      <c r="C49" s="103"/>
+      <c r="D49" s="103"/>
+      <c r="E49" s="103"/>
+      <c r="F49" s="103"/>
+      <c r="G49" s="103"/>
+      <c r="H49" s="103"/>
+      <c r="I49" s="103"/>
+      <c r="J49" s="103"/>
+      <c r="K49" s="103"/>
+      <c r="L49" s="103"/>
+      <c r="M49" s="103"/>
+      <c r="N49" s="103"/>
+      <c r="O49" s="103"/>
     </row>
     <row r="50" spans="2:17">
-      <c r="B50" s="93" t="s">
+      <c r="B50" s="104" t="s">
         <v>189</v>
       </c>
-      <c r="C50" s="93"/>
+      <c r="C50" s="104"/>
       <c r="D50" s="14"/>
-      <c r="E50" s="101"/>
-      <c r="F50" s="101"/>
-      <c r="G50" s="101"/>
-      <c r="H50" s="101"/>
-      <c r="I50" s="101"/>
-      <c r="J50" s="101"/>
-      <c r="K50" s="101"/>
-      <c r="L50" s="101"/>
-      <c r="M50" s="101"/>
-      <c r="N50" s="101"/>
-      <c r="O50" s="101"/>
+      <c r="E50" s="99"/>
+      <c r="F50" s="99"/>
+      <c r="G50" s="99"/>
+      <c r="H50" s="99"/>
+      <c r="I50" s="99"/>
+      <c r="J50" s="99"/>
+      <c r="K50" s="99"/>
+      <c r="L50" s="99"/>
+      <c r="M50" s="99"/>
+      <c r="N50" s="99"/>
+      <c r="O50" s="99"/>
     </row>
     <row r="51" spans="2:17">
       <c r="B51" s="14"/>
       <c r="C51" s="14"/>
       <c r="D51" s="14"/>
-      <c r="E51" s="102"/>
-      <c r="F51" s="102"/>
-      <c r="G51" s="102"/>
-      <c r="H51" s="102"/>
-      <c r="I51" s="102"/>
-      <c r="J51" s="102"/>
-      <c r="K51" s="102"/>
-      <c r="L51" s="102"/>
-      <c r="M51" s="102"/>
-      <c r="N51" s="102"/>
-      <c r="O51" s="102"/>
+      <c r="E51" s="105"/>
+      <c r="F51" s="105"/>
+      <c r="G51" s="105"/>
+      <c r="H51" s="105"/>
+      <c r="I51" s="105"/>
+      <c r="J51" s="105"/>
+      <c r="K51" s="105"/>
+      <c r="L51" s="105"/>
+      <c r="M51" s="105"/>
+      <c r="N51" s="105"/>
+      <c r="O51" s="105"/>
     </row>
     <row r="52" spans="2:17">
       <c r="B52" s="26" t="s">
@@ -7275,16 +7284,16 @@
       <c r="O58" s="15"/>
     </row>
     <row r="59" spans="2:17" ht="30" customHeight="1">
-      <c r="B59" s="54" t="s">
+      <c r="B59" s="58" t="s">
         <v>303</v>
       </c>
-      <c r="C59" s="54"/>
-      <c r="D59" s="54"/>
-      <c r="E59" s="54"/>
-      <c r="F59" s="54"/>
-      <c r="G59" s="54"/>
-      <c r="H59" s="54"/>
-      <c r="I59" s="54"/>
+      <c r="C59" s="58"/>
+      <c r="D59" s="58"/>
+      <c r="E59" s="58"/>
+      <c r="F59" s="58"/>
+      <c r="G59" s="58"/>
+      <c r="H59" s="58"/>
+      <c r="I59" s="58"/>
       <c r="M59" s="15"/>
       <c r="N59" s="15"/>
       <c r="O59" s="15"/>
@@ -7299,22 +7308,22 @@
       <c r="Q62" s="42"/>
     </row>
     <row r="63" spans="2:17" ht="15.5">
-      <c r="B63" s="99" t="s">
+      <c r="B63" s="102" t="s">
         <v>304</v>
       </c>
-      <c r="C63" s="100"/>
-      <c r="D63" s="100"/>
-      <c r="E63" s="100"/>
-      <c r="F63" s="100"/>
-      <c r="G63" s="100"/>
-      <c r="H63" s="100"/>
-      <c r="I63" s="100"/>
-      <c r="J63" s="100"/>
-      <c r="K63" s="100"/>
-      <c r="L63" s="100"/>
-      <c r="M63" s="100"/>
-      <c r="N63" s="100"/>
-      <c r="O63" s="100"/>
+      <c r="C63" s="103"/>
+      <c r="D63" s="103"/>
+      <c r="E63" s="103"/>
+      <c r="F63" s="103"/>
+      <c r="G63" s="103"/>
+      <c r="H63" s="103"/>
+      <c r="I63" s="103"/>
+      <c r="J63" s="103"/>
+      <c r="K63" s="103"/>
+      <c r="L63" s="103"/>
+      <c r="M63" s="103"/>
+      <c r="N63" s="103"/>
+      <c r="O63" s="103"/>
       <c r="P63" s="42"/>
       <c r="Q63" s="42"/>
     </row>
@@ -7328,17 +7337,17 @@
       <c r="D64" s="38" t="s">
         <v>29</v>
       </c>
-      <c r="E64" s="54"/>
-      <c r="F64" s="54"/>
-      <c r="G64" s="54"/>
-      <c r="H64" s="54"/>
-      <c r="I64" s="54"/>
-      <c r="J64" s="54"/>
-      <c r="K64" s="54"/>
-      <c r="L64" s="54"/>
-      <c r="M64" s="54"/>
-      <c r="N64" s="54"/>
-      <c r="O64" s="54"/>
+      <c r="E64" s="58"/>
+      <c r="F64" s="58"/>
+      <c r="G64" s="58"/>
+      <c r="H64" s="58"/>
+      <c r="I64" s="58"/>
+      <c r="J64" s="58"/>
+      <c r="K64" s="58"/>
+      <c r="L64" s="58"/>
+      <c r="M64" s="58"/>
+      <c r="N64" s="58"/>
+      <c r="O64" s="58"/>
       <c r="P64" s="42"/>
       <c r="Q64" s="42"/>
     </row>
@@ -7352,17 +7361,17 @@
       <c r="D65" s="38" t="s">
         <v>170</v>
       </c>
-      <c r="E65" s="54"/>
-      <c r="F65" s="54"/>
-      <c r="G65" s="54"/>
-      <c r="H65" s="54"/>
-      <c r="I65" s="54"/>
-      <c r="J65" s="54"/>
-      <c r="K65" s="54"/>
-      <c r="L65" s="54"/>
-      <c r="M65" s="54"/>
-      <c r="N65" s="54"/>
-      <c r="O65" s="54"/>
+      <c r="E65" s="58"/>
+      <c r="F65" s="58"/>
+      <c r="G65" s="58"/>
+      <c r="H65" s="58"/>
+      <c r="I65" s="58"/>
+      <c r="J65" s="58"/>
+      <c r="K65" s="58"/>
+      <c r="L65" s="58"/>
+      <c r="M65" s="58"/>
+      <c r="N65" s="58"/>
+      <c r="O65" s="58"/>
     </row>
     <row r="66" spans="2:15" ht="13" customHeight="1">
       <c r="B66" s="43"/>
@@ -7487,6 +7496,99 @@
     <row r="89" spans="16:16" s="17" customFormat="1" ht="31" customHeight="1"/>
   </sheetData>
   <mergeCells count="117">
+    <mergeCell ref="E6:O6"/>
+    <mergeCell ref="B8:O8"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="E10:F10"/>
+    <mergeCell ref="G10:H10"/>
+    <mergeCell ref="I10:J10"/>
+    <mergeCell ref="K10:L10"/>
+    <mergeCell ref="M10:N10"/>
+    <mergeCell ref="O10:P10"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="E11:F11"/>
+    <mergeCell ref="G11:H11"/>
+    <mergeCell ref="I11:J11"/>
+    <mergeCell ref="K11:L11"/>
+    <mergeCell ref="M11:N11"/>
+    <mergeCell ref="O11:P11"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="E12:F12"/>
+    <mergeCell ref="G12:H12"/>
+    <mergeCell ref="I12:J12"/>
+    <mergeCell ref="K12:L12"/>
+    <mergeCell ref="M12:N12"/>
+    <mergeCell ref="O12:P12"/>
+    <mergeCell ref="B15:O15"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="E17:F17"/>
+    <mergeCell ref="G17:H17"/>
+    <mergeCell ref="I17:J17"/>
+    <mergeCell ref="K17:L17"/>
+    <mergeCell ref="M17:N17"/>
+    <mergeCell ref="O17:P17"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="E18:F18"/>
+    <mergeCell ref="G18:H18"/>
+    <mergeCell ref="I18:J18"/>
+    <mergeCell ref="K18:L18"/>
+    <mergeCell ref="M18:N18"/>
+    <mergeCell ref="O18:P18"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="E19:F19"/>
+    <mergeCell ref="G19:H19"/>
+    <mergeCell ref="I19:J19"/>
+    <mergeCell ref="K19:L19"/>
+    <mergeCell ref="M19:N19"/>
+    <mergeCell ref="O19:P19"/>
+    <mergeCell ref="B22:O22"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="C24:D24"/>
+    <mergeCell ref="E24:F24"/>
+    <mergeCell ref="G24:H24"/>
+    <mergeCell ref="I24:J24"/>
+    <mergeCell ref="K24:L24"/>
+    <mergeCell ref="M24:N24"/>
+    <mergeCell ref="O24:P24"/>
+    <mergeCell ref="M25:N25"/>
+    <mergeCell ref="O25:P25"/>
+    <mergeCell ref="C26:D26"/>
+    <mergeCell ref="E26:F26"/>
+    <mergeCell ref="G26:H26"/>
+    <mergeCell ref="I26:J26"/>
+    <mergeCell ref="K26:L26"/>
+    <mergeCell ref="M26:N26"/>
+    <mergeCell ref="O26:P26"/>
+    <mergeCell ref="B40:O40"/>
+    <mergeCell ref="B41:C41"/>
+    <mergeCell ref="E41:O41"/>
+    <mergeCell ref="E42:O42"/>
+    <mergeCell ref="E34:E35"/>
+    <mergeCell ref="E36:E37"/>
+    <mergeCell ref="F34:F35"/>
+    <mergeCell ref="F36:F37"/>
+    <mergeCell ref="G34:G35"/>
+    <mergeCell ref="G36:G37"/>
+    <mergeCell ref="H34:H35"/>
+    <mergeCell ref="H36:H37"/>
+    <mergeCell ref="I34:I35"/>
+    <mergeCell ref="I36:I37"/>
+    <mergeCell ref="J34:J35"/>
+    <mergeCell ref="J36:J37"/>
+    <mergeCell ref="K34:K35"/>
+    <mergeCell ref="K36:K37"/>
+    <mergeCell ref="L34:L35"/>
+    <mergeCell ref="B45:I45"/>
+    <mergeCell ref="B49:O49"/>
+    <mergeCell ref="B50:C50"/>
+    <mergeCell ref="E50:O50"/>
+    <mergeCell ref="E51:O51"/>
+    <mergeCell ref="B59:I59"/>
+    <mergeCell ref="B63:O63"/>
+    <mergeCell ref="E64:O64"/>
+    <mergeCell ref="E65:O65"/>
     <mergeCell ref="Q34:Q35"/>
     <mergeCell ref="Q36:Q37"/>
     <mergeCell ref="B1:O3"/>
@@ -7511,99 +7613,6 @@
     <mergeCell ref="G25:H25"/>
     <mergeCell ref="I25:J25"/>
     <mergeCell ref="K25:L25"/>
-    <mergeCell ref="B45:I45"/>
-    <mergeCell ref="B49:O49"/>
-    <mergeCell ref="B50:C50"/>
-    <mergeCell ref="E50:O50"/>
-    <mergeCell ref="E51:O51"/>
-    <mergeCell ref="B59:I59"/>
-    <mergeCell ref="B63:O63"/>
-    <mergeCell ref="E64:O64"/>
-    <mergeCell ref="E65:O65"/>
-    <mergeCell ref="B40:O40"/>
-    <mergeCell ref="B41:C41"/>
-    <mergeCell ref="E41:O41"/>
-    <mergeCell ref="E42:O42"/>
-    <mergeCell ref="E34:E35"/>
-    <mergeCell ref="E36:E37"/>
-    <mergeCell ref="F34:F35"/>
-    <mergeCell ref="F36:F37"/>
-    <mergeCell ref="G34:G35"/>
-    <mergeCell ref="G36:G37"/>
-    <mergeCell ref="H34:H35"/>
-    <mergeCell ref="H36:H37"/>
-    <mergeCell ref="I34:I35"/>
-    <mergeCell ref="I36:I37"/>
-    <mergeCell ref="J34:J35"/>
-    <mergeCell ref="J36:J37"/>
-    <mergeCell ref="K34:K35"/>
-    <mergeCell ref="K36:K37"/>
-    <mergeCell ref="L34:L35"/>
-    <mergeCell ref="M25:N25"/>
-    <mergeCell ref="O25:P25"/>
-    <mergeCell ref="C26:D26"/>
-    <mergeCell ref="E26:F26"/>
-    <mergeCell ref="G26:H26"/>
-    <mergeCell ref="I26:J26"/>
-    <mergeCell ref="K26:L26"/>
-    <mergeCell ref="M26:N26"/>
-    <mergeCell ref="O26:P26"/>
-    <mergeCell ref="B22:O22"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="C24:D24"/>
-    <mergeCell ref="E24:F24"/>
-    <mergeCell ref="G24:H24"/>
-    <mergeCell ref="I24:J24"/>
-    <mergeCell ref="K24:L24"/>
-    <mergeCell ref="M24:N24"/>
-    <mergeCell ref="O24:P24"/>
-    <mergeCell ref="C18:D18"/>
-    <mergeCell ref="E18:F18"/>
-    <mergeCell ref="G18:H18"/>
-    <mergeCell ref="I18:J18"/>
-    <mergeCell ref="K18:L18"/>
-    <mergeCell ref="M18:N18"/>
-    <mergeCell ref="O18:P18"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="E19:F19"/>
-    <mergeCell ref="G19:H19"/>
-    <mergeCell ref="I19:J19"/>
-    <mergeCell ref="K19:L19"/>
-    <mergeCell ref="M19:N19"/>
-    <mergeCell ref="O19:P19"/>
-    <mergeCell ref="B15:O15"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="C17:D17"/>
-    <mergeCell ref="E17:F17"/>
-    <mergeCell ref="G17:H17"/>
-    <mergeCell ref="I17:J17"/>
-    <mergeCell ref="K17:L17"/>
-    <mergeCell ref="M17:N17"/>
-    <mergeCell ref="O17:P17"/>
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="E11:F11"/>
-    <mergeCell ref="G11:H11"/>
-    <mergeCell ref="I11:J11"/>
-    <mergeCell ref="K11:L11"/>
-    <mergeCell ref="M11:N11"/>
-    <mergeCell ref="O11:P11"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="E12:F12"/>
-    <mergeCell ref="G12:H12"/>
-    <mergeCell ref="I12:J12"/>
-    <mergeCell ref="K12:L12"/>
-    <mergeCell ref="M12:N12"/>
-    <mergeCell ref="O12:P12"/>
-    <mergeCell ref="E6:O6"/>
-    <mergeCell ref="B8:O8"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="C10:D10"/>
-    <mergeCell ref="E10:F10"/>
-    <mergeCell ref="G10:H10"/>
-    <mergeCell ref="I10:J10"/>
-    <mergeCell ref="K10:L10"/>
-    <mergeCell ref="M10:N10"/>
-    <mergeCell ref="O10:P10"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="K11" r:id="rId1"/>
@@ -7874,61 +7883,61 @@
       </c>
     </row>
     <row r="17" spans="1:8" ht="14.5" customHeight="1">
-      <c r="A17" s="135"/>
-      <c r="B17" s="135"/>
-      <c r="C17" s="135"/>
-      <c r="D17" s="135"/>
-      <c r="E17" s="135"/>
-      <c r="F17" s="135"/>
-      <c r="G17" s="135"/>
-      <c r="H17" s="135"/>
+      <c r="A17" s="51"/>
+      <c r="B17" s="51"/>
+      <c r="C17" s="51"/>
+      <c r="D17" s="51"/>
+      <c r="E17" s="51"/>
+      <c r="F17" s="51"/>
+      <c r="G17" s="51"/>
+      <c r="H17" s="51"/>
     </row>
     <row r="18" spans="1:8" ht="14.5" customHeight="1">
-      <c r="A18" s="135"/>
-      <c r="B18" s="135"/>
-      <c r="C18" s="135"/>
-      <c r="D18" s="135"/>
-      <c r="E18" s="135"/>
-      <c r="F18" s="135"/>
-      <c r="G18" s="135"/>
-      <c r="H18" s="135"/>
+      <c r="A18" s="51"/>
+      <c r="B18" s="51"/>
+      <c r="C18" s="51"/>
+      <c r="D18" s="51"/>
+      <c r="E18" s="51"/>
+      <c r="F18" s="51"/>
+      <c r="G18" s="51"/>
+      <c r="H18" s="51"/>
     </row>
     <row r="19" spans="1:8" ht="14.5" customHeight="1">
-      <c r="A19" s="136" t="s">
+      <c r="A19" s="109" t="s">
         <v>429</v>
       </c>
-      <c r="B19" s="136"/>
-      <c r="C19" s="136"/>
-      <c r="D19" s="136"/>
-      <c r="E19" s="136"/>
+      <c r="B19" s="109"/>
+      <c r="C19" s="109"/>
+      <c r="D19" s="109"/>
+      <c r="E19" s="109"/>
     </row>
     <row r="20" spans="1:8">
-      <c r="A20" s="136"/>
-      <c r="B20" s="136"/>
-      <c r="C20" s="136"/>
-      <c r="D20" s="136"/>
-      <c r="E20" s="136"/>
+      <c r="A20" s="109"/>
+      <c r="B20" s="109"/>
+      <c r="C20" s="109"/>
+      <c r="D20" s="109"/>
+      <c r="E20" s="109"/>
     </row>
     <row r="21" spans="1:8">
-      <c r="A21" s="136"/>
-      <c r="B21" s="136"/>
-      <c r="C21" s="136"/>
-      <c r="D21" s="136"/>
-      <c r="E21" s="136"/>
+      <c r="A21" s="109"/>
+      <c r="B21" s="109"/>
+      <c r="C21" s="109"/>
+      <c r="D21" s="109"/>
+      <c r="E21" s="109"/>
     </row>
     <row r="22" spans="1:8">
-      <c r="A22" s="136"/>
-      <c r="B22" s="136"/>
-      <c r="C22" s="136"/>
-      <c r="D22" s="136"/>
-      <c r="E22" s="136"/>
+      <c r="A22" s="109"/>
+      <c r="B22" s="109"/>
+      <c r="C22" s="109"/>
+      <c r="D22" s="109"/>
+      <c r="E22" s="109"/>
     </row>
     <row r="23" spans="1:8">
-      <c r="A23" s="136"/>
-      <c r="B23" s="136"/>
-      <c r="C23" s="136"/>
-      <c r="D23" s="136"/>
-      <c r="E23" s="136"/>
+      <c r="A23" s="109"/>
+      <c r="B23" s="109"/>
+      <c r="C23" s="109"/>
+      <c r="D23" s="109"/>
+      <c r="E23" s="109"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -7969,67 +7978,67 @@
       <c r="D2" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="51" t="s">
+      <c r="E2" s="92" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="51"/>
-      <c r="G2" s="51"/>
-      <c r="H2" s="51"/>
-      <c r="I2" s="51"/>
-      <c r="J2" s="51"/>
-      <c r="K2" s="51"/>
-      <c r="L2" s="51"/>
-      <c r="M2" s="51"/>
-      <c r="N2" s="51"/>
-      <c r="O2" s="51"/>
+      <c r="F2" s="92"/>
+      <c r="G2" s="92"/>
+      <c r="H2" s="92"/>
+      <c r="I2" s="92"/>
+      <c r="J2" s="92"/>
+      <c r="K2" s="92"/>
+      <c r="L2" s="92"/>
+      <c r="M2" s="92"/>
+      <c r="N2" s="92"/>
+      <c r="O2" s="92"/>
     </row>
     <row r="3" spans="2:22">
-      <c r="B3" s="137" t="s">
+      <c r="B3" s="112" t="s">
         <v>430</v>
       </c>
-      <c r="C3" s="137"/>
-      <c r="D3" s="137"/>
-      <c r="E3" s="137"/>
-      <c r="F3" s="137"/>
-      <c r="G3" s="137"/>
-      <c r="H3" s="137"/>
-      <c r="I3" s="137"/>
-      <c r="J3" s="137"/>
-      <c r="K3" s="137"/>
-      <c r="M3" s="137" t="s">
+      <c r="C3" s="112"/>
+      <c r="D3" s="112"/>
+      <c r="E3" s="112"/>
+      <c r="F3" s="112"/>
+      <c r="G3" s="112"/>
+      <c r="H3" s="112"/>
+      <c r="I3" s="112"/>
+      <c r="J3" s="112"/>
+      <c r="K3" s="112"/>
+      <c r="M3" s="112" t="s">
         <v>431</v>
       </c>
-      <c r="N3" s="137"/>
-      <c r="O3" s="137"/>
-      <c r="P3" s="137"/>
-      <c r="Q3" s="137"/>
-      <c r="R3" s="137"/>
-      <c r="S3" s="137"/>
-      <c r="T3" s="137"/>
-      <c r="U3" s="137"/>
-      <c r="V3" s="137"/>
+      <c r="N3" s="112"/>
+      <c r="O3" s="112"/>
+      <c r="P3" s="112"/>
+      <c r="Q3" s="112"/>
+      <c r="R3" s="112"/>
+      <c r="S3" s="112"/>
+      <c r="T3" s="112"/>
+      <c r="U3" s="112"/>
+      <c r="V3" s="112"/>
     </row>
     <row r="4" spans="2:22">
-      <c r="B4" s="138"/>
-      <c r="C4" s="138"/>
-      <c r="D4" s="138"/>
-      <c r="E4" s="138"/>
-      <c r="F4" s="138"/>
-      <c r="G4" s="138"/>
-      <c r="H4" s="138"/>
-      <c r="I4" s="138"/>
-      <c r="J4" s="138"/>
-      <c r="K4" s="138"/>
-      <c r="M4" s="138"/>
-      <c r="N4" s="138"/>
-      <c r="O4" s="138"/>
-      <c r="P4" s="138"/>
-      <c r="Q4" s="138"/>
-      <c r="R4" s="138"/>
-      <c r="S4" s="138"/>
-      <c r="T4" s="138"/>
-      <c r="U4" s="138"/>
-      <c r="V4" s="138"/>
+      <c r="B4" s="113"/>
+      <c r="C4" s="113"/>
+      <c r="D4" s="113"/>
+      <c r="E4" s="113"/>
+      <c r="F4" s="113"/>
+      <c r="G4" s="113"/>
+      <c r="H4" s="113"/>
+      <c r="I4" s="113"/>
+      <c r="J4" s="113"/>
+      <c r="K4" s="113"/>
+      <c r="M4" s="113"/>
+      <c r="N4" s="113"/>
+      <c r="O4" s="113"/>
+      <c r="P4" s="113"/>
+      <c r="Q4" s="113"/>
+      <c r="R4" s="113"/>
+      <c r="S4" s="113"/>
+      <c r="T4" s="113"/>
+      <c r="U4" s="113"/>
+      <c r="V4" s="113"/>
     </row>
     <row r="6" spans="2:22">
       <c r="B6" s="25" t="s">
@@ -8039,13 +8048,13 @@
         <v>433</v>
       </c>
       <c r="D6" s="25"/>
-      <c r="E6" s="54"/>
-      <c r="F6" s="54"/>
-      <c r="G6" s="54"/>
-      <c r="H6" s="54"/>
-      <c r="I6" s="54"/>
-      <c r="J6" s="54"/>
-      <c r="K6" s="54"/>
+      <c r="E6" s="58"/>
+      <c r="F6" s="58"/>
+      <c r="G6" s="58"/>
+      <c r="H6" s="58"/>
+      <c r="I6" s="58"/>
+      <c r="J6" s="58"/>
+      <c r="K6" s="58"/>
       <c r="M6" s="25" t="s">
         <v>432</v>
       </c>
@@ -8055,13 +8064,13 @@
       <c r="O6" s="25" t="s">
         <v>63</v>
       </c>
-      <c r="P6" s="56"/>
-      <c r="Q6" s="57"/>
-      <c r="R6" s="57"/>
-      <c r="S6" s="57"/>
-      <c r="T6" s="57"/>
-      <c r="U6" s="57"/>
-      <c r="V6" s="58"/>
+      <c r="P6" s="53"/>
+      <c r="Q6" s="54"/>
+      <c r="R6" s="54"/>
+      <c r="S6" s="54"/>
+      <c r="T6" s="54"/>
+      <c r="U6" s="54"/>
+      <c r="V6" s="55"/>
     </row>
     <row r="7" spans="2:22">
       <c r="B7" s="25" t="s">
@@ -8073,13 +8082,13 @@
       <c r="D7" s="25" t="s">
         <v>436</v>
       </c>
-      <c r="E7" s="54"/>
-      <c r="F7" s="54"/>
-      <c r="G7" s="54"/>
-      <c r="H7" s="54"/>
-      <c r="I7" s="54"/>
-      <c r="J7" s="54"/>
-      <c r="K7" s="54"/>
+      <c r="E7" s="58"/>
+      <c r="F7" s="58"/>
+      <c r="G7" s="58"/>
+      <c r="H7" s="58"/>
+      <c r="I7" s="58"/>
+      <c r="J7" s="58"/>
+      <c r="K7" s="58"/>
       <c r="M7" s="25" t="s">
         <v>437</v>
       </c>
@@ -8089,13 +8098,13 @@
       <c r="O7" s="25" t="s">
         <v>63</v>
       </c>
-      <c r="P7" s="56"/>
-      <c r="Q7" s="57"/>
-      <c r="R7" s="57"/>
-      <c r="S7" s="57"/>
-      <c r="T7" s="57"/>
-      <c r="U7" s="57"/>
-      <c r="V7" s="58"/>
+      <c r="P7" s="53"/>
+      <c r="Q7" s="54"/>
+      <c r="R7" s="54"/>
+      <c r="S7" s="54"/>
+      <c r="T7" s="54"/>
+      <c r="U7" s="54"/>
+      <c r="V7" s="55"/>
     </row>
     <row r="8" spans="2:22">
       <c r="B8" s="25" t="s">
@@ -8105,15 +8114,15 @@
         <v>440</v>
       </c>
       <c r="D8" s="25"/>
-      <c r="E8" s="54" t="s">
+      <c r="E8" s="58" t="s">
         <v>441</v>
       </c>
-      <c r="F8" s="54"/>
-      <c r="G8" s="54"/>
-      <c r="H8" s="54"/>
-      <c r="I8" s="54"/>
-      <c r="J8" s="54"/>
-      <c r="K8" s="54"/>
+      <c r="F8" s="58"/>
+      <c r="G8" s="58"/>
+      <c r="H8" s="58"/>
+      <c r="I8" s="58"/>
+      <c r="J8" s="58"/>
+      <c r="K8" s="58"/>
       <c r="M8" s="25" t="s">
         <v>439</v>
       </c>
@@ -8123,15 +8132,15 @@
       <c r="O8" s="25" t="s">
         <v>442</v>
       </c>
-      <c r="P8" s="56" t="s">
+      <c r="P8" s="53" t="s">
         <v>441</v>
       </c>
-      <c r="Q8" s="57"/>
-      <c r="R8" s="57"/>
-      <c r="S8" s="57"/>
-      <c r="T8" s="57"/>
-      <c r="U8" s="57"/>
-      <c r="V8" s="58"/>
+      <c r="Q8" s="54"/>
+      <c r="R8" s="54"/>
+      <c r="S8" s="54"/>
+      <c r="T8" s="54"/>
+      <c r="U8" s="54"/>
+      <c r="V8" s="55"/>
     </row>
     <row r="9" spans="2:22">
       <c r="B9" s="25" t="s">
@@ -8141,13 +8150,13 @@
         <v>444</v>
       </c>
       <c r="D9" s="25"/>
-      <c r="E9" s="54"/>
-      <c r="F9" s="54"/>
-      <c r="G9" s="54"/>
-      <c r="H9" s="54"/>
-      <c r="I9" s="54"/>
-      <c r="J9" s="54"/>
-      <c r="K9" s="54"/>
+      <c r="E9" s="58"/>
+      <c r="F9" s="58"/>
+      <c r="G9" s="58"/>
+      <c r="H9" s="58"/>
+      <c r="I9" s="58"/>
+      <c r="J9" s="58"/>
+      <c r="K9" s="58"/>
       <c r="M9" s="25" t="s">
         <v>443</v>
       </c>
@@ -8157,13 +8166,13 @@
       <c r="O9" s="25" t="s">
         <v>19</v>
       </c>
-      <c r="P9" s="56"/>
-      <c r="Q9" s="57"/>
-      <c r="R9" s="57"/>
-      <c r="S9" s="57"/>
-      <c r="T9" s="57"/>
-      <c r="U9" s="57"/>
-      <c r="V9" s="58"/>
+      <c r="P9" s="53"/>
+      <c r="Q9" s="54"/>
+      <c r="R9" s="54"/>
+      <c r="S9" s="54"/>
+      <c r="T9" s="54"/>
+      <c r="U9" s="54"/>
+      <c r="V9" s="55"/>
     </row>
     <row r="10" spans="2:22">
       <c r="B10" s="25" t="s">
@@ -8173,410 +8182,410 @@
         <v>446</v>
       </c>
       <c r="D10" s="25"/>
-      <c r="E10" s="54"/>
-      <c r="F10" s="54"/>
-      <c r="G10" s="54"/>
-      <c r="H10" s="54"/>
-      <c r="I10" s="54"/>
-      <c r="J10" s="54"/>
-      <c r="K10" s="54"/>
+      <c r="E10" s="58"/>
+      <c r="F10" s="58"/>
+      <c r="G10" s="58"/>
+      <c r="H10" s="58"/>
+      <c r="I10" s="58"/>
+      <c r="J10" s="58"/>
+      <c r="K10" s="58"/>
       <c r="M10" s="25"/>
       <c r="N10" s="25"/>
       <c r="O10" s="25"/>
-      <c r="P10" s="56"/>
-      <c r="Q10" s="57"/>
-      <c r="R10" s="57"/>
-      <c r="S10" s="57"/>
-      <c r="T10" s="57"/>
-      <c r="U10" s="57"/>
-      <c r="V10" s="58"/>
+      <c r="P10" s="53"/>
+      <c r="Q10" s="54"/>
+      <c r="R10" s="54"/>
+      <c r="S10" s="54"/>
+      <c r="T10" s="54"/>
+      <c r="U10" s="54"/>
+      <c r="V10" s="55"/>
     </row>
     <row r="11" spans="2:22">
       <c r="B11" s="25"/>
       <c r="C11" s="25"/>
       <c r="D11" s="25"/>
-      <c r="E11" s="54"/>
-      <c r="F11" s="54"/>
-      <c r="G11" s="54"/>
-      <c r="H11" s="54"/>
-      <c r="I11" s="54"/>
-      <c r="J11" s="54"/>
-      <c r="K11" s="54"/>
+      <c r="E11" s="58"/>
+      <c r="F11" s="58"/>
+      <c r="G11" s="58"/>
+      <c r="H11" s="58"/>
+      <c r="I11" s="58"/>
+      <c r="J11" s="58"/>
+      <c r="K11" s="58"/>
       <c r="M11" s="25"/>
       <c r="N11" s="25"/>
       <c r="O11" s="25"/>
-      <c r="P11" s="56"/>
-      <c r="Q11" s="57"/>
-      <c r="R11" s="57"/>
-      <c r="S11" s="57"/>
-      <c r="T11" s="57"/>
-      <c r="U11" s="57"/>
-      <c r="V11" s="58"/>
+      <c r="P11" s="53"/>
+      <c r="Q11" s="54"/>
+      <c r="R11" s="54"/>
+      <c r="S11" s="54"/>
+      <c r="T11" s="54"/>
+      <c r="U11" s="54"/>
+      <c r="V11" s="55"/>
     </row>
     <row r="12" spans="2:22">
       <c r="B12" s="25"/>
       <c r="C12" s="25"/>
       <c r="D12" s="25"/>
-      <c r="E12" s="54"/>
-      <c r="F12" s="54"/>
-      <c r="G12" s="54"/>
-      <c r="H12" s="54"/>
-      <c r="I12" s="54"/>
-      <c r="J12" s="54"/>
-      <c r="K12" s="54"/>
+      <c r="E12" s="58"/>
+      <c r="F12" s="58"/>
+      <c r="G12" s="58"/>
+      <c r="H12" s="58"/>
+      <c r="I12" s="58"/>
+      <c r="J12" s="58"/>
+      <c r="K12" s="58"/>
       <c r="M12" s="25"/>
       <c r="N12" s="25"/>
       <c r="O12" s="25"/>
-      <c r="P12" s="56"/>
-      <c r="Q12" s="57"/>
-      <c r="R12" s="57"/>
-      <c r="S12" s="57"/>
-      <c r="T12" s="57"/>
-      <c r="U12" s="57"/>
-      <c r="V12" s="58"/>
+      <c r="P12" s="53"/>
+      <c r="Q12" s="54"/>
+      <c r="R12" s="54"/>
+      <c r="S12" s="54"/>
+      <c r="T12" s="54"/>
+      <c r="U12" s="54"/>
+      <c r="V12" s="55"/>
     </row>
     <row r="13" spans="2:22">
       <c r="B13" s="25"/>
       <c r="C13" s="25"/>
       <c r="D13" s="25"/>
-      <c r="E13" s="54"/>
-      <c r="F13" s="54"/>
-      <c r="G13" s="54"/>
-      <c r="H13" s="54"/>
-      <c r="I13" s="54"/>
-      <c r="J13" s="54"/>
-      <c r="K13" s="54"/>
+      <c r="E13" s="58"/>
+      <c r="F13" s="58"/>
+      <c r="G13" s="58"/>
+      <c r="H13" s="58"/>
+      <c r="I13" s="58"/>
+      <c r="J13" s="58"/>
+      <c r="K13" s="58"/>
       <c r="M13" s="25"/>
       <c r="N13" s="25"/>
       <c r="O13" s="25"/>
-      <c r="P13" s="56"/>
-      <c r="Q13" s="57"/>
-      <c r="R13" s="57"/>
-      <c r="S13" s="57"/>
-      <c r="T13" s="57"/>
-      <c r="U13" s="57"/>
-      <c r="V13" s="58"/>
+      <c r="P13" s="53"/>
+      <c r="Q13" s="54"/>
+      <c r="R13" s="54"/>
+      <c r="S13" s="54"/>
+      <c r="T13" s="54"/>
+      <c r="U13" s="54"/>
+      <c r="V13" s="55"/>
     </row>
     <row r="14" spans="2:22">
       <c r="B14" s="25"/>
       <c r="C14" s="25"/>
       <c r="D14" s="25"/>
-      <c r="E14" s="54"/>
-      <c r="F14" s="54"/>
-      <c r="G14" s="54"/>
-      <c r="H14" s="54"/>
-      <c r="I14" s="54"/>
-      <c r="J14" s="54"/>
-      <c r="K14" s="54"/>
+      <c r="E14" s="58"/>
+      <c r="F14" s="58"/>
+      <c r="G14" s="58"/>
+      <c r="H14" s="58"/>
+      <c r="I14" s="58"/>
+      <c r="J14" s="58"/>
+      <c r="K14" s="58"/>
       <c r="M14" s="25"/>
       <c r="N14" s="25"/>
       <c r="O14" s="25"/>
-      <c r="P14" s="56"/>
-      <c r="Q14" s="57"/>
-      <c r="R14" s="57"/>
-      <c r="S14" s="57"/>
-      <c r="T14" s="57"/>
-      <c r="U14" s="57"/>
-      <c r="V14" s="58"/>
+      <c r="P14" s="53"/>
+      <c r="Q14" s="54"/>
+      <c r="R14" s="54"/>
+      <c r="S14" s="54"/>
+      <c r="T14" s="54"/>
+      <c r="U14" s="54"/>
+      <c r="V14" s="55"/>
     </row>
     <row r="15" spans="2:22">
       <c r="B15" s="25"/>
       <c r="C15" s="25"/>
       <c r="D15" s="25"/>
-      <c r="E15" s="54"/>
-      <c r="F15" s="54"/>
-      <c r="G15" s="54"/>
-      <c r="H15" s="54"/>
-      <c r="I15" s="54"/>
-      <c r="J15" s="54"/>
-      <c r="K15" s="54"/>
+      <c r="E15" s="58"/>
+      <c r="F15" s="58"/>
+      <c r="G15" s="58"/>
+      <c r="H15" s="58"/>
+      <c r="I15" s="58"/>
+      <c r="J15" s="58"/>
+      <c r="K15" s="58"/>
       <c r="M15" s="25"/>
       <c r="N15" s="25"/>
       <c r="O15" s="25"/>
-      <c r="P15" s="56"/>
-      <c r="Q15" s="57"/>
-      <c r="R15" s="57"/>
-      <c r="S15" s="57"/>
-      <c r="T15" s="57"/>
-      <c r="U15" s="57"/>
-      <c r="V15" s="58"/>
+      <c r="P15" s="53"/>
+      <c r="Q15" s="54"/>
+      <c r="R15" s="54"/>
+      <c r="S15" s="54"/>
+      <c r="T15" s="54"/>
+      <c r="U15" s="54"/>
+      <c r="V15" s="55"/>
     </row>
     <row r="18" spans="2:19" ht="14.5" customHeight="1">
-      <c r="B18" s="139" t="s">
+      <c r="B18" s="110" t="s">
         <v>447</v>
       </c>
-      <c r="C18" s="139"/>
-      <c r="D18" s="139"/>
-      <c r="E18" s="139"/>
-      <c r="F18" s="139"/>
-      <c r="G18" s="139"/>
-      <c r="H18" s="140"/>
-      <c r="I18" s="140"/>
-      <c r="J18" s="140"/>
-      <c r="K18" s="140"/>
-      <c r="L18" s="140"/>
-      <c r="M18" s="141" t="s">
+      <c r="C18" s="110"/>
+      <c r="D18" s="110"/>
+      <c r="E18" s="110"/>
+      <c r="F18" s="110"/>
+      <c r="G18" s="110"/>
+      <c r="H18" s="52"/>
+      <c r="I18" s="52"/>
+      <c r="J18" s="52"/>
+      <c r="K18" s="52"/>
+      <c r="L18" s="52"/>
+      <c r="M18" s="111" t="s">
         <v>448</v>
       </c>
-      <c r="N18" s="141"/>
-      <c r="O18" s="141"/>
-      <c r="P18" s="141"/>
-      <c r="Q18" s="141"/>
-      <c r="R18" s="141"/>
-      <c r="S18" s="141"/>
+      <c r="N18" s="111"/>
+      <c r="O18" s="111"/>
+      <c r="P18" s="111"/>
+      <c r="Q18" s="111"/>
+      <c r="R18" s="111"/>
+      <c r="S18" s="111"/>
     </row>
     <row r="19" spans="2:19">
-      <c r="B19" s="139"/>
-      <c r="C19" s="139"/>
-      <c r="D19" s="139"/>
-      <c r="E19" s="139"/>
-      <c r="F19" s="139"/>
-      <c r="G19" s="139"/>
-      <c r="H19" s="140"/>
-      <c r="I19" s="140"/>
-      <c r="J19" s="140"/>
-      <c r="K19" s="140"/>
-      <c r="L19" s="140"/>
-      <c r="M19" s="141"/>
-      <c r="N19" s="141"/>
-      <c r="O19" s="141"/>
-      <c r="P19" s="141"/>
-      <c r="Q19" s="141"/>
-      <c r="R19" s="141"/>
-      <c r="S19" s="141"/>
+      <c r="B19" s="110"/>
+      <c r="C19" s="110"/>
+      <c r="D19" s="110"/>
+      <c r="E19" s="110"/>
+      <c r="F19" s="110"/>
+      <c r="G19" s="110"/>
+      <c r="H19" s="52"/>
+      <c r="I19" s="52"/>
+      <c r="J19" s="52"/>
+      <c r="K19" s="52"/>
+      <c r="L19" s="52"/>
+      <c r="M19" s="111"/>
+      <c r="N19" s="111"/>
+      <c r="O19" s="111"/>
+      <c r="P19" s="111"/>
+      <c r="Q19" s="111"/>
+      <c r="R19" s="111"/>
+      <c r="S19" s="111"/>
     </row>
     <row r="20" spans="2:19">
-      <c r="B20" s="139"/>
-      <c r="C20" s="139"/>
-      <c r="D20" s="139"/>
-      <c r="E20" s="139"/>
-      <c r="F20" s="139"/>
-      <c r="G20" s="139"/>
-      <c r="H20" s="140"/>
-      <c r="I20" s="140"/>
-      <c r="J20" s="140"/>
-      <c r="K20" s="140"/>
-      <c r="L20" s="140"/>
-      <c r="M20" s="141"/>
-      <c r="N20" s="141"/>
-      <c r="O20" s="141"/>
-      <c r="P20" s="141"/>
-      <c r="Q20" s="141"/>
-      <c r="R20" s="141"/>
-      <c r="S20" s="141"/>
+      <c r="B20" s="110"/>
+      <c r="C20" s="110"/>
+      <c r="D20" s="110"/>
+      <c r="E20" s="110"/>
+      <c r="F20" s="110"/>
+      <c r="G20" s="110"/>
+      <c r="H20" s="52"/>
+      <c r="I20" s="52"/>
+      <c r="J20" s="52"/>
+      <c r="K20" s="52"/>
+      <c r="L20" s="52"/>
+      <c r="M20" s="111"/>
+      <c r="N20" s="111"/>
+      <c r="O20" s="111"/>
+      <c r="P20" s="111"/>
+      <c r="Q20" s="111"/>
+      <c r="R20" s="111"/>
+      <c r="S20" s="111"/>
     </row>
     <row r="21" spans="2:19">
-      <c r="B21" s="139"/>
-      <c r="C21" s="139"/>
-      <c r="D21" s="139"/>
-      <c r="E21" s="139"/>
-      <c r="F21" s="139"/>
-      <c r="G21" s="139"/>
-      <c r="H21" s="140"/>
-      <c r="I21" s="140"/>
-      <c r="J21" s="140"/>
-      <c r="K21" s="140"/>
-      <c r="L21" s="140"/>
-      <c r="M21" s="141"/>
-      <c r="N21" s="141"/>
-      <c r="O21" s="141"/>
-      <c r="P21" s="141"/>
-      <c r="Q21" s="141"/>
-      <c r="R21" s="141"/>
-      <c r="S21" s="141"/>
+      <c r="B21" s="110"/>
+      <c r="C21" s="110"/>
+      <c r="D21" s="110"/>
+      <c r="E21" s="110"/>
+      <c r="F21" s="110"/>
+      <c r="G21" s="110"/>
+      <c r="H21" s="52"/>
+      <c r="I21" s="52"/>
+      <c r="J21" s="52"/>
+      <c r="K21" s="52"/>
+      <c r="L21" s="52"/>
+      <c r="M21" s="111"/>
+      <c r="N21" s="111"/>
+      <c r="O21" s="111"/>
+      <c r="P21" s="111"/>
+      <c r="Q21" s="111"/>
+      <c r="R21" s="111"/>
+      <c r="S21" s="111"/>
     </row>
     <row r="22" spans="2:19">
-      <c r="B22" s="139"/>
-      <c r="C22" s="139"/>
-      <c r="D22" s="139"/>
-      <c r="E22" s="139"/>
-      <c r="F22" s="139"/>
-      <c r="G22" s="139"/>
-      <c r="H22" s="140"/>
-      <c r="I22" s="140"/>
-      <c r="J22" s="140"/>
-      <c r="K22" s="140"/>
-      <c r="L22" s="140"/>
-      <c r="M22" s="141"/>
-      <c r="N22" s="141"/>
-      <c r="O22" s="141"/>
-      <c r="P22" s="141"/>
-      <c r="Q22" s="141"/>
-      <c r="R22" s="141"/>
-      <c r="S22" s="141"/>
+      <c r="B22" s="110"/>
+      <c r="C22" s="110"/>
+      <c r="D22" s="110"/>
+      <c r="E22" s="110"/>
+      <c r="F22" s="110"/>
+      <c r="G22" s="110"/>
+      <c r="H22" s="52"/>
+      <c r="I22" s="52"/>
+      <c r="J22" s="52"/>
+      <c r="K22" s="52"/>
+      <c r="L22" s="52"/>
+      <c r="M22" s="111"/>
+      <c r="N22" s="111"/>
+      <c r="O22" s="111"/>
+      <c r="P22" s="111"/>
+      <c r="Q22" s="111"/>
+      <c r="R22" s="111"/>
+      <c r="S22" s="111"/>
     </row>
     <row r="23" spans="2:19">
-      <c r="B23" s="139"/>
-      <c r="C23" s="139"/>
-      <c r="D23" s="139"/>
-      <c r="E23" s="139"/>
-      <c r="F23" s="139"/>
-      <c r="G23" s="139"/>
-      <c r="H23" s="140"/>
-      <c r="I23" s="140"/>
-      <c r="J23" s="140"/>
-      <c r="K23" s="140"/>
-      <c r="L23" s="140"/>
-      <c r="M23" s="141"/>
-      <c r="N23" s="141"/>
-      <c r="O23" s="141"/>
-      <c r="P23" s="141"/>
-      <c r="Q23" s="141"/>
-      <c r="R23" s="141"/>
-      <c r="S23" s="141"/>
+      <c r="B23" s="110"/>
+      <c r="C23" s="110"/>
+      <c r="D23" s="110"/>
+      <c r="E23" s="110"/>
+      <c r="F23" s="110"/>
+      <c r="G23" s="110"/>
+      <c r="H23" s="52"/>
+      <c r="I23" s="52"/>
+      <c r="J23" s="52"/>
+      <c r="K23" s="52"/>
+      <c r="L23" s="52"/>
+      <c r="M23" s="111"/>
+      <c r="N23" s="111"/>
+      <c r="O23" s="111"/>
+      <c r="P23" s="111"/>
+      <c r="Q23" s="111"/>
+      <c r="R23" s="111"/>
+      <c r="S23" s="111"/>
     </row>
     <row r="24" spans="2:19">
-      <c r="B24" s="139"/>
-      <c r="C24" s="139"/>
-      <c r="D24" s="139"/>
-      <c r="E24" s="139"/>
-      <c r="F24" s="139"/>
-      <c r="G24" s="139"/>
-      <c r="H24" s="140"/>
-      <c r="I24" s="140"/>
-      <c r="J24" s="140"/>
-      <c r="K24" s="140"/>
-      <c r="L24" s="140"/>
-      <c r="M24" s="141"/>
-      <c r="N24" s="141"/>
-      <c r="O24" s="141"/>
-      <c r="P24" s="141"/>
-      <c r="Q24" s="141"/>
-      <c r="R24" s="141"/>
-      <c r="S24" s="141"/>
+      <c r="B24" s="110"/>
+      <c r="C24" s="110"/>
+      <c r="D24" s="110"/>
+      <c r="E24" s="110"/>
+      <c r="F24" s="110"/>
+      <c r="G24" s="110"/>
+      <c r="H24" s="52"/>
+      <c r="I24" s="52"/>
+      <c r="J24" s="52"/>
+      <c r="K24" s="52"/>
+      <c r="L24" s="52"/>
+      <c r="M24" s="111"/>
+      <c r="N24" s="111"/>
+      <c r="O24" s="111"/>
+      <c r="P24" s="111"/>
+      <c r="Q24" s="111"/>
+      <c r="R24" s="111"/>
+      <c r="S24" s="111"/>
     </row>
     <row r="25" spans="2:19">
-      <c r="B25" s="139"/>
-      <c r="C25" s="139"/>
-      <c r="D25" s="139"/>
-      <c r="E25" s="139"/>
-      <c r="F25" s="139"/>
-      <c r="G25" s="139"/>
-      <c r="M25" s="141"/>
-      <c r="N25" s="141"/>
-      <c r="O25" s="141"/>
-      <c r="P25" s="141"/>
-      <c r="Q25" s="141"/>
-      <c r="R25" s="141"/>
-      <c r="S25" s="141"/>
+      <c r="B25" s="110"/>
+      <c r="C25" s="110"/>
+      <c r="D25" s="110"/>
+      <c r="E25" s="110"/>
+      <c r="F25" s="110"/>
+      <c r="G25" s="110"/>
+      <c r="M25" s="111"/>
+      <c r="N25" s="111"/>
+      <c r="O25" s="111"/>
+      <c r="P25" s="111"/>
+      <c r="Q25" s="111"/>
+      <c r="R25" s="111"/>
+      <c r="S25" s="111"/>
     </row>
     <row r="26" spans="2:19">
-      <c r="B26" s="139"/>
-      <c r="C26" s="139"/>
-      <c r="D26" s="139"/>
-      <c r="E26" s="139"/>
-      <c r="F26" s="139"/>
-      <c r="G26" s="139"/>
-      <c r="M26" s="141"/>
-      <c r="N26" s="141"/>
-      <c r="O26" s="141"/>
-      <c r="P26" s="141"/>
-      <c r="Q26" s="141"/>
-      <c r="R26" s="141"/>
-      <c r="S26" s="141"/>
+      <c r="B26" s="110"/>
+      <c r="C26" s="110"/>
+      <c r="D26" s="110"/>
+      <c r="E26" s="110"/>
+      <c r="F26" s="110"/>
+      <c r="G26" s="110"/>
+      <c r="M26" s="111"/>
+      <c r="N26" s="111"/>
+      <c r="O26" s="111"/>
+      <c r="P26" s="111"/>
+      <c r="Q26" s="111"/>
+      <c r="R26" s="111"/>
+      <c r="S26" s="111"/>
     </row>
     <row r="27" spans="2:19">
-      <c r="B27" s="139"/>
-      <c r="C27" s="139"/>
-      <c r="D27" s="139"/>
-      <c r="E27" s="139"/>
-      <c r="F27" s="139"/>
-      <c r="G27" s="139"/>
-      <c r="M27" s="141"/>
-      <c r="N27" s="141"/>
-      <c r="O27" s="141"/>
-      <c r="P27" s="141"/>
-      <c r="Q27" s="141"/>
-      <c r="R27" s="141"/>
-      <c r="S27" s="141"/>
+      <c r="B27" s="110"/>
+      <c r="C27" s="110"/>
+      <c r="D27" s="110"/>
+      <c r="E27" s="110"/>
+      <c r="F27" s="110"/>
+      <c r="G27" s="110"/>
+      <c r="M27" s="111"/>
+      <c r="N27" s="111"/>
+      <c r="O27" s="111"/>
+      <c r="P27" s="111"/>
+      <c r="Q27" s="111"/>
+      <c r="R27" s="111"/>
+      <c r="S27" s="111"/>
     </row>
     <row r="28" spans="2:19">
-      <c r="B28" s="139"/>
-      <c r="C28" s="139"/>
-      <c r="D28" s="139"/>
-      <c r="E28" s="139"/>
-      <c r="F28" s="139"/>
-      <c r="G28" s="139"/>
-      <c r="M28" s="141"/>
-      <c r="N28" s="141"/>
-      <c r="O28" s="141"/>
-      <c r="P28" s="141"/>
-      <c r="Q28" s="141"/>
-      <c r="R28" s="141"/>
-      <c r="S28" s="141"/>
+      <c r="B28" s="110"/>
+      <c r="C28" s="110"/>
+      <c r="D28" s="110"/>
+      <c r="E28" s="110"/>
+      <c r="F28" s="110"/>
+      <c r="G28" s="110"/>
+      <c r="M28" s="111"/>
+      <c r="N28" s="111"/>
+      <c r="O28" s="111"/>
+      <c r="P28" s="111"/>
+      <c r="Q28" s="111"/>
+      <c r="R28" s="111"/>
+      <c r="S28" s="111"/>
     </row>
     <row r="29" spans="2:19">
-      <c r="B29" s="139"/>
-      <c r="C29" s="139"/>
-      <c r="D29" s="139"/>
-      <c r="E29" s="139"/>
-      <c r="F29" s="139"/>
-      <c r="G29" s="139"/>
-      <c r="M29" s="141"/>
-      <c r="N29" s="141"/>
-      <c r="O29" s="141"/>
-      <c r="P29" s="141"/>
-      <c r="Q29" s="141"/>
-      <c r="R29" s="141"/>
-      <c r="S29" s="141"/>
+      <c r="B29" s="110"/>
+      <c r="C29" s="110"/>
+      <c r="D29" s="110"/>
+      <c r="E29" s="110"/>
+      <c r="F29" s="110"/>
+      <c r="G29" s="110"/>
+      <c r="M29" s="111"/>
+      <c r="N29" s="111"/>
+      <c r="O29" s="111"/>
+      <c r="P29" s="111"/>
+      <c r="Q29" s="111"/>
+      <c r="R29" s="111"/>
+      <c r="S29" s="111"/>
     </row>
     <row r="30" spans="2:19">
-      <c r="B30" s="139"/>
-      <c r="C30" s="139"/>
-      <c r="D30" s="139"/>
-      <c r="E30" s="139"/>
-      <c r="F30" s="139"/>
-      <c r="G30" s="139"/>
-      <c r="M30" s="141"/>
-      <c r="N30" s="141"/>
-      <c r="O30" s="141"/>
-      <c r="P30" s="141"/>
-      <c r="Q30" s="141"/>
-      <c r="R30" s="141"/>
-      <c r="S30" s="141"/>
+      <c r="B30" s="110"/>
+      <c r="C30" s="110"/>
+      <c r="D30" s="110"/>
+      <c r="E30" s="110"/>
+      <c r="F30" s="110"/>
+      <c r="G30" s="110"/>
+      <c r="M30" s="111"/>
+      <c r="N30" s="111"/>
+      <c r="O30" s="111"/>
+      <c r="P30" s="111"/>
+      <c r="Q30" s="111"/>
+      <c r="R30" s="111"/>
+      <c r="S30" s="111"/>
     </row>
     <row r="31" spans="2:19">
-      <c r="B31" s="139"/>
-      <c r="C31" s="139"/>
-      <c r="D31" s="139"/>
-      <c r="E31" s="139"/>
-      <c r="F31" s="139"/>
-      <c r="G31" s="139"/>
-      <c r="M31" s="141"/>
-      <c r="N31" s="141"/>
-      <c r="O31" s="141"/>
-      <c r="P31" s="141"/>
-      <c r="Q31" s="141"/>
-      <c r="R31" s="141"/>
-      <c r="S31" s="141"/>
+      <c r="B31" s="110"/>
+      <c r="C31" s="110"/>
+      <c r="D31" s="110"/>
+      <c r="E31" s="110"/>
+      <c r="F31" s="110"/>
+      <c r="G31" s="110"/>
+      <c r="M31" s="111"/>
+      <c r="N31" s="111"/>
+      <c r="O31" s="111"/>
+      <c r="P31" s="111"/>
+      <c r="Q31" s="111"/>
+      <c r="R31" s="111"/>
+      <c r="S31" s="111"/>
     </row>
   </sheetData>
   <mergeCells count="25">
+    <mergeCell ref="E7:K7"/>
+    <mergeCell ref="P7:V7"/>
+    <mergeCell ref="E2:O2"/>
+    <mergeCell ref="B3:K4"/>
+    <mergeCell ref="M3:V4"/>
+    <mergeCell ref="E6:K6"/>
+    <mergeCell ref="P6:V6"/>
+    <mergeCell ref="E8:K8"/>
+    <mergeCell ref="P8:V8"/>
+    <mergeCell ref="E9:K9"/>
+    <mergeCell ref="P9:V9"/>
+    <mergeCell ref="E10:K10"/>
+    <mergeCell ref="P10:V10"/>
+    <mergeCell ref="E11:K11"/>
+    <mergeCell ref="P11:V11"/>
+    <mergeCell ref="E12:K12"/>
+    <mergeCell ref="P12:V12"/>
+    <mergeCell ref="E13:K13"/>
+    <mergeCell ref="P13:V13"/>
     <mergeCell ref="E14:K14"/>
     <mergeCell ref="P14:V14"/>
     <mergeCell ref="E15:K15"/>
     <mergeCell ref="P15:V15"/>
     <mergeCell ref="B18:G31"/>
     <mergeCell ref="M18:S31"/>
-    <mergeCell ref="E11:K11"/>
-    <mergeCell ref="P11:V11"/>
-    <mergeCell ref="E12:K12"/>
-    <mergeCell ref="P12:V12"/>
-    <mergeCell ref="E13:K13"/>
-    <mergeCell ref="P13:V13"/>
-    <mergeCell ref="E8:K8"/>
-    <mergeCell ref="P8:V8"/>
-    <mergeCell ref="E9:K9"/>
-    <mergeCell ref="P9:V9"/>
-    <mergeCell ref="E10:K10"/>
-    <mergeCell ref="P10:V10"/>
-    <mergeCell ref="E2:O2"/>
-    <mergeCell ref="B3:K4"/>
-    <mergeCell ref="M3:V4"/>
-    <mergeCell ref="E6:K6"/>
-    <mergeCell ref="P6:V6"/>
-    <mergeCell ref="E7:K7"/>
-    <mergeCell ref="P7:V7"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -8586,15 +8595,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z74"/>
   <sheetViews>
-    <sheetView topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="D76" sqref="D76"/>
+    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="S61" sqref="S61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5"/>
   <sheetData>
     <row r="1" spans="1:26">
       <c r="A1" s="1"/>
-      <c r="B1" s="108">
+      <c r="B1" s="138">
         <v>1</v>
       </c>
       <c r="C1" s="1"/>
@@ -8624,7 +8633,7 @@
     </row>
     <row r="2" spans="1:26">
       <c r="A2" s="1"/>
-      <c r="B2" s="108"/>
+      <c r="B2" s="138"/>
       <c r="C2" s="1"/>
       <c r="D2" s="1"/>
       <c r="E2" s="1"/>
@@ -8652,20 +8661,20 @@
     </row>
     <row r="3" spans="1:26">
       <c r="A3" s="1"/>
-      <c r="B3" s="118" t="s">
+      <c r="B3" s="139" t="s">
         <v>334</v>
       </c>
-      <c r="C3" s="118"/>
-      <c r="D3" s="118"/>
-      <c r="E3" s="118"/>
-      <c r="F3" s="118"/>
-      <c r="G3" s="118"/>
-      <c r="H3" s="118"/>
-      <c r="I3" s="118"/>
-      <c r="J3" s="118"/>
-      <c r="K3" s="118"/>
-      <c r="L3" s="118"/>
-      <c r="M3" s="118"/>
+      <c r="C3" s="139"/>
+      <c r="D3" s="139"/>
+      <c r="E3" s="139"/>
+      <c r="F3" s="139"/>
+      <c r="G3" s="139"/>
+      <c r="H3" s="139"/>
+      <c r="I3" s="139"/>
+      <c r="J3" s="139"/>
+      <c r="K3" s="139"/>
+      <c r="L3" s="139"/>
+      <c r="M3" s="139"/>
       <c r="N3" s="1"/>
       <c r="O3" s="1"/>
       <c r="P3" s="1"/>
@@ -8682,18 +8691,18 @@
     </row>
     <row r="4" spans="1:26">
       <c r="A4" s="1"/>
-      <c r="B4" s="118"/>
-      <c r="C4" s="118"/>
-      <c r="D4" s="118"/>
-      <c r="E4" s="118"/>
-      <c r="F4" s="118"/>
-      <c r="G4" s="118"/>
-      <c r="H4" s="118"/>
-      <c r="I4" s="118"/>
-      <c r="J4" s="118"/>
-      <c r="K4" s="118"/>
-      <c r="L4" s="118"/>
-      <c r="M4" s="118"/>
+      <c r="B4" s="139"/>
+      <c r="C4" s="139"/>
+      <c r="D4" s="139"/>
+      <c r="E4" s="139"/>
+      <c r="F4" s="139"/>
+      <c r="G4" s="139"/>
+      <c r="H4" s="139"/>
+      <c r="I4" s="139"/>
+      <c r="J4" s="139"/>
+      <c r="K4" s="139"/>
+      <c r="L4" s="139"/>
+      <c r="M4" s="139"/>
       <c r="N4" s="1"/>
       <c r="O4" s="1"/>
       <c r="P4" s="1"/>
@@ -8709,18 +8718,18 @@
       <c r="Z4" s="1"/>
     </row>
     <row r="5" spans="1:26">
-      <c r="B5" s="118"/>
-      <c r="C5" s="118"/>
-      <c r="D5" s="118"/>
-      <c r="E5" s="118"/>
-      <c r="F5" s="118"/>
-      <c r="G5" s="118"/>
-      <c r="H5" s="118"/>
-      <c r="I5" s="118"/>
-      <c r="J5" s="118"/>
-      <c r="K5" s="118"/>
-      <c r="L5" s="118"/>
-      <c r="M5" s="118"/>
+      <c r="B5" s="139"/>
+      <c r="C5" s="139"/>
+      <c r="D5" s="139"/>
+      <c r="E5" s="139"/>
+      <c r="F5" s="139"/>
+      <c r="G5" s="139"/>
+      <c r="H5" s="139"/>
+      <c r="I5" s="139"/>
+      <c r="J5" s="139"/>
+      <c r="K5" s="139"/>
+      <c r="L5" s="139"/>
+      <c r="M5" s="139"/>
     </row>
     <row r="6" spans="1:26" ht="15.5">
       <c r="B6" s="2"/>
@@ -8765,7 +8774,7 @@
       <c r="M8" s="2"/>
     </row>
     <row r="9" spans="1:26" ht="15.5">
-      <c r="B9" s="108">
+      <c r="B9" s="138">
         <v>2</v>
       </c>
       <c r="C9" s="2"/>
@@ -8781,7 +8790,7 @@
       <c r="M9" s="2"/>
     </row>
     <row r="10" spans="1:26" ht="15.5">
-      <c r="B10" s="108"/>
+      <c r="B10" s="138"/>
       <c r="C10" s="2"/>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
@@ -8795,1130 +8804,1278 @@
       <c r="M10" s="2"/>
     </row>
     <row r="11" spans="1:26" ht="15.5">
-      <c r="B11" s="119" t="s">
+      <c r="B11" s="140" t="s">
         <v>335</v>
       </c>
-      <c r="C11" s="118"/>
-      <c r="D11" s="118"/>
-      <c r="E11" s="118"/>
-      <c r="F11" s="118"/>
-      <c r="G11" s="118"/>
-      <c r="H11" s="118"/>
-      <c r="I11" s="118"/>
-      <c r="J11" s="118"/>
-      <c r="K11" s="118"/>
-      <c r="L11" s="118"/>
-      <c r="M11" s="118"/>
-      <c r="N11" s="118"/>
+      <c r="C11" s="139"/>
+      <c r="D11" s="139"/>
+      <c r="E11" s="139"/>
+      <c r="F11" s="139"/>
+      <c r="G11" s="139"/>
+      <c r="H11" s="139"/>
+      <c r="I11" s="139"/>
+      <c r="J11" s="139"/>
+      <c r="K11" s="139"/>
+      <c r="L11" s="139"/>
+      <c r="M11" s="139"/>
+      <c r="N11" s="139"/>
       <c r="O11" s="5"/>
     </row>
     <row r="12" spans="1:26" ht="15.5">
-      <c r="B12" s="118"/>
-      <c r="C12" s="118"/>
-      <c r="D12" s="118"/>
-      <c r="E12" s="118"/>
-      <c r="F12" s="118"/>
-      <c r="G12" s="118"/>
-      <c r="H12" s="118"/>
-      <c r="I12" s="118"/>
-      <c r="J12" s="118"/>
-      <c r="K12" s="118"/>
-      <c r="L12" s="118"/>
-      <c r="M12" s="118"/>
-      <c r="N12" s="118"/>
+      <c r="B12" s="139"/>
+      <c r="C12" s="139"/>
+      <c r="D12" s="139"/>
+      <c r="E12" s="139"/>
+      <c r="F12" s="139"/>
+      <c r="G12" s="139"/>
+      <c r="H12" s="139"/>
+      <c r="I12" s="139"/>
+      <c r="J12" s="139"/>
+      <c r="K12" s="139"/>
+      <c r="L12" s="139"/>
+      <c r="M12" s="139"/>
+      <c r="N12" s="139"/>
       <c r="O12" s="5"/>
     </row>
     <row r="13" spans="1:26" ht="15.5">
-      <c r="B13" s="118"/>
-      <c r="C13" s="118"/>
-      <c r="D13" s="118"/>
-      <c r="E13" s="118"/>
-      <c r="F13" s="118"/>
-      <c r="G13" s="118"/>
-      <c r="H13" s="118"/>
-      <c r="I13" s="118"/>
-      <c r="J13" s="118"/>
-      <c r="K13" s="118"/>
-      <c r="L13" s="118"/>
-      <c r="M13" s="118"/>
-      <c r="N13" s="118"/>
-      <c r="O13" s="117" t="s">
+      <c r="B13" s="139"/>
+      <c r="C13" s="139"/>
+      <c r="D13" s="139"/>
+      <c r="E13" s="139"/>
+      <c r="F13" s="139"/>
+      <c r="G13" s="139"/>
+      <c r="H13" s="139"/>
+      <c r="I13" s="139"/>
+      <c r="J13" s="139"/>
+      <c r="K13" s="139"/>
+      <c r="L13" s="139"/>
+      <c r="M13" s="139"/>
+      <c r="N13" s="139"/>
+      <c r="O13" s="137" t="s">
         <v>336</v>
       </c>
-      <c r="P13" s="117"/>
-      <c r="Q13" s="117"/>
-      <c r="R13" s="117"/>
+      <c r="P13" s="137"/>
+      <c r="Q13" s="137"/>
+      <c r="R13" s="137"/>
       <c r="S13" s="7"/>
     </row>
     <row r="14" spans="1:26">
       <c r="J14" s="6"/>
     </row>
     <row r="17" spans="2:21">
-      <c r="B17" s="108">
+      <c r="B17" s="138">
         <v>3</v>
       </c>
     </row>
     <row r="18" spans="2:21">
-      <c r="B18" s="108"/>
+      <c r="B18" s="138"/>
     </row>
     <row r="19" spans="2:21">
-      <c r="B19" s="111" t="s">
+      <c r="B19" s="122" t="s">
         <v>223</v>
       </c>
-      <c r="C19" s="111"/>
-      <c r="D19" s="111"/>
-      <c r="E19" s="109" t="s">
+      <c r="C19" s="122"/>
+      <c r="D19" s="122"/>
+      <c r="E19" s="117" t="s">
         <v>228</v>
       </c>
-      <c r="F19" s="109" t="s">
+      <c r="F19" s="117" t="s">
         <v>229</v>
       </c>
-      <c r="G19" s="109" t="s">
+      <c r="G19" s="117" t="s">
         <v>230</v>
       </c>
-      <c r="H19" s="109" t="s">
+      <c r="H19" s="117" t="s">
         <v>231</v>
       </c>
-      <c r="I19" s="109" t="s">
+      <c r="I19" s="117" t="s">
         <v>232</v>
       </c>
-      <c r="J19" s="109" t="s">
+      <c r="J19" s="117" t="s">
         <v>233</v>
       </c>
-      <c r="K19" s="109" t="s">
+      <c r="K19" s="117" t="s">
         <v>234</v>
       </c>
-      <c r="L19" s="109" t="s">
+      <c r="L19" s="117" t="s">
         <v>235</v>
       </c>
-      <c r="M19" s="109" t="s">
+      <c r="M19" s="117" t="s">
         <v>236</v>
       </c>
-      <c r="N19" s="109" t="s">
+      <c r="N19" s="117" t="s">
         <v>237</v>
       </c>
-      <c r="O19" s="109" t="s">
+      <c r="O19" s="117" t="s">
         <v>238</v>
       </c>
-      <c r="P19" s="109" t="s">
+      <c r="P19" s="117" t="s">
         <v>239</v>
       </c>
-      <c r="Q19" s="109" t="s">
+      <c r="Q19" s="117" t="s">
         <v>240</v>
       </c>
     </row>
     <row r="20" spans="2:21">
-      <c r="B20" s="111"/>
-      <c r="C20" s="111"/>
-      <c r="D20" s="111"/>
-      <c r="E20" s="109"/>
-      <c r="F20" s="109"/>
-      <c r="G20" s="109"/>
-      <c r="H20" s="109"/>
-      <c r="I20" s="109"/>
-      <c r="J20" s="109"/>
-      <c r="K20" s="109"/>
-      <c r="L20" s="109"/>
-      <c r="M20" s="109"/>
-      <c r="N20" s="109"/>
-      <c r="O20" s="109"/>
-      <c r="P20" s="109"/>
-      <c r="Q20" s="109"/>
+      <c r="B20" s="122"/>
+      <c r="C20" s="122"/>
+      <c r="D20" s="122"/>
+      <c r="E20" s="117"/>
+      <c r="F20" s="117"/>
+      <c r="G20" s="117"/>
+      <c r="H20" s="117"/>
+      <c r="I20" s="117"/>
+      <c r="J20" s="117"/>
+      <c r="K20" s="117"/>
+      <c r="L20" s="117"/>
+      <c r="M20" s="117"/>
+      <c r="N20" s="117"/>
+      <c r="O20" s="117"/>
+      <c r="P20" s="117"/>
+      <c r="Q20" s="117"/>
     </row>
     <row r="21" spans="2:21">
-      <c r="B21" s="111" t="s">
+      <c r="B21" s="122" t="s">
         <v>337</v>
       </c>
-      <c r="C21" s="111"/>
-      <c r="D21" s="111"/>
-      <c r="E21" s="110" t="s">
+      <c r="C21" s="122"/>
+      <c r="D21" s="122"/>
+      <c r="E21" s="116" t="s">
         <v>242</v>
       </c>
-      <c r="F21" s="110" t="s">
+      <c r="F21" s="116" t="s">
         <v>243</v>
       </c>
-      <c r="G21" s="110" t="s">
+      <c r="G21" s="116" t="s">
         <v>244</v>
       </c>
-      <c r="H21" s="110" t="s">
+      <c r="H21" s="116" t="s">
         <v>245</v>
       </c>
-      <c r="I21" s="110" t="s">
+      <c r="I21" s="116" t="s">
         <v>246</v>
       </c>
-      <c r="J21" s="110" t="s">
+      <c r="J21" s="116" t="s">
         <v>247</v>
       </c>
-      <c r="K21" s="110" t="s">
+      <c r="K21" s="116" t="s">
         <v>248</v>
       </c>
-      <c r="L21" s="110" t="s">
+      <c r="L21" s="116" t="s">
         <v>249</v>
       </c>
-      <c r="M21" s="110" t="s">
+      <c r="M21" s="116" t="s">
         <v>250</v>
       </c>
-      <c r="N21" s="110" t="s">
+      <c r="N21" s="116" t="s">
         <v>251</v>
       </c>
-      <c r="O21" s="110" t="s">
+      <c r="O21" s="116" t="s">
         <v>252</v>
       </c>
-      <c r="P21" s="110" t="s">
+      <c r="P21" s="116" t="s">
         <v>253</v>
       </c>
-      <c r="Q21" s="110" t="s">
+      <c r="Q21" s="116" t="s">
         <v>254</v>
       </c>
     </row>
     <row r="22" spans="2:21" ht="15.5">
-      <c r="B22" s="111"/>
-      <c r="C22" s="111"/>
-      <c r="D22" s="111"/>
-      <c r="E22" s="110"/>
-      <c r="F22" s="110"/>
-      <c r="G22" s="110"/>
-      <c r="H22" s="110"/>
-      <c r="I22" s="110"/>
-      <c r="J22" s="110"/>
-      <c r="K22" s="110"/>
-      <c r="L22" s="110"/>
-      <c r="M22" s="110"/>
-      <c r="N22" s="110"/>
-      <c r="O22" s="110"/>
-      <c r="P22" s="110"/>
-      <c r="Q22" s="110"/>
-      <c r="R22" s="117" t="s">
+      <c r="B22" s="122"/>
+      <c r="C22" s="122"/>
+      <c r="D22" s="122"/>
+      <c r="E22" s="116"/>
+      <c r="F22" s="116"/>
+      <c r="G22" s="116"/>
+      <c r="H22" s="116"/>
+      <c r="I22" s="116"/>
+      <c r="J22" s="116"/>
+      <c r="K22" s="116"/>
+      <c r="L22" s="116"/>
+      <c r="M22" s="116"/>
+      <c r="N22" s="116"/>
+      <c r="O22" s="116"/>
+      <c r="P22" s="116"/>
+      <c r="Q22" s="116"/>
+      <c r="R22" s="137" t="s">
         <v>338</v>
       </c>
-      <c r="S22" s="117"/>
-      <c r="T22" s="117"/>
-      <c r="U22" s="117"/>
+      <c r="S22" s="137"/>
+      <c r="T22" s="137"/>
+      <c r="U22" s="137"/>
     </row>
     <row r="26" spans="2:21">
-      <c r="B26" s="108">
+      <c r="B26" s="138">
         <v>4</v>
       </c>
     </row>
     <row r="27" spans="2:21">
-      <c r="B27" s="108"/>
+      <c r="B27" s="138"/>
     </row>
     <row r="28" spans="2:21">
-      <c r="B28" s="111" t="s">
+      <c r="B28" s="122" t="s">
         <v>339</v>
       </c>
-      <c r="C28" s="111"/>
-      <c r="D28" s="112" t="s">
+      <c r="C28" s="122"/>
+      <c r="D28" s="118" t="s">
         <v>340</v>
       </c>
-      <c r="E28" s="113"/>
-      <c r="F28" s="112" t="s">
+      <c r="E28" s="119"/>
+      <c r="F28" s="118" t="s">
         <v>341</v>
       </c>
-      <c r="G28" s="113"/>
-      <c r="H28" s="116" t="s">
+      <c r="G28" s="119"/>
+      <c r="H28" s="136" t="s">
         <v>342</v>
       </c>
-      <c r="I28" s="113"/>
-      <c r="J28" s="129"/>
-      <c r="K28" s="130"/>
-      <c r="L28" s="112" t="s">
+      <c r="I28" s="119"/>
+      <c r="J28" s="132"/>
+      <c r="K28" s="133"/>
+      <c r="L28" s="118" t="s">
         <v>343</v>
       </c>
-      <c r="M28" s="113"/>
-      <c r="N28" s="116" t="s">
+      <c r="M28" s="119"/>
+      <c r="N28" s="136" t="s">
         <v>344</v>
       </c>
-      <c r="O28" s="113"/>
-      <c r="P28" s="112"/>
-      <c r="Q28" s="113"/>
+      <c r="O28" s="119"/>
+      <c r="P28" s="118"/>
+      <c r="Q28" s="119"/>
     </row>
     <row r="29" spans="2:21" ht="46" customHeight="1">
-      <c r="B29" s="111"/>
-      <c r="C29" s="111"/>
-      <c r="D29" s="114"/>
-      <c r="E29" s="115"/>
-      <c r="F29" s="114"/>
-      <c r="G29" s="115"/>
-      <c r="H29" s="114"/>
-      <c r="I29" s="115"/>
-      <c r="J29" s="131"/>
-      <c r="K29" s="132"/>
-      <c r="L29" s="114"/>
-      <c r="M29" s="115"/>
-      <c r="N29" s="114"/>
-      <c r="O29" s="115"/>
-      <c r="P29" s="114"/>
-      <c r="Q29" s="115"/>
+      <c r="B29" s="122"/>
+      <c r="C29" s="122"/>
+      <c r="D29" s="120"/>
+      <c r="E29" s="121"/>
+      <c r="F29" s="120"/>
+      <c r="G29" s="121"/>
+      <c r="H29" s="120"/>
+      <c r="I29" s="121"/>
+      <c r="J29" s="134"/>
+      <c r="K29" s="135"/>
+      <c r="L29" s="120"/>
+      <c r="M29" s="121"/>
+      <c r="N29" s="120"/>
+      <c r="O29" s="121"/>
+      <c r="P29" s="120"/>
+      <c r="Q29" s="121"/>
     </row>
     <row r="30" spans="2:21">
-      <c r="B30" s="111" t="s">
+      <c r="B30" s="122" t="s">
         <v>2</v>
       </c>
-      <c r="C30" s="111"/>
-      <c r="D30" s="120" t="s">
+      <c r="C30" s="122"/>
+      <c r="D30" s="123" t="s">
         <v>7</v>
       </c>
-      <c r="E30" s="121"/>
-      <c r="F30" s="120" t="s">
+      <c r="E30" s="124"/>
+      <c r="F30" s="123" t="s">
         <v>345</v>
       </c>
-      <c r="G30" s="121"/>
-      <c r="H30" s="124" t="s">
+      <c r="G30" s="124"/>
+      <c r="H30" s="127" t="s">
         <v>132</v>
       </c>
-      <c r="I30" s="121"/>
-      <c r="J30" s="124"/>
-      <c r="K30" s="121"/>
-      <c r="L30" s="124" t="s">
+      <c r="I30" s="124"/>
+      <c r="J30" s="127"/>
+      <c r="K30" s="124"/>
+      <c r="L30" s="127" t="s">
         <v>140</v>
       </c>
-      <c r="M30" s="121"/>
-      <c r="N30" s="125" t="s">
+      <c r="M30" s="124"/>
+      <c r="N30" s="128" t="s">
         <v>346</v>
       </c>
-      <c r="O30" s="126"/>
-      <c r="P30" s="124"/>
-      <c r="Q30" s="121"/>
+      <c r="O30" s="129"/>
+      <c r="P30" s="127"/>
+      <c r="Q30" s="124"/>
     </row>
     <row r="31" spans="2:21" ht="57" customHeight="1">
-      <c r="B31" s="111"/>
-      <c r="C31" s="111"/>
-      <c r="D31" s="122"/>
-      <c r="E31" s="123"/>
-      <c r="F31" s="122"/>
-      <c r="G31" s="123"/>
-      <c r="H31" s="122"/>
-      <c r="I31" s="123"/>
-      <c r="J31" s="122"/>
-      <c r="K31" s="123"/>
-      <c r="L31" s="122"/>
-      <c r="M31" s="123"/>
-      <c r="N31" s="127"/>
-      <c r="O31" s="128"/>
-      <c r="P31" s="122"/>
-      <c r="Q31" s="123"/>
+      <c r="B31" s="122"/>
+      <c r="C31" s="122"/>
+      <c r="D31" s="125"/>
+      <c r="E31" s="126"/>
+      <c r="F31" s="125"/>
+      <c r="G31" s="126"/>
+      <c r="H31" s="125"/>
+      <c r="I31" s="126"/>
+      <c r="J31" s="125"/>
+      <c r="K31" s="126"/>
+      <c r="L31" s="125"/>
+      <c r="M31" s="126"/>
+      <c r="N31" s="130"/>
+      <c r="O31" s="131"/>
+      <c r="P31" s="125"/>
+      <c r="Q31" s="126"/>
     </row>
     <row r="35" spans="2:17">
-      <c r="B35" s="108">
+      <c r="B35" s="138">
         <v>4</v>
       </c>
     </row>
     <row r="36" spans="2:17">
-      <c r="B36" s="108"/>
+      <c r="B36" s="138"/>
     </row>
     <row r="37" spans="2:17">
-      <c r="B37" s="133" t="s">
+      <c r="B37" s="115" t="s">
         <v>347</v>
       </c>
-      <c r="C37" s="133"/>
-      <c r="D37" s="133"/>
-      <c r="E37" s="133"/>
-      <c r="F37" s="133"/>
-      <c r="G37" s="133"/>
-      <c r="H37" s="133"/>
-      <c r="I37" s="133"/>
-      <c r="J37" s="133"/>
-      <c r="K37" s="133"/>
-      <c r="L37" s="133"/>
-      <c r="M37" s="133"/>
-      <c r="N37" s="133"/>
-      <c r="O37" s="133"/>
-      <c r="P37" s="133"/>
-      <c r="Q37" s="133"/>
+      <c r="C37" s="115"/>
+      <c r="D37" s="115"/>
+      <c r="E37" s="115"/>
+      <c r="F37" s="115"/>
+      <c r="G37" s="115"/>
+      <c r="H37" s="115"/>
+      <c r="I37" s="115"/>
+      <c r="J37" s="115"/>
+      <c r="K37" s="115"/>
+      <c r="L37" s="115"/>
+      <c r="M37" s="115"/>
+      <c r="N37" s="115"/>
+      <c r="O37" s="115"/>
+      <c r="P37" s="115"/>
+      <c r="Q37" s="115"/>
     </row>
     <row r="38" spans="2:17">
-      <c r="B38" s="133"/>
-      <c r="C38" s="133"/>
-      <c r="D38" s="133"/>
-      <c r="E38" s="133"/>
-      <c r="F38" s="133"/>
-      <c r="G38" s="133"/>
-      <c r="H38" s="133"/>
-      <c r="I38" s="133"/>
-      <c r="J38" s="133"/>
-      <c r="K38" s="133"/>
-      <c r="L38" s="133"/>
-      <c r="M38" s="133"/>
-      <c r="N38" s="133"/>
-      <c r="O38" s="133"/>
-      <c r="P38" s="133"/>
-      <c r="Q38" s="133"/>
+      <c r="B38" s="115"/>
+      <c r="C38" s="115"/>
+      <c r="D38" s="115"/>
+      <c r="E38" s="115"/>
+      <c r="F38" s="115"/>
+      <c r="G38" s="115"/>
+      <c r="H38" s="115"/>
+      <c r="I38" s="115"/>
+      <c r="J38" s="115"/>
+      <c r="K38" s="115"/>
+      <c r="L38" s="115"/>
+      <c r="M38" s="115"/>
+      <c r="N38" s="115"/>
+      <c r="O38" s="115"/>
+      <c r="P38" s="115"/>
+      <c r="Q38" s="115"/>
     </row>
     <row r="39" spans="2:17">
-      <c r="B39" s="133"/>
-      <c r="C39" s="133"/>
-      <c r="D39" s="133"/>
-      <c r="E39" s="133"/>
-      <c r="F39" s="133"/>
-      <c r="G39" s="133"/>
-      <c r="H39" s="133"/>
-      <c r="I39" s="133"/>
-      <c r="J39" s="133"/>
-      <c r="K39" s="133"/>
-      <c r="L39" s="133"/>
-      <c r="M39" s="133"/>
-      <c r="N39" s="133"/>
-      <c r="O39" s="133"/>
-      <c r="P39" s="133"/>
-      <c r="Q39" s="133"/>
+      <c r="B39" s="115"/>
+      <c r="C39" s="115"/>
+      <c r="D39" s="115"/>
+      <c r="E39" s="115"/>
+      <c r="F39" s="115"/>
+      <c r="G39" s="115"/>
+      <c r="H39" s="115"/>
+      <c r="I39" s="115"/>
+      <c r="J39" s="115"/>
+      <c r="K39" s="115"/>
+      <c r="L39" s="115"/>
+      <c r="M39" s="115"/>
+      <c r="N39" s="115"/>
+      <c r="O39" s="115"/>
+      <c r="P39" s="115"/>
+      <c r="Q39" s="115"/>
     </row>
     <row r="40" spans="2:17">
-      <c r="B40" s="96" t="s">
+      <c r="B40" s="100" t="s">
         <v>348</v>
       </c>
-      <c r="C40" s="96"/>
-      <c r="D40" s="96" t="s">
+      <c r="C40" s="100"/>
+      <c r="D40" s="100" t="s">
         <v>349</v>
       </c>
-      <c r="E40" s="96"/>
-      <c r="F40" s="96" t="s">
+      <c r="E40" s="100"/>
+      <c r="F40" s="100" t="s">
         <v>350</v>
       </c>
-      <c r="G40" s="96"/>
-      <c r="H40" s="96" t="s">
+      <c r="G40" s="100"/>
+      <c r="H40" s="100" t="s">
         <v>351</v>
       </c>
-      <c r="I40" s="96"/>
-      <c r="J40" s="96" t="s">
+      <c r="I40" s="100"/>
+      <c r="J40" s="100" t="s">
         <v>352</v>
       </c>
-      <c r="K40" s="96"/>
-      <c r="L40" s="96" t="s">
+      <c r="K40" s="100"/>
+      <c r="L40" s="100" t="s">
         <v>353</v>
       </c>
-      <c r="M40" s="96"/>
-      <c r="N40" s="96" t="s">
+      <c r="M40" s="100"/>
+      <c r="N40" s="100" t="s">
         <v>354</v>
       </c>
-      <c r="O40" s="96"/>
+      <c r="O40" s="100"/>
       <c r="P40" s="1"/>
       <c r="Q40" s="1"/>
     </row>
     <row r="41" spans="2:17">
-      <c r="B41" s="96"/>
-      <c r="C41" s="96"/>
-      <c r="D41" s="96"/>
-      <c r="E41" s="96"/>
-      <c r="F41" s="96"/>
-      <c r="G41" s="96"/>
-      <c r="H41" s="96"/>
-      <c r="I41" s="96"/>
-      <c r="J41" s="96"/>
-      <c r="K41" s="96"/>
-      <c r="L41" s="96"/>
-      <c r="M41" s="96"/>
-      <c r="N41" s="96"/>
-      <c r="O41" s="96"/>
+      <c r="B41" s="100"/>
+      <c r="C41" s="100"/>
+      <c r="D41" s="100"/>
+      <c r="E41" s="100"/>
+      <c r="F41" s="100"/>
+      <c r="G41" s="100"/>
+      <c r="H41" s="100"/>
+      <c r="I41" s="100"/>
+      <c r="J41" s="100"/>
+      <c r="K41" s="100"/>
+      <c r="L41" s="100"/>
+      <c r="M41" s="100"/>
+      <c r="N41" s="100"/>
+      <c r="O41" s="100"/>
       <c r="P41" s="1"/>
       <c r="Q41" s="1"/>
     </row>
     <row r="42" spans="2:17">
-      <c r="B42" s="96" t="s">
+      <c r="B42" s="100" t="s">
         <v>355</v>
       </c>
-      <c r="C42" s="96"/>
-      <c r="D42" s="134" t="s">
+      <c r="C42" s="100"/>
+      <c r="D42" s="114" t="s">
         <v>278</v>
       </c>
-      <c r="E42" s="134"/>
-      <c r="F42" s="134" t="s">
+      <c r="E42" s="114"/>
+      <c r="F42" s="114" t="s">
         <v>279</v>
       </c>
-      <c r="G42" s="134"/>
-      <c r="H42" s="134" t="s">
+      <c r="G42" s="114"/>
+      <c r="H42" s="114" t="s">
         <v>356</v>
       </c>
-      <c r="I42" s="134"/>
-      <c r="J42" s="134" t="s">
+      <c r="I42" s="114"/>
+      <c r="J42" s="114" t="s">
         <v>357</v>
       </c>
-      <c r="K42" s="134"/>
-      <c r="L42" s="134" t="s">
+      <c r="K42" s="114"/>
+      <c r="L42" s="114" t="s">
         <v>358</v>
       </c>
-      <c r="M42" s="134"/>
-      <c r="N42" s="134" t="s">
+      <c r="M42" s="114"/>
+      <c r="N42" s="114" t="s">
         <v>359</v>
       </c>
-      <c r="O42" s="134"/>
+      <c r="O42" s="114"/>
     </row>
     <row r="43" spans="2:17">
-      <c r="B43" s="96"/>
-      <c r="C43" s="96"/>
-      <c r="D43" s="134"/>
-      <c r="E43" s="134"/>
-      <c r="F43" s="134"/>
-      <c r="G43" s="134"/>
-      <c r="H43" s="134"/>
-      <c r="I43" s="134"/>
-      <c r="J43" s="134"/>
-      <c r="K43" s="134"/>
-      <c r="L43" s="134"/>
-      <c r="M43" s="134"/>
-      <c r="N43" s="134"/>
-      <c r="O43" s="134"/>
+      <c r="B43" s="100"/>
+      <c r="C43" s="100"/>
+      <c r="D43" s="114"/>
+      <c r="E43" s="114"/>
+      <c r="F43" s="114"/>
+      <c r="G43" s="114"/>
+      <c r="H43" s="114"/>
+      <c r="I43" s="114"/>
+      <c r="J43" s="114"/>
+      <c r="K43" s="114"/>
+      <c r="L43" s="114"/>
+      <c r="M43" s="114"/>
+      <c r="N43" s="114"/>
+      <c r="O43" s="114"/>
     </row>
     <row r="44" spans="2:17">
-      <c r="B44" s="96" t="s">
+      <c r="B44" s="100" t="s">
         <v>360</v>
       </c>
-      <c r="C44" s="96"/>
-      <c r="D44" s="134" t="s">
+      <c r="C44" s="100"/>
+      <c r="D44" s="114" t="s">
         <v>361</v>
       </c>
-      <c r="E44" s="134"/>
-      <c r="F44" s="134" t="s">
+      <c r="E44" s="114"/>
+      <c r="F44" s="114" t="s">
         <v>362</v>
       </c>
-      <c r="G44" s="134"/>
-      <c r="H44" s="134" t="s">
+      <c r="G44" s="114"/>
+      <c r="H44" s="114" t="s">
         <v>363</v>
       </c>
-      <c r="I44" s="134"/>
-      <c r="J44" s="134" t="s">
+      <c r="I44" s="114"/>
+      <c r="J44" s="114" t="s">
         <v>364</v>
       </c>
-      <c r="K44" s="134"/>
-      <c r="L44" s="134" t="s">
+      <c r="K44" s="114"/>
+      <c r="L44" s="114" t="s">
         <v>282</v>
       </c>
-      <c r="M44" s="134"/>
-      <c r="N44" s="134" t="s">
+      <c r="M44" s="114"/>
+      <c r="N44" s="114" t="s">
         <v>365</v>
       </c>
-      <c r="O44" s="134"/>
+      <c r="O44" s="114"/>
     </row>
     <row r="45" spans="2:17">
-      <c r="B45" s="96"/>
-      <c r="C45" s="96"/>
-      <c r="D45" s="134"/>
-      <c r="E45" s="134"/>
-      <c r="F45" s="134"/>
-      <c r="G45" s="134"/>
-      <c r="H45" s="134"/>
-      <c r="I45" s="134"/>
-      <c r="J45" s="134"/>
-      <c r="K45" s="134"/>
-      <c r="L45" s="134"/>
-      <c r="M45" s="134"/>
-      <c r="N45" s="134"/>
-      <c r="O45" s="134"/>
+      <c r="B45" s="100"/>
+      <c r="C45" s="100"/>
+      <c r="D45" s="114"/>
+      <c r="E45" s="114"/>
+      <c r="F45" s="114"/>
+      <c r="G45" s="114"/>
+      <c r="H45" s="114"/>
+      <c r="I45" s="114"/>
+      <c r="J45" s="114"/>
+      <c r="K45" s="114"/>
+      <c r="L45" s="114"/>
+      <c r="M45" s="114"/>
+      <c r="N45" s="114"/>
+      <c r="O45" s="114"/>
     </row>
     <row r="46" spans="2:17">
-      <c r="B46" s="96" t="s">
+      <c r="B46" s="100" t="s">
         <v>366</v>
       </c>
-      <c r="C46" s="96"/>
-      <c r="D46" s="134" t="s">
+      <c r="C46" s="100"/>
+      <c r="D46" s="114" t="s">
         <v>367</v>
       </c>
-      <c r="E46" s="134"/>
-      <c r="F46" s="134" t="s">
+      <c r="E46" s="114"/>
+      <c r="F46" s="114" t="s">
         <v>368</v>
       </c>
-      <c r="G46" s="134"/>
-      <c r="H46" s="134" t="s">
+      <c r="G46" s="114"/>
+      <c r="H46" s="114" t="s">
         <v>369</v>
       </c>
-      <c r="I46" s="134"/>
-      <c r="J46" s="134" t="s">
+      <c r="I46" s="114"/>
+      <c r="J46" s="114" t="s">
         <v>370</v>
       </c>
-      <c r="K46" s="134"/>
-      <c r="L46" s="134" t="s">
+      <c r="K46" s="114"/>
+      <c r="L46" s="114" t="s">
         <v>371</v>
       </c>
-      <c r="M46" s="134"/>
-      <c r="N46" s="134" t="s">
+      <c r="M46" s="114"/>
+      <c r="N46" s="114" t="s">
         <v>285</v>
       </c>
-      <c r="O46" s="134"/>
+      <c r="O46" s="114"/>
     </row>
     <row r="47" spans="2:17">
-      <c r="B47" s="96"/>
-      <c r="C47" s="96"/>
-      <c r="D47" s="134"/>
-      <c r="E47" s="134"/>
-      <c r="F47" s="134"/>
-      <c r="G47" s="134"/>
-      <c r="H47" s="134"/>
-      <c r="I47" s="134"/>
-      <c r="J47" s="134"/>
-      <c r="K47" s="134"/>
-      <c r="L47" s="134"/>
-      <c r="M47" s="134"/>
-      <c r="N47" s="134"/>
-      <c r="O47" s="134"/>
+      <c r="B47" s="100"/>
+      <c r="C47" s="100"/>
+      <c r="D47" s="114"/>
+      <c r="E47" s="114"/>
+      <c r="F47" s="114"/>
+      <c r="G47" s="114"/>
+      <c r="H47" s="114"/>
+      <c r="I47" s="114"/>
+      <c r="J47" s="114"/>
+      <c r="K47" s="114"/>
+      <c r="L47" s="114"/>
+      <c r="M47" s="114"/>
+      <c r="N47" s="114"/>
+      <c r="O47" s="114"/>
     </row>
     <row r="48" spans="2:17">
-      <c r="B48" s="96" t="s">
+      <c r="B48" s="100" t="s">
         <v>372</v>
       </c>
-      <c r="C48" s="96"/>
-      <c r="D48" s="134" t="s">
+      <c r="C48" s="100"/>
+      <c r="D48" s="114" t="s">
         <v>373</v>
       </c>
-      <c r="E48" s="134"/>
-      <c r="F48" s="134" t="s">
+      <c r="E48" s="114"/>
+      <c r="F48" s="114" t="s">
         <v>283</v>
       </c>
-      <c r="G48" s="134"/>
-      <c r="H48" s="134" t="s">
+      <c r="G48" s="114"/>
+      <c r="H48" s="114" t="s">
         <v>284</v>
       </c>
-      <c r="I48" s="134"/>
-      <c r="J48" s="134" t="s">
+      <c r="I48" s="114"/>
+      <c r="J48" s="114" t="s">
         <v>374</v>
       </c>
-      <c r="K48" s="134"/>
-      <c r="L48" s="134" t="s">
+      <c r="K48" s="114"/>
+      <c r="L48" s="114" t="s">
         <v>375</v>
       </c>
-      <c r="M48" s="134"/>
-      <c r="N48" s="134" t="s">
+      <c r="M48" s="114"/>
+      <c r="N48" s="114" t="s">
         <v>376</v>
       </c>
-      <c r="O48" s="134"/>
+      <c r="O48" s="114"/>
     </row>
     <row r="49" spans="2:15">
-      <c r="B49" s="96"/>
-      <c r="C49" s="96"/>
-      <c r="D49" s="134"/>
-      <c r="E49" s="134"/>
-      <c r="F49" s="134"/>
-      <c r="G49" s="134"/>
-      <c r="H49" s="134"/>
-      <c r="I49" s="134"/>
-      <c r="J49" s="134"/>
-      <c r="K49" s="134"/>
-      <c r="L49" s="134"/>
-      <c r="M49" s="134"/>
-      <c r="N49" s="134"/>
-      <c r="O49" s="134"/>
+      <c r="B49" s="100"/>
+      <c r="C49" s="100"/>
+      <c r="D49" s="114"/>
+      <c r="E49" s="114"/>
+      <c r="F49" s="114"/>
+      <c r="G49" s="114"/>
+      <c r="H49" s="114"/>
+      <c r="I49" s="114"/>
+      <c r="J49" s="114"/>
+      <c r="K49" s="114"/>
+      <c r="L49" s="114"/>
+      <c r="M49" s="114"/>
+      <c r="N49" s="114"/>
+      <c r="O49" s="114"/>
     </row>
     <row r="50" spans="2:15">
-      <c r="B50" s="96" t="s">
+      <c r="B50" s="100" t="s">
         <v>377</v>
       </c>
-      <c r="C50" s="96"/>
-      <c r="D50" s="134" t="s">
+      <c r="C50" s="100"/>
+      <c r="D50" s="114" t="s">
         <v>378</v>
       </c>
-      <c r="E50" s="134"/>
-      <c r="F50" s="134" t="s">
+      <c r="E50" s="114"/>
+      <c r="F50" s="114" t="s">
         <v>280</v>
       </c>
-      <c r="G50" s="134"/>
-      <c r="H50" s="134" t="s">
+      <c r="G50" s="114"/>
+      <c r="H50" s="114" t="s">
         <v>281</v>
       </c>
-      <c r="I50" s="134"/>
-      <c r="J50" s="134" t="s">
+      <c r="I50" s="114"/>
+      <c r="J50" s="114" t="s">
         <v>379</v>
       </c>
-      <c r="K50" s="134"/>
-      <c r="L50" s="134" t="s">
+      <c r="K50" s="114"/>
+      <c r="L50" s="114" t="s">
         <v>380</v>
       </c>
-      <c r="M50" s="134"/>
-      <c r="N50" s="134" t="s">
+      <c r="M50" s="114"/>
+      <c r="N50" s="114" t="s">
         <v>381</v>
       </c>
-      <c r="O50" s="134"/>
+      <c r="O50" s="114"/>
     </row>
     <row r="51" spans="2:15">
-      <c r="B51" s="96"/>
-      <c r="C51" s="96"/>
-      <c r="D51" s="134"/>
-      <c r="E51" s="134"/>
-      <c r="F51" s="134"/>
-      <c r="G51" s="134"/>
-      <c r="H51" s="134"/>
-      <c r="I51" s="134"/>
-      <c r="J51" s="134"/>
-      <c r="K51" s="134"/>
-      <c r="L51" s="134"/>
-      <c r="M51" s="134"/>
-      <c r="N51" s="134"/>
-      <c r="O51" s="134"/>
+      <c r="B51" s="100"/>
+      <c r="C51" s="100"/>
+      <c r="D51" s="114"/>
+      <c r="E51" s="114"/>
+      <c r="F51" s="114"/>
+      <c r="G51" s="114"/>
+      <c r="H51" s="114"/>
+      <c r="I51" s="114"/>
+      <c r="J51" s="114"/>
+      <c r="K51" s="114"/>
+      <c r="L51" s="114"/>
+      <c r="M51" s="114"/>
+      <c r="N51" s="114"/>
+      <c r="O51" s="114"/>
     </row>
     <row r="52" spans="2:15">
-      <c r="B52" s="96" t="s">
+      <c r="B52" s="100" t="s">
         <v>382</v>
       </c>
-      <c r="C52" s="96"/>
-      <c r="D52" s="134" t="s">
+      <c r="C52" s="100"/>
+      <c r="D52" s="114" t="s">
         <v>383</v>
       </c>
-      <c r="E52" s="134"/>
-      <c r="F52" s="134" t="s">
+      <c r="E52" s="114"/>
+      <c r="F52" s="114" t="s">
         <v>384</v>
       </c>
-      <c r="G52" s="134"/>
-      <c r="H52" s="134" t="s">
+      <c r="G52" s="114"/>
+      <c r="H52" s="114" t="s">
         <v>385</v>
       </c>
-      <c r="I52" s="134"/>
-      <c r="J52" s="134" t="s">
+      <c r="I52" s="114"/>
+      <c r="J52" s="114" t="s">
         <v>386</v>
       </c>
-      <c r="K52" s="134"/>
-      <c r="L52" s="134" t="s">
+      <c r="K52" s="114"/>
+      <c r="L52" s="114" t="s">
         <v>387</v>
       </c>
-      <c r="M52" s="134"/>
-      <c r="N52" s="134" t="s">
+      <c r="M52" s="114"/>
+      <c r="N52" s="114" t="s">
         <v>388</v>
       </c>
-      <c r="O52" s="134"/>
+      <c r="O52" s="114"/>
     </row>
     <row r="53" spans="2:15">
-      <c r="B53" s="96"/>
-      <c r="C53" s="96"/>
-      <c r="D53" s="134"/>
-      <c r="E53" s="134"/>
-      <c r="F53" s="134"/>
-      <c r="G53" s="134"/>
-      <c r="H53" s="134"/>
-      <c r="I53" s="134"/>
-      <c r="J53" s="134"/>
-      <c r="K53" s="134"/>
-      <c r="L53" s="134"/>
-      <c r="M53" s="134"/>
-      <c r="N53" s="134"/>
-      <c r="O53" s="134"/>
+      <c r="B53" s="100"/>
+      <c r="C53" s="100"/>
+      <c r="D53" s="114"/>
+      <c r="E53" s="114"/>
+      <c r="F53" s="114"/>
+      <c r="G53" s="114"/>
+      <c r="H53" s="114"/>
+      <c r="I53" s="114"/>
+      <c r="J53" s="114"/>
+      <c r="K53" s="114"/>
+      <c r="L53" s="114"/>
+      <c r="M53" s="114"/>
+      <c r="N53" s="114"/>
+      <c r="O53" s="114"/>
     </row>
     <row r="54" spans="2:15">
-      <c r="B54" s="96" t="s">
+      <c r="B54" s="100" t="s">
         <v>389</v>
       </c>
-      <c r="C54" s="96"/>
-      <c r="D54" s="134" t="s">
+      <c r="C54" s="100"/>
+      <c r="D54" s="114" t="s">
         <v>390</v>
       </c>
-      <c r="E54" s="134"/>
-      <c r="F54" s="134" t="s">
+      <c r="E54" s="114"/>
+      <c r="F54" s="114" t="s">
         <v>391</v>
       </c>
-      <c r="G54" s="134"/>
-      <c r="H54" s="134" t="s">
+      <c r="G54" s="114"/>
+      <c r="H54" s="114" t="s">
         <v>392</v>
       </c>
-      <c r="I54" s="134"/>
-      <c r="J54" s="134" t="s">
+      <c r="I54" s="114"/>
+      <c r="J54" s="114" t="s">
         <v>393</v>
       </c>
-      <c r="K54" s="134"/>
-      <c r="L54" s="134" t="s">
+      <c r="K54" s="114"/>
+      <c r="L54" s="114" t="s">
         <v>394</v>
       </c>
-      <c r="M54" s="134"/>
-      <c r="N54" s="134" t="s">
+      <c r="M54" s="114"/>
+      <c r="N54" s="114" t="s">
         <v>395</v>
       </c>
-      <c r="O54" s="134"/>
+      <c r="O54" s="114"/>
     </row>
     <row r="55" spans="2:15">
-      <c r="B55" s="96"/>
-      <c r="C55" s="96"/>
-      <c r="D55" s="134"/>
-      <c r="E55" s="134"/>
-      <c r="F55" s="134"/>
-      <c r="G55" s="134"/>
-      <c r="H55" s="134"/>
-      <c r="I55" s="134"/>
-      <c r="J55" s="134"/>
-      <c r="K55" s="134"/>
-      <c r="L55" s="134"/>
-      <c r="M55" s="134"/>
-      <c r="N55" s="134"/>
-      <c r="O55" s="134"/>
+      <c r="B55" s="100"/>
+      <c r="C55" s="100"/>
+      <c r="D55" s="114"/>
+      <c r="E55" s="114"/>
+      <c r="F55" s="114"/>
+      <c r="G55" s="114"/>
+      <c r="H55" s="114"/>
+      <c r="I55" s="114"/>
+      <c r="J55" s="114"/>
+      <c r="K55" s="114"/>
+      <c r="L55" s="114"/>
+      <c r="M55" s="114"/>
+      <c r="N55" s="114"/>
+      <c r="O55" s="114"/>
     </row>
     <row r="57" spans="2:15">
-      <c r="B57" s="96" t="s">
+      <c r="B57" s="100" t="s">
         <v>396</v>
       </c>
-      <c r="C57" s="96"/>
-      <c r="D57" s="96"/>
-      <c r="E57" s="96"/>
+      <c r="C57" s="100"/>
+      <c r="D57" s="100"/>
+      <c r="E57" s="100"/>
     </row>
     <row r="58" spans="2:15">
-      <c r="B58" s="96"/>
-      <c r="C58" s="96"/>
-      <c r="D58" s="96"/>
-      <c r="E58" s="96"/>
+      <c r="B58" s="100"/>
+      <c r="C58" s="100"/>
+      <c r="D58" s="100"/>
+      <c r="E58" s="100"/>
+      <c r="F58" s="142" t="s">
+        <v>449</v>
+      </c>
+      <c r="G58" s="143"/>
     </row>
     <row r="59" spans="2:15">
-      <c r="B59" s="96" t="s">
+      <c r="B59" s="100" t="s">
         <v>348</v>
       </c>
-      <c r="C59" s="96"/>
-      <c r="D59" s="96" t="s">
+      <c r="C59" s="100"/>
+      <c r="D59" s="100" t="s">
         <v>349</v>
       </c>
-      <c r="E59" s="96"/>
-      <c r="F59" s="96" t="s">
+      <c r="E59" s="100"/>
+      <c r="F59" s="100" t="s">
         <v>350</v>
       </c>
-      <c r="G59" s="96"/>
-      <c r="H59" s="96" t="s">
+      <c r="G59" s="100"/>
+      <c r="H59" s="100" t="s">
         <v>351</v>
       </c>
-      <c r="I59" s="96"/>
-      <c r="J59" s="96" t="s">
+      <c r="I59" s="100"/>
+      <c r="J59" s="100" t="s">
         <v>352</v>
       </c>
-      <c r="K59" s="96"/>
-      <c r="L59" s="96" t="s">
+      <c r="K59" s="100"/>
+      <c r="L59" s="100" t="s">
         <v>353</v>
       </c>
-      <c r="M59" s="96"/>
-      <c r="N59" s="96" t="s">
+      <c r="M59" s="100"/>
+      <c r="N59" s="100" t="s">
         <v>354</v>
       </c>
-      <c r="O59" s="96"/>
+      <c r="O59" s="100"/>
     </row>
     <row r="60" spans="2:15">
-      <c r="B60" s="96"/>
-      <c r="C60" s="96"/>
-      <c r="D60" s="96"/>
-      <c r="E60" s="96"/>
-      <c r="F60" s="96"/>
-      <c r="G60" s="96"/>
-      <c r="H60" s="96"/>
-      <c r="I60" s="96"/>
-      <c r="J60" s="96"/>
-      <c r="K60" s="96"/>
-      <c r="L60" s="96"/>
-      <c r="M60" s="96"/>
-      <c r="N60" s="96"/>
-      <c r="O60" s="96"/>
+      <c r="B60" s="100"/>
+      <c r="C60" s="100"/>
+      <c r="D60" s="100"/>
+      <c r="E60" s="100"/>
+      <c r="F60" s="100"/>
+      <c r="G60" s="100"/>
+      <c r="H60" s="100"/>
+      <c r="I60" s="100"/>
+      <c r="J60" s="100"/>
+      <c r="K60" s="100"/>
+      <c r="L60" s="100"/>
+      <c r="M60" s="100"/>
+      <c r="N60" s="100"/>
+      <c r="O60" s="100"/>
     </row>
     <row r="61" spans="2:15">
-      <c r="B61" s="96" t="s">
+      <c r="B61" s="100" t="s">
         <v>355</v>
       </c>
-      <c r="C61" s="96"/>
-      <c r="D61" s="134" t="s">
+      <c r="C61" s="100"/>
+      <c r="D61" s="114" t="s">
         <v>286</v>
       </c>
-      <c r="E61" s="134"/>
-      <c r="F61" s="134" t="s">
+      <c r="E61" s="114"/>
+      <c r="F61" s="114" t="s">
         <v>287</v>
       </c>
-      <c r="G61" s="134"/>
-      <c r="H61" s="134" t="s">
+      <c r="G61" s="114"/>
+      <c r="H61" s="114" t="s">
         <v>397</v>
       </c>
-      <c r="I61" s="134"/>
-      <c r="J61" s="134" t="s">
+      <c r="I61" s="114"/>
+      <c r="J61" s="114" t="s">
         <v>398</v>
       </c>
-      <c r="K61" s="134"/>
-      <c r="L61" s="134" t="s">
+      <c r="K61" s="114"/>
+      <c r="L61" s="114" t="s">
         <v>399</v>
       </c>
-      <c r="M61" s="134"/>
-      <c r="N61" s="134" t="s">
+      <c r="M61" s="114"/>
+      <c r="N61" s="114" t="s">
         <v>400</v>
       </c>
-      <c r="O61" s="134"/>
+      <c r="O61" s="114"/>
     </row>
     <row r="62" spans="2:15">
-      <c r="B62" s="96"/>
-      <c r="C62" s="96"/>
-      <c r="D62" s="134"/>
-      <c r="E62" s="134"/>
-      <c r="F62" s="134"/>
-      <c r="G62" s="134"/>
-      <c r="H62" s="134"/>
-      <c r="I62" s="134"/>
-      <c r="J62" s="134"/>
-      <c r="K62" s="134"/>
-      <c r="L62" s="134"/>
-      <c r="M62" s="134"/>
-      <c r="N62" s="134"/>
-      <c r="O62" s="134"/>
+      <c r="B62" s="100"/>
+      <c r="C62" s="100"/>
+      <c r="D62" s="114"/>
+      <c r="E62" s="114"/>
+      <c r="F62" s="114"/>
+      <c r="G62" s="114"/>
+      <c r="H62" s="114"/>
+      <c r="I62" s="114"/>
+      <c r="J62" s="114"/>
+      <c r="K62" s="114"/>
+      <c r="L62" s="114"/>
+      <c r="M62" s="114"/>
+      <c r="N62" s="114"/>
+      <c r="O62" s="114"/>
     </row>
     <row r="63" spans="2:15">
-      <c r="B63" s="96" t="s">
+      <c r="B63" s="100" t="s">
         <v>360</v>
       </c>
-      <c r="C63" s="96"/>
-      <c r="D63" s="134" t="s">
+      <c r="C63" s="100"/>
+      <c r="D63" s="114" t="s">
         <v>401</v>
       </c>
-      <c r="E63" s="134"/>
-      <c r="F63" s="134" t="s">
+      <c r="E63" s="114"/>
+      <c r="F63" s="114" t="s">
         <v>402</v>
       </c>
-      <c r="G63" s="134"/>
-      <c r="H63" s="134" t="s">
+      <c r="G63" s="114"/>
+      <c r="H63" s="114" t="s">
         <v>403</v>
       </c>
-      <c r="I63" s="134"/>
-      <c r="J63" s="134" t="s">
+      <c r="I63" s="114"/>
+      <c r="J63" s="114" t="s">
         <v>404</v>
       </c>
-      <c r="K63" s="134"/>
-      <c r="L63" s="134" t="s">
+      <c r="K63" s="114"/>
+      <c r="L63" s="114" t="s">
         <v>290</v>
       </c>
-      <c r="M63" s="134"/>
-      <c r="N63" s="134" t="s">
+      <c r="M63" s="114"/>
+      <c r="N63" s="114" t="s">
         <v>405</v>
       </c>
-      <c r="O63" s="134"/>
+      <c r="O63" s="114"/>
     </row>
     <row r="64" spans="2:15">
-      <c r="B64" s="96"/>
-      <c r="C64" s="96"/>
-      <c r="D64" s="134"/>
-      <c r="E64" s="134"/>
-      <c r="F64" s="134"/>
-      <c r="G64" s="134"/>
-      <c r="H64" s="134"/>
-      <c r="I64" s="134"/>
-      <c r="J64" s="134"/>
-      <c r="K64" s="134"/>
-      <c r="L64" s="134"/>
-      <c r="M64" s="134"/>
-      <c r="N64" s="134"/>
-      <c r="O64" s="134"/>
+      <c r="B64" s="100"/>
+      <c r="C64" s="100"/>
+      <c r="D64" s="114"/>
+      <c r="E64" s="114"/>
+      <c r="F64" s="114"/>
+      <c r="G64" s="114"/>
+      <c r="H64" s="114"/>
+      <c r="I64" s="114"/>
+      <c r="J64" s="114"/>
+      <c r="K64" s="114"/>
+      <c r="L64" s="114"/>
+      <c r="M64" s="114"/>
+      <c r="N64" s="114"/>
+      <c r="O64" s="114"/>
     </row>
     <row r="65" spans="2:15">
-      <c r="B65" s="96" t="s">
+      <c r="B65" s="100" t="s">
         <v>366</v>
       </c>
-      <c r="C65" s="96"/>
-      <c r="D65" s="134" t="s">
+      <c r="C65" s="100"/>
+      <c r="D65" s="114" t="s">
         <v>242</v>
       </c>
-      <c r="E65" s="134"/>
-      <c r="F65" s="134" t="s">
+      <c r="E65" s="114"/>
+      <c r="F65" s="114" t="s">
         <v>243</v>
       </c>
-      <c r="G65" s="134"/>
-      <c r="H65" s="134" t="s">
+      <c r="G65" s="114"/>
+      <c r="H65" s="114" t="s">
         <v>244</v>
       </c>
-      <c r="I65" s="134"/>
-      <c r="J65" s="134" t="s">
+      <c r="I65" s="114"/>
+      <c r="J65" s="114" t="s">
         <v>245</v>
       </c>
-      <c r="K65" s="134"/>
-      <c r="L65" s="134" t="s">
+      <c r="K65" s="114"/>
+      <c r="L65" s="114" t="s">
         <v>246</v>
       </c>
-      <c r="M65" s="134"/>
-      <c r="N65" s="134" t="s">
+      <c r="M65" s="114"/>
+      <c r="N65" s="114" t="s">
         <v>247</v>
       </c>
-      <c r="O65" s="134"/>
+      <c r="O65" s="114"/>
     </row>
     <row r="66" spans="2:15">
-      <c r="B66" s="96"/>
-      <c r="C66" s="96"/>
-      <c r="D66" s="134"/>
-      <c r="E66" s="134"/>
-      <c r="F66" s="134"/>
-      <c r="G66" s="134"/>
-      <c r="H66" s="134"/>
-      <c r="I66" s="134"/>
-      <c r="J66" s="134"/>
-      <c r="K66" s="134"/>
-      <c r="L66" s="134"/>
-      <c r="M66" s="134"/>
-      <c r="N66" s="134"/>
-      <c r="O66" s="134"/>
+      <c r="B66" s="100"/>
+      <c r="C66" s="100"/>
+      <c r="D66" s="114"/>
+      <c r="E66" s="114"/>
+      <c r="F66" s="114"/>
+      <c r="G66" s="114"/>
+      <c r="H66" s="114"/>
+      <c r="I66" s="114"/>
+      <c r="J66" s="114"/>
+      <c r="K66" s="114"/>
+      <c r="L66" s="114"/>
+      <c r="M66" s="114"/>
+      <c r="N66" s="114"/>
+      <c r="O66" s="114"/>
     </row>
     <row r="67" spans="2:15">
-      <c r="B67" s="96" t="s">
+      <c r="B67" s="100" t="s">
         <v>372</v>
       </c>
-      <c r="C67" s="96"/>
-      <c r="D67" s="134" t="s">
+      <c r="C67" s="100"/>
+      <c r="D67" s="114" t="s">
         <v>406</v>
       </c>
-      <c r="E67" s="134"/>
-      <c r="F67" s="134" t="s">
+      <c r="E67" s="114"/>
+      <c r="F67" s="114" t="s">
         <v>291</v>
       </c>
-      <c r="G67" s="134"/>
-      <c r="H67" s="134" t="s">
+      <c r="G67" s="114"/>
+      <c r="H67" s="114" t="s">
         <v>292</v>
       </c>
-      <c r="I67" s="134"/>
-      <c r="J67" s="134" t="s">
+      <c r="I67" s="114"/>
+      <c r="J67" s="114" t="s">
         <v>407</v>
       </c>
-      <c r="K67" s="134"/>
-      <c r="L67" s="134" t="s">
+      <c r="K67" s="114"/>
+      <c r="L67" s="114" t="s">
         <v>408</v>
       </c>
-      <c r="M67" s="134"/>
-      <c r="N67" s="134" t="s">
+      <c r="M67" s="114"/>
+      <c r="N67" s="114" t="s">
         <v>409</v>
       </c>
-      <c r="O67" s="134"/>
+      <c r="O67" s="114"/>
     </row>
     <row r="68" spans="2:15">
-      <c r="B68" s="96"/>
-      <c r="C68" s="96"/>
-      <c r="D68" s="134"/>
-      <c r="E68" s="134"/>
-      <c r="F68" s="134"/>
-      <c r="G68" s="134"/>
-      <c r="H68" s="134"/>
-      <c r="I68" s="134"/>
-      <c r="J68" s="134"/>
-      <c r="K68" s="134"/>
-      <c r="L68" s="134"/>
-      <c r="M68" s="134"/>
-      <c r="N68" s="134"/>
-      <c r="O68" s="134"/>
+      <c r="B68" s="100"/>
+      <c r="C68" s="100"/>
+      <c r="D68" s="114"/>
+      <c r="E68" s="114"/>
+      <c r="F68" s="114"/>
+      <c r="G68" s="114"/>
+      <c r="H68" s="114"/>
+      <c r="I68" s="114"/>
+      <c r="J68" s="114"/>
+      <c r="K68" s="114"/>
+      <c r="L68" s="114"/>
+      <c r="M68" s="114"/>
+      <c r="N68" s="114"/>
+      <c r="O68" s="114"/>
     </row>
     <row r="69" spans="2:15">
-      <c r="B69" s="96" t="s">
+      <c r="B69" s="100" t="s">
         <v>377</v>
       </c>
-      <c r="C69" s="96"/>
-      <c r="D69" s="134" t="s">
+      <c r="C69" s="100"/>
+      <c r="D69" s="114" t="s">
         <v>410</v>
       </c>
-      <c r="E69" s="134"/>
-      <c r="F69" s="134" t="s">
+      <c r="E69" s="114"/>
+      <c r="F69" s="114" t="s">
         <v>288</v>
       </c>
-      <c r="G69" s="134"/>
-      <c r="H69" s="134" t="s">
+      <c r="G69" s="114"/>
+      <c r="H69" s="114" t="s">
         <v>289</v>
       </c>
-      <c r="I69" s="134"/>
-      <c r="J69" s="134" t="s">
+      <c r="I69" s="114"/>
+      <c r="J69" s="114" t="s">
         <v>411</v>
       </c>
-      <c r="K69" s="134"/>
-      <c r="L69" s="134" t="s">
+      <c r="K69" s="114"/>
+      <c r="L69" s="114" t="s">
         <v>412</v>
       </c>
-      <c r="M69" s="134"/>
-      <c r="N69" s="134" t="s">
+      <c r="M69" s="114"/>
+      <c r="N69" s="114" t="s">
         <v>413</v>
       </c>
-      <c r="O69" s="134"/>
+      <c r="O69" s="114"/>
     </row>
     <row r="70" spans="2:15">
-      <c r="B70" s="96"/>
-      <c r="C70" s="96"/>
-      <c r="D70" s="134"/>
-      <c r="E70" s="134"/>
-      <c r="F70" s="134"/>
-      <c r="G70" s="134"/>
-      <c r="H70" s="134"/>
-      <c r="I70" s="134"/>
-      <c r="J70" s="134"/>
-      <c r="K70" s="134"/>
-      <c r="L70" s="134"/>
-      <c r="M70" s="134"/>
-      <c r="N70" s="134"/>
-      <c r="O70" s="134"/>
+      <c r="B70" s="100"/>
+      <c r="C70" s="100"/>
+      <c r="D70" s="114"/>
+      <c r="E70" s="114"/>
+      <c r="F70" s="114"/>
+      <c r="G70" s="114"/>
+      <c r="H70" s="114"/>
+      <c r="I70" s="114"/>
+      <c r="J70" s="114"/>
+      <c r="K70" s="114"/>
+      <c r="L70" s="114"/>
+      <c r="M70" s="114"/>
+      <c r="N70" s="114"/>
+      <c r="O70" s="114"/>
     </row>
     <row r="71" spans="2:15">
-      <c r="B71" s="96" t="s">
+      <c r="B71" s="100" t="s">
         <v>382</v>
       </c>
-      <c r="C71" s="96"/>
-      <c r="D71" s="134" t="s">
+      <c r="C71" s="100"/>
+      <c r="D71" s="114" t="s">
         <v>414</v>
       </c>
-      <c r="E71" s="134"/>
-      <c r="F71" s="134" t="s">
+      <c r="E71" s="114"/>
+      <c r="F71" s="114" t="s">
         <v>415</v>
       </c>
-      <c r="G71" s="134"/>
-      <c r="H71" s="134" t="s">
+      <c r="G71" s="114"/>
+      <c r="H71" s="114" t="s">
         <v>416</v>
       </c>
-      <c r="I71" s="134"/>
-      <c r="J71" s="134" t="s">
+      <c r="I71" s="114"/>
+      <c r="J71" s="114" t="s">
         <v>417</v>
       </c>
-      <c r="K71" s="134"/>
-      <c r="L71" s="134" t="s">
+      <c r="K71" s="114"/>
+      <c r="L71" s="114" t="s">
         <v>418</v>
       </c>
-      <c r="M71" s="134"/>
-      <c r="N71" s="134" t="s">
+      <c r="M71" s="114"/>
+      <c r="N71" s="114" t="s">
         <v>419</v>
       </c>
-      <c r="O71" s="134"/>
+      <c r="O71" s="114"/>
     </row>
     <row r="72" spans="2:15">
-      <c r="B72" s="96"/>
-      <c r="C72" s="96"/>
-      <c r="D72" s="134"/>
-      <c r="E72" s="134"/>
-      <c r="F72" s="134"/>
-      <c r="G72" s="134"/>
-      <c r="H72" s="134"/>
-      <c r="I72" s="134"/>
-      <c r="J72" s="134"/>
-      <c r="K72" s="134"/>
-      <c r="L72" s="134"/>
-      <c r="M72" s="134"/>
-      <c r="N72" s="134"/>
-      <c r="O72" s="134"/>
+      <c r="B72" s="100"/>
+      <c r="C72" s="100"/>
+      <c r="D72" s="114"/>
+      <c r="E72" s="114"/>
+      <c r="F72" s="114"/>
+      <c r="G72" s="114"/>
+      <c r="H72" s="114"/>
+      <c r="I72" s="114"/>
+      <c r="J72" s="114"/>
+      <c r="K72" s="114"/>
+      <c r="L72" s="114"/>
+      <c r="M72" s="114"/>
+      <c r="N72" s="114"/>
+      <c r="O72" s="114"/>
     </row>
     <row r="73" spans="2:15">
-      <c r="B73" s="96" t="s">
+      <c r="B73" s="100" t="s">
         <v>389</v>
       </c>
-      <c r="C73" s="96"/>
-      <c r="D73" s="134" t="s">
+      <c r="C73" s="100"/>
+      <c r="D73" s="114" t="s">
         <v>420</v>
       </c>
-      <c r="E73" s="134"/>
-      <c r="F73" s="134" t="s">
+      <c r="E73" s="114"/>
+      <c r="F73" s="114" t="s">
         <v>421</v>
       </c>
-      <c r="G73" s="134"/>
-      <c r="H73" s="134" t="s">
+      <c r="G73" s="114"/>
+      <c r="H73" s="114" t="s">
         <v>422</v>
       </c>
-      <c r="I73" s="134"/>
-      <c r="J73" s="134" t="s">
+      <c r="I73" s="114"/>
+      <c r="J73" s="114" t="s">
         <v>423</v>
       </c>
-      <c r="K73" s="134"/>
-      <c r="L73" s="134" t="s">
+      <c r="K73" s="114"/>
+      <c r="L73" s="114" t="s">
         <v>424</v>
       </c>
-      <c r="M73" s="134"/>
-      <c r="N73" s="134" t="s">
+      <c r="M73" s="114"/>
+      <c r="N73" s="114" t="s">
         <v>425</v>
       </c>
-      <c r="O73" s="134"/>
+      <c r="O73" s="114"/>
     </row>
     <row r="74" spans="2:15">
-      <c r="B74" s="96"/>
-      <c r="C74" s="96"/>
-      <c r="D74" s="134"/>
-      <c r="E74" s="134"/>
-      <c r="F74" s="134"/>
-      <c r="G74" s="134"/>
-      <c r="H74" s="134"/>
-      <c r="I74" s="134"/>
-      <c r="J74" s="134"/>
-      <c r="K74" s="134"/>
-      <c r="L74" s="134"/>
-      <c r="M74" s="134"/>
-      <c r="N74" s="134"/>
-      <c r="O74" s="134"/>
+      <c r="B74" s="100"/>
+      <c r="C74" s="100"/>
+      <c r="D74" s="114"/>
+      <c r="E74" s="114"/>
+      <c r="F74" s="114"/>
+      <c r="G74" s="114"/>
+      <c r="H74" s="114"/>
+      <c r="I74" s="114"/>
+      <c r="J74" s="114"/>
+      <c r="K74" s="114"/>
+      <c r="L74" s="114"/>
+      <c r="M74" s="114"/>
+      <c r="N74" s="114"/>
+      <c r="O74" s="114"/>
     </row>
   </sheetData>
-  <mergeCells count="167">
+  <mergeCells count="168">
+    <mergeCell ref="F58:G58"/>
+    <mergeCell ref="B35:B36"/>
+    <mergeCell ref="E19:E20"/>
+    <mergeCell ref="E21:E22"/>
+    <mergeCell ref="F19:F20"/>
+    <mergeCell ref="F21:F22"/>
+    <mergeCell ref="G19:G20"/>
+    <mergeCell ref="G21:G22"/>
+    <mergeCell ref="H19:H20"/>
+    <mergeCell ref="H21:H22"/>
+    <mergeCell ref="B28:C29"/>
+    <mergeCell ref="D28:E29"/>
+    <mergeCell ref="F28:G29"/>
+    <mergeCell ref="H28:I29"/>
+    <mergeCell ref="B26:B27"/>
+    <mergeCell ref="O13:R13"/>
+    <mergeCell ref="R22:U22"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="B9:B10"/>
+    <mergeCell ref="B17:B18"/>
+    <mergeCell ref="I19:I20"/>
+    <mergeCell ref="I21:I22"/>
+    <mergeCell ref="J19:J20"/>
+    <mergeCell ref="J21:J22"/>
+    <mergeCell ref="K19:K20"/>
+    <mergeCell ref="K21:K22"/>
+    <mergeCell ref="L19:L20"/>
+    <mergeCell ref="L21:L22"/>
+    <mergeCell ref="M19:M20"/>
+    <mergeCell ref="B3:M5"/>
+    <mergeCell ref="B19:D20"/>
+    <mergeCell ref="B21:D22"/>
+    <mergeCell ref="B11:N13"/>
+    <mergeCell ref="M21:M22"/>
+    <mergeCell ref="N19:N20"/>
+    <mergeCell ref="N21:N22"/>
+    <mergeCell ref="O19:O20"/>
+    <mergeCell ref="O21:O22"/>
+    <mergeCell ref="P19:P20"/>
+    <mergeCell ref="P21:P22"/>
+    <mergeCell ref="Q19:Q20"/>
+    <mergeCell ref="Q21:Q22"/>
+    <mergeCell ref="P28:Q29"/>
+    <mergeCell ref="B30:C31"/>
+    <mergeCell ref="D30:E31"/>
+    <mergeCell ref="F30:G31"/>
+    <mergeCell ref="H30:I31"/>
+    <mergeCell ref="J30:K31"/>
+    <mergeCell ref="L30:M31"/>
+    <mergeCell ref="N30:O31"/>
+    <mergeCell ref="P30:Q31"/>
+    <mergeCell ref="J28:K29"/>
+    <mergeCell ref="L28:M29"/>
+    <mergeCell ref="N28:O29"/>
+    <mergeCell ref="B37:Q39"/>
+    <mergeCell ref="B40:C41"/>
+    <mergeCell ref="D40:E41"/>
+    <mergeCell ref="F40:G41"/>
+    <mergeCell ref="H40:I41"/>
+    <mergeCell ref="J40:K41"/>
+    <mergeCell ref="L40:M41"/>
+    <mergeCell ref="N40:O41"/>
+    <mergeCell ref="B42:C43"/>
+    <mergeCell ref="D42:E43"/>
+    <mergeCell ref="F42:G43"/>
+    <mergeCell ref="H42:I43"/>
+    <mergeCell ref="J42:K43"/>
+    <mergeCell ref="L42:M43"/>
+    <mergeCell ref="N42:O43"/>
+    <mergeCell ref="B44:C45"/>
+    <mergeCell ref="D44:E45"/>
+    <mergeCell ref="F44:G45"/>
+    <mergeCell ref="H44:I45"/>
+    <mergeCell ref="J44:K45"/>
+    <mergeCell ref="L44:M45"/>
+    <mergeCell ref="N44:O45"/>
+    <mergeCell ref="B46:C47"/>
+    <mergeCell ref="D46:E47"/>
+    <mergeCell ref="F46:G47"/>
+    <mergeCell ref="H46:I47"/>
+    <mergeCell ref="J46:K47"/>
+    <mergeCell ref="L46:M47"/>
+    <mergeCell ref="N46:O47"/>
+    <mergeCell ref="B48:C49"/>
+    <mergeCell ref="D48:E49"/>
+    <mergeCell ref="F48:G49"/>
+    <mergeCell ref="H48:I49"/>
+    <mergeCell ref="J48:K49"/>
+    <mergeCell ref="L48:M49"/>
+    <mergeCell ref="N48:O49"/>
+    <mergeCell ref="B50:C51"/>
+    <mergeCell ref="D50:E51"/>
+    <mergeCell ref="F50:G51"/>
+    <mergeCell ref="H50:I51"/>
+    <mergeCell ref="J50:K51"/>
+    <mergeCell ref="L50:M51"/>
+    <mergeCell ref="N50:O51"/>
+    <mergeCell ref="B52:C53"/>
+    <mergeCell ref="D52:E53"/>
+    <mergeCell ref="F52:G53"/>
+    <mergeCell ref="H52:I53"/>
+    <mergeCell ref="J52:K53"/>
+    <mergeCell ref="L52:M53"/>
+    <mergeCell ref="N52:O53"/>
+    <mergeCell ref="B54:C55"/>
+    <mergeCell ref="D54:E55"/>
+    <mergeCell ref="F54:G55"/>
+    <mergeCell ref="H54:I55"/>
+    <mergeCell ref="J54:K55"/>
+    <mergeCell ref="L54:M55"/>
+    <mergeCell ref="N54:O55"/>
+    <mergeCell ref="B59:C60"/>
+    <mergeCell ref="D59:E60"/>
+    <mergeCell ref="F59:G60"/>
+    <mergeCell ref="H59:I60"/>
+    <mergeCell ref="J59:K60"/>
+    <mergeCell ref="L59:M60"/>
+    <mergeCell ref="N59:O60"/>
+    <mergeCell ref="B61:C62"/>
+    <mergeCell ref="D61:E62"/>
+    <mergeCell ref="F61:G62"/>
+    <mergeCell ref="H61:I62"/>
+    <mergeCell ref="J61:K62"/>
+    <mergeCell ref="L61:M62"/>
+    <mergeCell ref="N61:O62"/>
+    <mergeCell ref="F69:G70"/>
+    <mergeCell ref="H69:I70"/>
+    <mergeCell ref="J69:K70"/>
+    <mergeCell ref="L69:M70"/>
+    <mergeCell ref="N69:O70"/>
+    <mergeCell ref="B63:C64"/>
+    <mergeCell ref="D63:E64"/>
+    <mergeCell ref="F63:G64"/>
+    <mergeCell ref="H63:I64"/>
+    <mergeCell ref="J63:K64"/>
+    <mergeCell ref="L63:M64"/>
+    <mergeCell ref="N63:O64"/>
+    <mergeCell ref="B65:C66"/>
+    <mergeCell ref="D65:E66"/>
+    <mergeCell ref="F65:G66"/>
+    <mergeCell ref="H65:I66"/>
+    <mergeCell ref="J65:K66"/>
+    <mergeCell ref="L65:M66"/>
+    <mergeCell ref="N65:O66"/>
     <mergeCell ref="B57:E58"/>
     <mergeCell ref="B71:C72"/>
     <mergeCell ref="D71:E72"/>
@@ -9943,149 +10100,6 @@
     <mergeCell ref="N67:O68"/>
     <mergeCell ref="B69:C70"/>
     <mergeCell ref="D69:E70"/>
-    <mergeCell ref="F69:G70"/>
-    <mergeCell ref="H69:I70"/>
-    <mergeCell ref="J69:K70"/>
-    <mergeCell ref="L69:M70"/>
-    <mergeCell ref="N69:O70"/>
-    <mergeCell ref="B63:C64"/>
-    <mergeCell ref="D63:E64"/>
-    <mergeCell ref="F63:G64"/>
-    <mergeCell ref="H63:I64"/>
-    <mergeCell ref="J63:K64"/>
-    <mergeCell ref="L63:M64"/>
-    <mergeCell ref="N63:O64"/>
-    <mergeCell ref="B65:C66"/>
-    <mergeCell ref="D65:E66"/>
-    <mergeCell ref="F65:G66"/>
-    <mergeCell ref="H65:I66"/>
-    <mergeCell ref="J65:K66"/>
-    <mergeCell ref="L65:M66"/>
-    <mergeCell ref="N65:O66"/>
-    <mergeCell ref="B59:C60"/>
-    <mergeCell ref="D59:E60"/>
-    <mergeCell ref="F59:G60"/>
-    <mergeCell ref="H59:I60"/>
-    <mergeCell ref="J59:K60"/>
-    <mergeCell ref="L59:M60"/>
-    <mergeCell ref="N59:O60"/>
-    <mergeCell ref="B61:C62"/>
-    <mergeCell ref="D61:E62"/>
-    <mergeCell ref="F61:G62"/>
-    <mergeCell ref="H61:I62"/>
-    <mergeCell ref="J61:K62"/>
-    <mergeCell ref="L61:M62"/>
-    <mergeCell ref="N61:O62"/>
-    <mergeCell ref="B52:C53"/>
-    <mergeCell ref="D52:E53"/>
-    <mergeCell ref="F52:G53"/>
-    <mergeCell ref="H52:I53"/>
-    <mergeCell ref="J52:K53"/>
-    <mergeCell ref="L52:M53"/>
-    <mergeCell ref="N52:O53"/>
-    <mergeCell ref="B54:C55"/>
-    <mergeCell ref="D54:E55"/>
-    <mergeCell ref="F54:G55"/>
-    <mergeCell ref="H54:I55"/>
-    <mergeCell ref="J54:K55"/>
-    <mergeCell ref="L54:M55"/>
-    <mergeCell ref="N54:O55"/>
-    <mergeCell ref="B48:C49"/>
-    <mergeCell ref="D48:E49"/>
-    <mergeCell ref="F48:G49"/>
-    <mergeCell ref="H48:I49"/>
-    <mergeCell ref="J48:K49"/>
-    <mergeCell ref="L48:M49"/>
-    <mergeCell ref="N48:O49"/>
-    <mergeCell ref="B50:C51"/>
-    <mergeCell ref="D50:E51"/>
-    <mergeCell ref="F50:G51"/>
-    <mergeCell ref="H50:I51"/>
-    <mergeCell ref="J50:K51"/>
-    <mergeCell ref="L50:M51"/>
-    <mergeCell ref="N50:O51"/>
-    <mergeCell ref="B44:C45"/>
-    <mergeCell ref="D44:E45"/>
-    <mergeCell ref="F44:G45"/>
-    <mergeCell ref="H44:I45"/>
-    <mergeCell ref="J44:K45"/>
-    <mergeCell ref="L44:M45"/>
-    <mergeCell ref="N44:O45"/>
-    <mergeCell ref="B46:C47"/>
-    <mergeCell ref="D46:E47"/>
-    <mergeCell ref="F46:G47"/>
-    <mergeCell ref="H46:I47"/>
-    <mergeCell ref="J46:K47"/>
-    <mergeCell ref="L46:M47"/>
-    <mergeCell ref="N46:O47"/>
-    <mergeCell ref="B37:Q39"/>
-    <mergeCell ref="B40:C41"/>
-    <mergeCell ref="D40:E41"/>
-    <mergeCell ref="F40:G41"/>
-    <mergeCell ref="H40:I41"/>
-    <mergeCell ref="J40:K41"/>
-    <mergeCell ref="L40:M41"/>
-    <mergeCell ref="N40:O41"/>
-    <mergeCell ref="B42:C43"/>
-    <mergeCell ref="D42:E43"/>
-    <mergeCell ref="F42:G43"/>
-    <mergeCell ref="H42:I43"/>
-    <mergeCell ref="J42:K43"/>
-    <mergeCell ref="L42:M43"/>
-    <mergeCell ref="N42:O43"/>
-    <mergeCell ref="P21:P22"/>
-    <mergeCell ref="Q19:Q20"/>
-    <mergeCell ref="Q21:Q22"/>
-    <mergeCell ref="P28:Q29"/>
-    <mergeCell ref="B30:C31"/>
-    <mergeCell ref="D30:E31"/>
-    <mergeCell ref="F30:G31"/>
-    <mergeCell ref="H30:I31"/>
-    <mergeCell ref="J30:K31"/>
-    <mergeCell ref="L30:M31"/>
-    <mergeCell ref="N30:O31"/>
-    <mergeCell ref="P30:Q31"/>
-    <mergeCell ref="J28:K29"/>
-    <mergeCell ref="L28:M29"/>
-    <mergeCell ref="N28:O29"/>
-    <mergeCell ref="O13:R13"/>
-    <mergeCell ref="R22:U22"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="B9:B10"/>
-    <mergeCell ref="B17:B18"/>
-    <mergeCell ref="I19:I20"/>
-    <mergeCell ref="I21:I22"/>
-    <mergeCell ref="J19:J20"/>
-    <mergeCell ref="J21:J22"/>
-    <mergeCell ref="K19:K20"/>
-    <mergeCell ref="K21:K22"/>
-    <mergeCell ref="L19:L20"/>
-    <mergeCell ref="L21:L22"/>
-    <mergeCell ref="M19:M20"/>
-    <mergeCell ref="B3:M5"/>
-    <mergeCell ref="B19:D20"/>
-    <mergeCell ref="B21:D22"/>
-    <mergeCell ref="B11:N13"/>
-    <mergeCell ref="M21:M22"/>
-    <mergeCell ref="N19:N20"/>
-    <mergeCell ref="N21:N22"/>
-    <mergeCell ref="O19:O20"/>
-    <mergeCell ref="O21:O22"/>
-    <mergeCell ref="P19:P20"/>
-    <mergeCell ref="B35:B36"/>
-    <mergeCell ref="E19:E20"/>
-    <mergeCell ref="E21:E22"/>
-    <mergeCell ref="F19:F20"/>
-    <mergeCell ref="F21:F22"/>
-    <mergeCell ref="G19:G20"/>
-    <mergeCell ref="G21:G22"/>
-    <mergeCell ref="H19:H20"/>
-    <mergeCell ref="H21:H22"/>
-    <mergeCell ref="B28:C29"/>
-    <mergeCell ref="D28:E29"/>
-    <mergeCell ref="F28:G29"/>
-    <mergeCell ref="H28:I29"/>
-    <mergeCell ref="B26:B27"/>
   </mergeCells>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -10096,7 +10110,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B3:K7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
@@ -10104,45 +10118,45 @@
   <sheetData>
     <row r="3" spans="2:11">
       <c r="B3" s="8"/>
-      <c r="C3" s="107" t="s">
+      <c r="C3" s="141" t="s">
         <v>331</v>
       </c>
-      <c r="D3" s="107"/>
-      <c r="E3" s="107"/>
-      <c r="F3" s="107"/>
-      <c r="G3" s="107"/>
-      <c r="H3" s="107"/>
-      <c r="I3" s="107"/>
-      <c r="J3" s="107"/>
-      <c r="K3" s="107"/>
+      <c r="D3" s="141"/>
+      <c r="E3" s="141"/>
+      <c r="F3" s="141"/>
+      <c r="G3" s="141"/>
+      <c r="H3" s="141"/>
+      <c r="I3" s="141"/>
+      <c r="J3" s="141"/>
+      <c r="K3" s="141"/>
     </row>
     <row r="5" spans="2:11">
       <c r="B5" s="9"/>
-      <c r="C5" s="107" t="s">
+      <c r="C5" s="141" t="s">
         <v>332</v>
       </c>
-      <c r="D5" s="107"/>
-      <c r="E5" s="107"/>
-      <c r="F5" s="107"/>
-      <c r="G5" s="107"/>
-      <c r="H5" s="107"/>
-      <c r="I5" s="107"/>
-      <c r="J5" s="107"/>
-      <c r="K5" s="107"/>
+      <c r="D5" s="141"/>
+      <c r="E5" s="141"/>
+      <c r="F5" s="141"/>
+      <c r="G5" s="141"/>
+      <c r="H5" s="141"/>
+      <c r="I5" s="141"/>
+      <c r="J5" s="141"/>
+      <c r="K5" s="141"/>
     </row>
     <row r="7" spans="2:11">
       <c r="B7" s="10"/>
-      <c r="C7" s="107" t="s">
+      <c r="C7" s="141" t="s">
         <v>333</v>
       </c>
-      <c r="D7" s="107"/>
-      <c r="E7" s="107"/>
-      <c r="F7" s="107"/>
-      <c r="G7" s="107"/>
-      <c r="H7" s="107"/>
-      <c r="I7" s="107"/>
-      <c r="J7" s="107"/>
-      <c r="K7" s="107"/>
+      <c r="D7" s="141"/>
+      <c r="E7" s="141"/>
+      <c r="F7" s="141"/>
+      <c r="G7" s="141"/>
+      <c r="H7" s="141"/>
+      <c r="I7" s="141"/>
+      <c r="J7" s="141"/>
+      <c r="K7" s="141"/>
     </row>
   </sheetData>
   <mergeCells count="3">

--- a/GradutionProject/App_Data/学生选课系统数据库设计.xlsx
+++ b/GradutionProject/App_Data/学生选课系统数据库设计.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17655" windowHeight="10110" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="17655" windowHeight="10110"/>
   </bookViews>
   <sheets>
     <sheet name="数据库设计-关键表" sheetId="1" r:id="rId1"/>
@@ -2893,7 +2893,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="144">
+  <cellXfs count="145">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -3324,6 +3324,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -3639,8 +3642,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:T117"/>
   <sheetViews>
-    <sheetView topLeftCell="A104" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="E89" sqref="E89:O89"/>
+    <sheetView tabSelected="1" topLeftCell="A48" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="P90" sqref="P90:S91"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -6117,8 +6120,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:Q89"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A43" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C70" sqref="C70"/>
+    <sheetView topLeftCell="A8" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="B30" sqref="B30:D31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
@@ -6940,7 +6943,7 @@
       <c r="Q37" s="106"/>
     </row>
     <row r="40" spans="2:17">
-      <c r="B40" s="101" t="s">
+      <c r="B40" s="144" t="s">
         <v>253</v>
       </c>
       <c r="C40" s="102"/>
